--- a/GPU Project Results.xlsx
+++ b/GPU Project Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>Algorithm</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Time Complexity </t>
   </si>
   <si>
-    <t xml:space="preserve">T/R Array Size </t>
+    <t>Array Size (bytes)</t>
   </si>
   <si>
     <t>Memory (GB)</t>
@@ -112,10 +112,13 @@
     <t>Action vs SpeedUp</t>
   </si>
   <si>
-    <t>Space vs SpeedUp</t>
+    <t>State vs SpeedUp</t>
   </si>
   <si>
     <t>Problem Size</t>
+  </si>
+  <si>
+    <t>Space vs SpeedUp</t>
   </si>
   <si>
     <t>Segmentation fault</t>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -437,6 +437,9 @@
     </xf>
     <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -454,9 +457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,12 +793,282 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final data'!$G$14:$G$30</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final data'!$L$14:$L$30</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final data'!$G$14:$G$30</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final data'!$N$14:$N$30</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final data'!$G$14:$G$30</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final data'!$K$14:$K$30</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1343380459"/>
+        <c:axId val="623570194"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1343380459"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623570194"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623570194"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343380459"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,7 +1459,7 @@
         <v>0.21</v>
       </c>
       <c r="O3" s="15">
-        <f t="shared" ref="O3:O8" si="1">AVERAGE(E3:N3)</f>
+        <f t="shared" ref="O3:O9" si="1">AVERAGE(E3:N3)</f>
         <v>0.215</v>
       </c>
       <c r="P3" s="16">
@@ -1484,8 +1754,11 @@
       <c r="N9" s="25">
         <v>0.81</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27">
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.885</v>
+      </c>
+      <c r="P9" s="26">
         <f t="shared" si="2"/>
         <v>0.06023103667</v>
       </c>
@@ -1550,7 +1823,7 @@
         <v>0.28</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" ref="O11:O16" si="3">AVERAGE(E11:N11)</f>
+        <f t="shared" ref="O11:O17" si="3">AVERAGE(E11:N11)</f>
         <v>0.285</v>
       </c>
       <c r="P11" s="16">
@@ -1843,8 +2116,11 @@
       <c r="N17" s="25">
         <v>0.54</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27">
+      <c r="O17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.518</v>
+      </c>
+      <c r="P17" s="26">
         <f t="shared" si="4"/>
         <v>0.02616188916</v>
       </c>
@@ -20360,9 +20636,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.14"/>
     <col customWidth="1" min="2" max="2" width="5.57"/>
-    <col customWidth="1" min="3" max="3" width="18.43"/>
+    <col customWidth="1" min="3" max="3" width="21.0"/>
     <col customWidth="1" min="4" max="4" width="16.71"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="31.71"/>
+    <col customWidth="1" min="5" max="5" width="31.71"/>
     <col customWidth="1" min="6" max="6" width="8.71"/>
     <col customWidth="1" min="7" max="7" width="19.29"/>
     <col customWidth="1" min="8" max="8" width="19.71"/>
@@ -20375,272 +20651,338 @@
     <col customWidth="1" min="15" max="15" width="3.57"/>
     <col customWidth="1" min="16" max="17" width="19.71"/>
     <col customWidth="1" min="18" max="18" width="14.43"/>
-    <col customWidth="1" min="19" max="20" width="8.71"/>
+    <col customWidth="1" min="19" max="31" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="35">
+      <c r="A2" s="34">
         <f t="shared" ref="A2:A4" si="1">I2*G2*H2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36">
         <v>1024.0</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>512.0</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <v>10.0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38">
+      <c r="J2" s="36"/>
+      <c r="K2" s="37">
         <v>38.07</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="37">
         <v>16.05</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="37">
         <v>15.07</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="37">
         <v>2.76</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="39">
+      <c r="O2" s="35"/>
+      <c r="P2" s="38">
         <f t="shared" ref="P2:P4" si="2">K2/L2</f>
         <v>2.371962617</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="38">
         <f t="shared" ref="Q2:Q4" si="3">K2/N2</f>
         <v>13.79347826</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41">
         <v>1024.0</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>512.0</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>50.0</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43">
+      <c r="J3" s="41"/>
+      <c r="K3" s="42">
         <v>185.74</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="42">
         <v>79.8</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="42">
         <v>75.0</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="42">
         <v>3.41</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="44">
+      <c r="O3" s="40"/>
+      <c r="P3" s="43">
         <f t="shared" si="2"/>
         <v>2.327568922</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="43">
         <f t="shared" si="3"/>
         <v>54.46920821</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
     </row>
     <row r="4" hidden="1">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36">
         <v>1024.0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>512.0</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>100.0</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37">
         <v>373.05</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="37">
         <v>160.31</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37">
         <v>4.5</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="39">
+      <c r="O4" s="35"/>
+      <c r="P4" s="38">
         <f t="shared" si="2"/>
         <v>2.327053833</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="38">
         <f t="shared" si="3"/>
         <v>82.9</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
     </row>
     <row r="5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
     </row>
     <row r="6">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <f t="shared" ref="A6:A11" si="4">I6*G6*H6^2</f>
         <v>10737418240</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46">
-        <f t="shared" ref="C6:C11" si="5">G6*H6^2</f>
-        <v>1073741824</v>
-      </c>
-      <c r="D6" s="47">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45">
+        <f t="shared" ref="C6:C11" si="5">G6*H6^2*4</f>
+        <v>4294967296</v>
+      </c>
+      <c r="D6" s="46">
         <f t="shared" ref="D6:D11" si="6">(H6*G6*H6*2+H6+H6*(G6/64))*4/1024/1024/1024</f>
         <v>8.00006485</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="48">
+      <c r="E6" s="46"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="47">
         <v>1024.0</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>1024.0</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>10.0</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50">
+      <c r="J6" s="48"/>
+      <c r="K6" s="49">
         <v>151.11</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="49">
         <v>61.21</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49">
         <v>8.97</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52">
+      <c r="O6" s="50"/>
+      <c r="P6" s="51">
         <f t="shared" ref="P6:P11" si="7">K6/L6</f>
         <v>2.468714262</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="51">
         <f t="shared" ref="Q6:Q11" si="8">K6/N6</f>
         <v>16.84615385</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
     </row>
     <row r="7">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56">
         <f t="shared" si="5"/>
-        <v>1073741824</v>
+        <v>4294967296</v>
       </c>
       <c r="D7" s="57">
         <f t="shared" si="6"/>
@@ -20651,24 +20993,24 @@
       <c r="G7" s="58">
         <v>1024.0</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>1024.0</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>25.0</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43">
+      <c r="J7" s="41"/>
+      <c r="K7" s="42">
         <v>384.0</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <v>152.38</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <v>10.07</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="59">
         <f t="shared" si="7"/>
         <v>2.52001575</v>
@@ -20678,63 +21020,85 @@
         <v>38.13306852</v>
       </c>
       <c r="T7" s="60"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
     </row>
     <row r="8">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45">
         <f t="shared" si="5"/>
-        <v>1073741824</v>
-      </c>
-      <c r="D8" s="47">
+        <v>4294967296</v>
+      </c>
+      <c r="D8" s="46">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="61">
         <v>1024.0</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>1024.0</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>50.0</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38">
+      <c r="J8" s="36"/>
+      <c r="K8" s="37">
         <v>755.62</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="37">
         <v>306.56</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38">
+      <c r="M8" s="37"/>
+      <c r="N8" s="37">
         <v>11.93</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="39">
+      <c r="O8" s="35"/>
+      <c r="P8" s="38">
         <f t="shared" si="7"/>
         <v>2.464835595</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="38">
         <f t="shared" si="8"/>
         <v>63.33780386</v>
       </c>
       <c r="T8" s="62"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
     </row>
     <row r="9">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <f t="shared" si="4"/>
         <v>107374182400</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="56">
         <f t="shared" si="5"/>
-        <v>1073741824</v>
+        <v>4294967296</v>
       </c>
       <c r="D9" s="57">
         <f t="shared" si="6"/>
@@ -20745,90 +21109,112 @@
       <c r="G9" s="58">
         <v>1024.0</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>1024.0</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>100.0</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43">
+      <c r="J9" s="41"/>
+      <c r="K9" s="42">
         <v>1627.06</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>594.16</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43">
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>15.77</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="44">
+      <c r="O9" s="40"/>
+      <c r="P9" s="43">
         <f t="shared" si="7"/>
         <v>2.738420627</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="43">
         <f t="shared" si="8"/>
         <v>103.1743817</v>
       </c>
       <c r="T9" s="60"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
     </row>
     <row r="10">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <f t="shared" si="4"/>
         <v>161061273600</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45">
         <f t="shared" si="5"/>
-        <v>1073741824</v>
-      </c>
-      <c r="D10" s="47">
+        <v>4294967296</v>
+      </c>
+      <c r="D10" s="46">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="61">
         <v>1024.0</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>1024.0</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="55">
         <v>150.0</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37">
         <v>2283.96</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>849.39</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38">
+      <c r="M10" s="37"/>
+      <c r="N10" s="37">
         <v>19.64</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="39">
+      <c r="O10" s="35"/>
+      <c r="P10" s="38">
         <f t="shared" si="7"/>
         <v>2.688941476</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="38">
         <f t="shared" si="8"/>
         <v>116.2912424</v>
       </c>
       <c r="T10" s="62"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
     </row>
     <row r="11">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <f t="shared" si="4"/>
         <v>214748364800</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="56">
         <f t="shared" si="5"/>
-        <v>1073741824</v>
+        <v>4294967296</v>
       </c>
       <c r="D11" s="57">
         <f t="shared" si="6"/>
@@ -20836,146 +21222,190 @@
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="64">
+      <c r="G11" s="63">
         <v>1024.0</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <v>1024.0</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="65">
         <v>200.0</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="67">
+      <c r="J11" s="64"/>
+      <c r="K11" s="66">
         <v>3026.2</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="66">
         <v>1167.05</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67">
+      <c r="M11" s="66"/>
+      <c r="N11" s="66">
         <v>23.83</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69">
+      <c r="O11" s="67"/>
+      <c r="P11" s="68">
         <f t="shared" si="7"/>
         <v>2.593033717</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="68">
         <f t="shared" si="8"/>
         <v>126.9911876</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="71"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
     </row>
     <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <f t="shared" ref="A14:A23" si="9">I14*G14*H14^2</f>
         <v>209715200</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46">
-        <f t="shared" ref="C14:C17" si="10">G14*H14^2</f>
-        <v>2097152</v>
-      </c>
-      <c r="D14" s="47">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45">
+        <f t="shared" ref="C14:C30" si="10">G14*H14^2*4</f>
+        <v>8388608</v>
+      </c>
+      <c r="D14" s="46">
         <f t="shared" ref="D14:D30" si="11">(H14*G14*H14*2+H14+H14*(G14/64))*4/1024/1024/1024</f>
         <v>0.01562643051</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <f t="shared" ref="E14:E30" si="12">(G14*H14*2 + G14 + G14/64)/4/1024/1024</f>
         <v>0.007843494415</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="74">
+      <c r="F14" s="45"/>
+      <c r="G14" s="73">
         <v>128.0</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <v>128.0</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="48">
         <v>100.0</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50">
+      <c r="J14" s="48"/>
+      <c r="K14" s="49">
         <v>3.02</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>2.18</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49">
         <v>0.43</v>
       </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52">
+      <c r="O14" s="50"/>
+      <c r="P14" s="51">
         <f t="shared" ref="P14:P30" si="13">K14/L14</f>
         <v>1.385321101</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="51">
         <f t="shared" ref="Q14:Q30" si="14">K14/N14</f>
         <v>7.023255814</v>
       </c>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="55"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <f t="shared" si="9"/>
         <v>419430400</v>
       </c>
       <c r="B15" s="56"/>
       <c r="C15" s="56">
         <f t="shared" si="10"/>
-        <v>4194304</v>
+        <v>16777216</v>
       </c>
       <c r="D15" s="57">
         <f t="shared" si="11"/>
@@ -20986,96 +21416,118 @@
         <v>0.01568698883</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="75">
+      <c r="G15" s="74">
         <v>256.0</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>128.0</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="41">
         <v>100.0</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43">
+      <c r="J15" s="41"/>
+      <c r="K15" s="42">
         <v>5.82</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>3.47</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43">
+      <c r="M15" s="42"/>
+      <c r="N15" s="42">
         <v>0.46</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="44">
+      <c r="O15" s="40"/>
+      <c r="P15" s="43">
         <f t="shared" si="13"/>
         <v>1.677233429</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="43">
         <f t="shared" si="14"/>
         <v>12.65217391</v>
       </c>
       <c r="T15" s="60"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <f t="shared" si="9"/>
         <v>838860800</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45">
         <f t="shared" si="10"/>
-        <v>8388608</v>
-      </c>
-      <c r="D16" s="47">
+        <v>33554432</v>
+      </c>
+      <c r="D16" s="46">
         <f t="shared" si="11"/>
         <v>0.06250429153</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <f t="shared" si="12"/>
         <v>0.03137397766</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="76">
+      <c r="F16" s="45"/>
+      <c r="G16" s="75">
         <v>512.0</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>128.0</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>100.0</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38">
+      <c r="J16" s="36"/>
+      <c r="K16" s="37">
         <v>11.65</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>5.8</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37">
         <v>0.5</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="39">
+      <c r="O16" s="35"/>
+      <c r="P16" s="38">
         <f t="shared" si="13"/>
         <v>2.00862069</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="38">
         <f t="shared" si="14"/>
         <v>23.3</v>
       </c>
       <c r="T16" s="62"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="40">
+      <c r="A17" s="39">
         <f t="shared" si="9"/>
         <v>1677721600</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56">
         <f t="shared" si="10"/>
-        <v>16777216</v>
+        <v>67108864</v>
       </c>
       <c r="D17" s="57">
         <f t="shared" si="11"/>
@@ -21089,93 +21541,115 @@
       <c r="G17" s="58">
         <v>1024.0</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>128.0</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <v>100.0</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43">
+      <c r="J17" s="41"/>
+      <c r="K17" s="42">
         <v>23.19</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>10.45</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43">
+      <c r="M17" s="42"/>
+      <c r="N17" s="42">
         <v>0.57</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="44">
+      <c r="O17" s="40"/>
+      <c r="P17" s="43">
         <f t="shared" si="13"/>
         <v>2.219138756</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="43">
         <f t="shared" si="14"/>
         <v>40.68421053</v>
       </c>
       <c r="T17" s="60"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="35">
+      <c r="A18" s="34">
         <f t="shared" si="9"/>
         <v>3355443200</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46">
-        <f>G18*H18*H18</f>
-        <v>33554432</v>
-      </c>
-      <c r="D18" s="47">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45">
+        <f t="shared" si="10"/>
+        <v>134217728</v>
+      </c>
+      <c r="D18" s="46">
         <f t="shared" si="11"/>
         <v>0.2500157356</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <f t="shared" si="12"/>
         <v>0.1254959106</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="61">
         <v>2048.0</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>128.0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>100.0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38">
+      <c r="J18" s="36"/>
+      <c r="K18" s="37">
         <v>46.39</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <v>19.79</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37">
         <v>0.8</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="39">
+      <c r="O18" s="35"/>
+      <c r="P18" s="38">
         <f t="shared" si="13"/>
         <v>2.344113188</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="38">
         <f t="shared" si="14"/>
         <v>57.9875</v>
       </c>
       <c r="T18" s="62"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="40">
+      <c r="A19" s="39">
         <f t="shared" si="9"/>
         <v>6710886400</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="56">
-        <f t="shared" ref="C19:C30" si="15">G19*H19^2</f>
-        <v>67108864</v>
+        <f t="shared" si="10"/>
+        <v>268435456</v>
       </c>
       <c r="D19" s="57">
         <f t="shared" si="11"/>
@@ -21189,94 +21663,116 @@
       <c r="G19" s="58">
         <v>4096.0</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>128.0</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <v>100.0</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43">
+      <c r="J19" s="41"/>
+      <c r="K19" s="42">
         <v>94.73</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <v>35.92</v>
       </c>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43">
+      <c r="M19" s="42"/>
+      <c r="N19" s="42">
         <v>1.31</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="44">
+      <c r="O19" s="40"/>
+      <c r="P19" s="43">
         <f t="shared" si="13"/>
         <v>2.637249443</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="43">
         <f t="shared" si="14"/>
         <v>72.3129771</v>
       </c>
       <c r="T19" s="60"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="35">
+      <c r="A20" s="34">
         <f t="shared" si="9"/>
         <v>13421772800</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46">
-        <f t="shared" si="15"/>
-        <v>134217728</v>
-      </c>
-      <c r="D20" s="47">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45">
+        <f t="shared" si="10"/>
+        <v>536870912</v>
+      </c>
+      <c r="D20" s="46">
         <f t="shared" si="11"/>
         <v>1.000061512</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <f t="shared" si="12"/>
         <v>0.5019836426</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="61">
-        <f t="shared" ref="G20:G22" si="16">G19*2</f>
+        <f t="shared" ref="G20:G22" si="15">G19*2</f>
         <v>8192</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>128.0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>100.0</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38">
+      <c r="J20" s="36"/>
+      <c r="K20" s="37">
         <v>187.37</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <v>80.06</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38">
+      <c r="M20" s="37"/>
+      <c r="N20" s="37">
         <v>2.54</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="39">
+      <c r="O20" s="35"/>
+      <c r="P20" s="38">
         <f t="shared" si="13"/>
         <v>2.340369723</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="38">
         <f t="shared" si="14"/>
         <v>73.76771654</v>
       </c>
       <c r="T20" s="62"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40">
+      <c r="A21" s="39">
         <f t="shared" si="9"/>
         <v>26843545600</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="56">
-        <f t="shared" si="15"/>
-        <v>268435456</v>
+        <f t="shared" si="10"/>
+        <v>1073741824</v>
       </c>
       <c r="D21" s="57">
         <f t="shared" si="11"/>
@@ -21288,97 +21784,119 @@
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>16384</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>128.0</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <v>100.0</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43">
+      <c r="J21" s="41"/>
+      <c r="K21" s="42">
         <v>376.53</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <v>138.66</v>
       </c>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42">
         <v>4.03</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="44">
+      <c r="O21" s="40"/>
+      <c r="P21" s="43">
         <f t="shared" si="13"/>
         <v>2.715491129</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="43">
         <f t="shared" si="14"/>
         <v>93.43176179</v>
       </c>
       <c r="T21" s="60"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35">
+      <c r="A22" s="34">
         <f t="shared" si="9"/>
         <v>53687091200</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46">
-        <f t="shared" si="15"/>
-        <v>536870912</v>
-      </c>
-      <c r="D22" s="47">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45">
+        <f t="shared" si="10"/>
+        <v>2147483648</v>
+      </c>
+      <c r="D22" s="46">
         <f t="shared" si="11"/>
         <v>4.000244617</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <f t="shared" si="12"/>
         <v>2.00793457</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>32768</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>128.0</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>100.0</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38">
+      <c r="J22" s="36"/>
+      <c r="K22" s="37">
         <v>757.11</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>297.66</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38">
+      <c r="M22" s="37"/>
+      <c r="N22" s="37">
         <v>6.45</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="39">
+      <c r="O22" s="35"/>
+      <c r="P22" s="38">
         <f t="shared" si="13"/>
         <v>2.543539609</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="38">
         <f t="shared" si="14"/>
         <v>117.3813953</v>
       </c>
       <c r="T22" s="62"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="39">
         <f t="shared" si="9"/>
         <v>60397977600</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56">
-        <f t="shared" si="15"/>
-        <v>603979776</v>
+        <f t="shared" si="10"/>
+        <v>2415919104</v>
       </c>
       <c r="D23" s="57">
         <f t="shared" si="11"/>
@@ -21390,97 +21908,119 @@
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="58">
-        <f t="shared" ref="G23:G24" si="17">G22+$G$19</f>
+        <f t="shared" ref="G23:G24" si="16">G22+$G$19</f>
         <v>36864</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>128.0</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>100.0</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43">
+      <c r="J23" s="41"/>
+      <c r="K23" s="42">
         <v>845.14</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="42">
         <v>347.02</v>
       </c>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43">
+      <c r="M23" s="42"/>
+      <c r="N23" s="42">
         <v>6.79</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="44">
+      <c r="O23" s="40"/>
+      <c r="P23" s="43">
         <f t="shared" si="13"/>
         <v>2.43542159</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="43">
         <f t="shared" si="14"/>
         <v>124.4683358</v>
       </c>
       <c r="T23" s="60"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35">
-        <f t="shared" ref="A24:A26" si="18">$I$24*G24*$H$24^2</f>
+      <c r="A24" s="34">
+        <f t="shared" ref="A24:A26" si="17">$I$24*G24*$H$24^2</f>
         <v>67108864000</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46">
-        <f t="shared" si="15"/>
-        <v>671088640</v>
-      </c>
-      <c r="D24" s="47">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45">
+        <f t="shared" si="10"/>
+        <v>2684354560</v>
+      </c>
+      <c r="D24" s="46">
         <f t="shared" si="11"/>
         <v>5.000305653</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <f t="shared" si="12"/>
         <v>2.509918213</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>40960</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>128.0</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <v>100.0</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38">
+      <c r="J24" s="36"/>
+      <c r="K24" s="37">
         <v>931.95</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="37">
         <v>384.69</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38">
+      <c r="M24" s="37"/>
+      <c r="N24" s="37">
         <v>7.82</v>
       </c>
-      <c r="O24" s="36"/>
-      <c r="P24" s="39">
+      <c r="O24" s="35"/>
+      <c r="P24" s="38">
         <f t="shared" si="13"/>
         <v>2.422600016</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="38">
         <f t="shared" si="14"/>
         <v>119.1751918</v>
       </c>
       <c r="T24" s="62"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="40">
-        <f t="shared" si="18"/>
+      <c r="A25" s="39">
+        <f t="shared" si="17"/>
         <v>68786585600</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56">
-        <f t="shared" si="15"/>
-        <v>687865856</v>
+        <f t="shared" si="10"/>
+        <v>2751463424</v>
       </c>
       <c r="D25" s="57">
         <f t="shared" si="11"/>
@@ -21492,97 +22032,119 @@
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="58">
-        <f t="shared" ref="G25:G26" si="19">G24+G$17</f>
+        <f t="shared" ref="G25:G26" si="18">G24+G$17</f>
         <v>41984</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>128.0</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>100.0</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43">
+      <c r="J25" s="41"/>
+      <c r="K25" s="42">
         <v>952.99</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>394.29</v>
       </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42">
         <v>7.97</v>
       </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="44">
+      <c r="O25" s="40"/>
+      <c r="P25" s="43">
         <f t="shared" si="13"/>
         <v>2.416977352</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="43">
         <f t="shared" si="14"/>
         <v>119.5721455</v>
       </c>
       <c r="T25" s="60"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35">
-        <f t="shared" si="18"/>
+      <c r="A26" s="34">
+        <f t="shared" si="17"/>
         <v>70464307200</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46">
-        <f t="shared" si="15"/>
-        <v>704643072</v>
-      </c>
-      <c r="D26" s="47">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45">
+        <f t="shared" si="10"/>
+        <v>2818572288</v>
+      </c>
+      <c r="D26" s="46">
         <f t="shared" si="11"/>
         <v>5.250320911</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="46">
         <f t="shared" si="12"/>
         <v>2.635414124</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>43008</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>128.0</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>100.0</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38">
+      <c r="J26" s="36"/>
+      <c r="K26" s="37">
         <v>974.15</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="37">
         <v>402.86</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38">
+      <c r="M26" s="37"/>
+      <c r="N26" s="37">
         <v>7.85</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="39">
+      <c r="O26" s="35"/>
+      <c r="P26" s="38">
         <f t="shared" si="13"/>
         <v>2.418085687</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="38">
         <f t="shared" si="14"/>
         <v>124.0955414</v>
       </c>
       <c r="T26" s="62"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="40">
-        <f t="shared" ref="A27:A30" si="20">I27*G27*H27^2</f>
+      <c r="A27" s="39">
+        <f t="shared" ref="A27:A30" si="19">I27*G27*H27^2</f>
         <v>73819750400</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56">
-        <f t="shared" si="15"/>
-        <v>738197504</v>
+        <f t="shared" si="10"/>
+        <v>2952790016</v>
       </c>
       <c r="D27" s="57">
         <f t="shared" si="11"/>
@@ -21597,94 +22159,116 @@
         <f>G24+$G$19</f>
         <v>45056</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>128.0</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>100.0</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43">
+      <c r="J27" s="41"/>
+      <c r="K27" s="42">
         <v>1032.76</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="42">
         <v>443.0</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43">
+      <c r="M27" s="42"/>
+      <c r="N27" s="42">
         <v>8.1</v>
       </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="44">
+      <c r="O27" s="40"/>
+      <c r="P27" s="43">
         <f t="shared" si="13"/>
         <v>2.331286682</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="43">
         <f t="shared" si="14"/>
         <v>127.5012346</v>
       </c>
       <c r="T27" s="60"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35">
-        <f t="shared" si="20"/>
+      <c r="A28" s="34">
+        <f t="shared" si="19"/>
         <v>80530636800</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46">
-        <f t="shared" si="15"/>
-        <v>805306368</v>
-      </c>
-      <c r="D28" s="47">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45">
+        <f t="shared" si="10"/>
+        <v>3221225472</v>
+      </c>
+      <c r="D28" s="46">
         <f t="shared" si="11"/>
         <v>6.000366688</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <f t="shared" si="12"/>
         <v>3.011901855</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="61">
         <f>G22+$G$21</f>
         <v>49152</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>128.0</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>100.0</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38">
+      <c r="J28" s="36"/>
+      <c r="K28" s="37">
         <v>1129.36</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="37">
         <v>457.69</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38">
+      <c r="M28" s="37"/>
+      <c r="N28" s="37">
         <v>9.08</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="39">
+      <c r="O28" s="35"/>
+      <c r="P28" s="38">
         <f t="shared" si="13"/>
         <v>2.467521685</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="38">
         <f t="shared" si="14"/>
         <v>124.3788546</v>
       </c>
       <c r="T28" s="62"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="40">
-        <f t="shared" si="20"/>
+      <c r="A29" s="39">
+        <f t="shared" si="19"/>
         <v>107374182400</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56">
-        <f t="shared" si="15"/>
-        <v>1073741824</v>
+        <f t="shared" si="10"/>
+        <v>4294967296</v>
       </c>
       <c r="D29" s="57">
         <f t="shared" si="11"/>
@@ -21699,437 +22283,547 @@
         <f>G28+$G$21</f>
         <v>65536</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>128.0</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="41">
         <v>100.0</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43">
+      <c r="J29" s="41"/>
+      <c r="K29" s="42">
         <v>1500.12</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="42">
         <v>571.52</v>
       </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43">
+      <c r="M29" s="42"/>
+      <c r="N29" s="42">
         <v>12.83</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="44">
+      <c r="O29" s="40"/>
+      <c r="P29" s="43">
         <f t="shared" si="13"/>
         <v>2.624790034</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="43">
         <f t="shared" si="14"/>
         <v>116.9228371</v>
       </c>
       <c r="T29" s="60"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35">
-        <f t="shared" si="20"/>
+      <c r="A30" s="34">
+        <f t="shared" si="19"/>
         <v>214748364800</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46">
-        <f t="shared" si="15"/>
-        <v>2147483648</v>
-      </c>
-      <c r="D30" s="47">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45">
+        <f t="shared" si="10"/>
+        <v>8589934592</v>
+      </c>
+      <c r="D30" s="46">
         <f t="shared" si="11"/>
         <v>16.00097704</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="46">
         <f t="shared" si="12"/>
         <v>8.031738281</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="77">
+      <c r="F30" s="45"/>
+      <c r="G30" s="76">
         <f>G29*2</f>
         <v>131072</v>
       </c>
-      <c r="H30" s="78">
+      <c r="H30" s="77">
         <v>128.0</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="78">
         <v>100.0</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80">
+      <c r="J30" s="78"/>
+      <c r="K30" s="79">
         <v>3258.53</v>
       </c>
-      <c r="L30" s="80">
+      <c r="L30" s="79">
         <v>1173.8</v>
       </c>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80">
+      <c r="M30" s="79"/>
+      <c r="N30" s="79">
         <v>31.81</v>
       </c>
-      <c r="O30" s="81"/>
-      <c r="P30" s="82">
+      <c r="O30" s="80"/>
+      <c r="P30" s="81">
         <f t="shared" si="13"/>
         <v>2.776052138</v>
       </c>
-      <c r="Q30" s="82">
+      <c r="Q30" s="81">
         <f t="shared" si="14"/>
         <v>102.4372839</v>
       </c>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="57"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="85">
-        <f t="shared" ref="A33:A38" si="21">I33*G33*H33^2</f>
+      <c r="A33" s="84">
+        <f t="shared" ref="A33:A38" si="20">I33*G33*H33^2</f>
         <v>419430400</v>
       </c>
       <c r="B33" s="56"/>
       <c r="C33" s="56">
-        <f t="shared" ref="C33:C38" si="22">G33*H33^2</f>
-        <v>4194304</v>
+        <f t="shared" ref="C33:C38" si="21">G33*H33^2*4</f>
+        <v>16777216</v>
       </c>
       <c r="D33" s="57">
-        <f t="shared" ref="D33:D38" si="23">(H33*G33*H33*2+H33+H33*(G33/64))*4/1024/1024/1024</f>
+        <f t="shared" ref="D33:D38" si="22">(H33*G33*H33*2+H33+H33*(G33/64))*4/1024/1024/1024</f>
         <v>0.03125405312</v>
       </c>
       <c r="E33" s="57">
-        <f t="shared" ref="E33:E38" si="24">(G33*H33*2 + G33 + G33/64)/4/1024/1024</f>
+        <f t="shared" ref="E33:E38" si="23">(G33*H33*2 + G33 + G33/64)/4/1024/1024</f>
         <v>0.03149795532</v>
       </c>
       <c r="F33" s="56"/>
-      <c r="G33" s="86">
+      <c r="G33" s="85">
         <v>1024.0</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="86">
         <v>64.0</v>
       </c>
-      <c r="I33" s="88">
+      <c r="I33" s="87">
         <v>100.0</v>
       </c>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89">
+      <c r="J33" s="87"/>
+      <c r="K33" s="88">
         <v>5.85</v>
       </c>
-      <c r="L33" s="89">
+      <c r="L33" s="88">
         <v>3.14</v>
       </c>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89">
+      <c r="M33" s="88"/>
+      <c r="N33" s="88">
         <v>0.42</v>
       </c>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91">
-        <f t="shared" ref="P33:P38" si="25">K33/L33</f>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90">
+        <f t="shared" ref="P33:P38" si="24">K33/L33</f>
         <v>1.863057325</v>
       </c>
-      <c r="Q33" s="91">
-        <f t="shared" ref="Q33:Q38" si="26">K33/N33</f>
+      <c r="Q33" s="90">
+        <f t="shared" ref="Q33:Q38" si="25">K33/N33</f>
         <v>13.92857143</v>
       </c>
-      <c r="R33" s="87" t="s">
+      <c r="R33" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="S33" s="92"/>
-      <c r="T33" s="93"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="94">
+      <c r="A34" s="93">
+        <f t="shared" si="20"/>
+        <v>1677721600</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45">
         <f t="shared" si="21"/>
-        <v>1677721600</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46">
+        <v>67108864</v>
+      </c>
+      <c r="D34" s="46">
         <f t="shared" si="22"/>
-        <v>16777216</v>
-      </c>
-      <c r="D34" s="47">
+        <v>0.1250081062</v>
+      </c>
+      <c r="E34" s="46">
         <f t="shared" si="23"/>
-        <v>0.1250081062</v>
-      </c>
-      <c r="E34" s="47">
-        <f t="shared" si="24"/>
         <v>0.06274795532</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="61">
         <v>1024.0</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="55">
         <v>128.0</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>100.0</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="38">
+      <c r="J34" s="36"/>
+      <c r="K34" s="37">
         <v>23.19</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="37">
         <v>10.45</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38">
+      <c r="M34" s="37"/>
+      <c r="N34" s="37">
         <v>0.82</v>
       </c>
-      <c r="O34" s="95"/>
-      <c r="P34" s="39">
+      <c r="O34" s="94"/>
+      <c r="P34" s="38">
+        <f t="shared" si="24"/>
+        <v>2.219138756</v>
+      </c>
+      <c r="Q34" s="38">
         <f t="shared" si="25"/>
-        <v>2.219138756</v>
-      </c>
-      <c r="Q34" s="39">
-        <f t="shared" si="26"/>
         <v>28.2804878</v>
       </c>
       <c r="T34" s="62"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="85">
-        <f t="shared" si="21"/>
+      <c r="A35" s="84">
+        <f t="shared" si="20"/>
         <v>6710886400</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56">
+        <f t="shared" si="21"/>
+        <v>268435456</v>
+      </c>
+      <c r="D35" s="57">
         <f t="shared" si="22"/>
-        <v>67108864</v>
-      </c>
-      <c r="D35" s="57">
+        <v>0.5000162125</v>
+      </c>
+      <c r="E35" s="57">
         <f t="shared" si="23"/>
-        <v>0.5000162125</v>
-      </c>
-      <c r="E35" s="57">
-        <f t="shared" si="24"/>
         <v>0.1252479553</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="58">
         <v>1024.0</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="44">
         <v>256.0</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="41">
         <v>100.0</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43">
+      <c r="J35" s="41"/>
+      <c r="K35" s="42">
         <v>93.78</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="42">
         <v>40.43</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43">
+      <c r="M35" s="42"/>
+      <c r="N35" s="42">
         <v>1.52</v>
       </c>
-      <c r="O35" s="96"/>
-      <c r="P35" s="44">
+      <c r="O35" s="95"/>
+      <c r="P35" s="43">
+        <f t="shared" si="24"/>
+        <v>2.31956468</v>
+      </c>
+      <c r="Q35" s="43">
         <f t="shared" si="25"/>
-        <v>2.31956468</v>
-      </c>
-      <c r="Q35" s="44">
-        <f t="shared" si="26"/>
         <v>61.69736842</v>
       </c>
       <c r="T35" s="60"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="94">
+      <c r="A36" s="93">
+        <f t="shared" si="20"/>
+        <v>26843545600</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45">
         <f t="shared" si="21"/>
-        <v>26843545600</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46">
+        <v>1073741824</v>
+      </c>
+      <c r="D36" s="46">
         <f t="shared" si="22"/>
-        <v>268435456</v>
-      </c>
-      <c r="D36" s="47">
+        <v>2.000032425</v>
+      </c>
+      <c r="E36" s="46">
         <f t="shared" si="23"/>
-        <v>2.000032425</v>
-      </c>
-      <c r="E36" s="47">
-        <f t="shared" si="24"/>
         <v>0.2502479553</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="61">
         <v>1024.0</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="55">
         <v>512.0</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>100.0</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38">
+      <c r="J36" s="36"/>
+      <c r="K36" s="37">
         <v>373.05</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="37">
         <v>160.31</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38">
+      <c r="M36" s="37"/>
+      <c r="N36" s="37">
         <v>3.0</v>
       </c>
-      <c r="O36" s="95"/>
-      <c r="P36" s="39">
+      <c r="O36" s="94"/>
+      <c r="P36" s="38">
+        <f t="shared" si="24"/>
+        <v>2.327053833</v>
+      </c>
+      <c r="Q36" s="38">
         <f t="shared" si="25"/>
-        <v>2.327053833</v>
-      </c>
-      <c r="Q36" s="39">
-        <f t="shared" si="26"/>
         <v>124.35</v>
       </c>
       <c r="T36" s="62"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="85">
-        <f t="shared" si="21"/>
+      <c r="A37" s="84">
+        <f t="shared" si="20"/>
         <v>60397977600</v>
       </c>
       <c r="B37" s="56"/>
       <c r="C37" s="56">
+        <f t="shared" si="21"/>
+        <v>2415919104</v>
+      </c>
+      <c r="D37" s="57">
         <f t="shared" si="22"/>
-        <v>603979776</v>
-      </c>
-      <c r="D37" s="57">
+        <v>4.500048637</v>
+      </c>
+      <c r="E37" s="57">
         <f t="shared" si="23"/>
-        <v>4.500048637</v>
-      </c>
-      <c r="E37" s="57">
-        <f t="shared" si="24"/>
         <v>0.3752479553</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="58">
         <v>1024.0</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="44">
         <f>H36+H35</f>
         <v>768</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="41">
         <v>100.0</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43">
+      <c r="J37" s="41"/>
+      <c r="K37" s="42">
         <v>836.35</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="42">
         <v>303.34</v>
       </c>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43">
+      <c r="M37" s="42"/>
+      <c r="N37" s="42">
         <v>9.17</v>
       </c>
-      <c r="O37" s="96"/>
-      <c r="P37" s="44">
+      <c r="O37" s="95"/>
+      <c r="P37" s="43">
+        <f t="shared" si="24"/>
+        <v>2.757137206</v>
+      </c>
+      <c r="Q37" s="43">
         <f t="shared" si="25"/>
-        <v>2.757137206</v>
-      </c>
-      <c r="Q37" s="44">
-        <f t="shared" si="26"/>
         <v>91.20501636</v>
       </c>
       <c r="T37" s="60"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="94">
+      <c r="A38" s="93">
+        <f t="shared" si="20"/>
+        <v>107374182400</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45">
         <f t="shared" si="21"/>
-        <v>107374182400</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46">
+        <v>4294967296</v>
+      </c>
+      <c r="D38" s="46">
         <f t="shared" si="22"/>
-        <v>1073741824</v>
-      </c>
-      <c r="D38" s="47">
+        <v>8.00006485</v>
+      </c>
+      <c r="E38" s="46">
         <f t="shared" si="23"/>
-        <v>8.00006485</v>
-      </c>
-      <c r="E38" s="47">
+        <v>0.5002479553</v>
+      </c>
+      <c r="F38" s="45"/>
+      <c r="G38" s="76">
+        <v>1024.0</v>
+      </c>
+      <c r="H38" s="77">
+        <v>1024.0</v>
+      </c>
+      <c r="I38" s="78">
+        <v>100.0</v>
+      </c>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79">
+        <v>1627.06</v>
+      </c>
+      <c r="L38" s="79">
+        <v>594.16</v>
+      </c>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79">
+        <v>15.84</v>
+      </c>
+      <c r="O38" s="96"/>
+      <c r="P38" s="81">
         <f t="shared" si="24"/>
-        <v>0.5002479553</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="77">
-        <v>1024.0</v>
-      </c>
-      <c r="H38" s="78">
-        <v>1024.0</v>
-      </c>
-      <c r="I38" s="79">
-        <v>100.0</v>
-      </c>
-      <c r="J38" s="79"/>
-      <c r="K38" s="80">
-        <v>1627.06</v>
-      </c>
-      <c r="L38" s="80">
-        <v>594.16</v>
-      </c>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80">
-        <v>15.84</v>
-      </c>
-      <c r="O38" s="97"/>
-      <c r="P38" s="82">
+        <v>2.738420627</v>
+      </c>
+      <c r="Q38" s="81">
         <f t="shared" si="25"/>
-        <v>2.738420627</v>
-      </c>
-      <c r="Q38" s="82">
-        <f t="shared" si="26"/>
         <v>102.7184343</v>
       </c>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="84"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22171,1384 +22865,1384 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="101" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="103" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="104">
+      <c r="A2" s="103">
         <f t="shared" ref="A2:A4" si="1">E2*C2*D2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105">
         <v>1024.0</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="105">
         <v>512.0</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="105">
         <v>10.0</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107">
+      <c r="F2" s="105"/>
+      <c r="G2" s="106">
         <v>38.07</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="106">
         <v>16.05</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="106">
         <v>15.07</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="106">
         <v>2.76</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="108">
+      <c r="K2" s="104"/>
+      <c r="L2" s="107">
         <f t="shared" ref="L2:L4" si="2">G2/H2</f>
         <v>2.371962617</v>
       </c>
-      <c r="M2" s="108">
+      <c r="M2" s="107">
         <f t="shared" ref="M2:M4" si="3">G2/J2</f>
         <v>13.79347826</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="109">
+      <c r="A3" s="108">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111">
+      <c r="B3" s="109"/>
+      <c r="C3" s="110">
         <v>1024.0</v>
       </c>
-      <c r="D3" s="111">
+      <c r="D3" s="110">
         <v>512.0</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="110">
         <v>50.0</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112">
+      <c r="F3" s="110"/>
+      <c r="G3" s="111">
         <v>185.74</v>
       </c>
-      <c r="H3" s="112">
+      <c r="H3" s="111">
         <v>79.8</v>
       </c>
-      <c r="I3" s="112">
+      <c r="I3" s="111">
         <v>75.0</v>
       </c>
-      <c r="J3" s="112">
+      <c r="J3" s="111">
         <v>3.41</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="113">
+      <c r="K3" s="109"/>
+      <c r="L3" s="112">
         <f t="shared" si="2"/>
         <v>2.327568922</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="112">
         <f t="shared" si="3"/>
         <v>54.46920821</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" hidden="1">
-      <c r="A4" s="104">
+      <c r="A4" s="103">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105">
         <v>1024.0</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <v>512.0</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="105">
         <v>100.0</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107">
+      <c r="F4" s="105"/>
+      <c r="G4" s="106">
         <v>373.05</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="106">
         <v>160.31</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106">
         <v>4.5</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="108">
+      <c r="K4" s="104"/>
+      <c r="L4" s="107">
         <f t="shared" si="2"/>
         <v>2.327053833</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="107">
         <f t="shared" si="3"/>
         <v>82.9</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6">
-      <c r="A6" s="104">
+      <c r="A6" s="103">
         <f t="shared" ref="A6:A11" si="4">E6*C6*D6^2</f>
         <v>10737418240</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="114">
+      <c r="B6" s="104"/>
+      <c r="C6" s="113">
         <v>1024.0</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="114">
         <v>1024.0</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <v>10.0</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116">
+      <c r="F6" s="114"/>
+      <c r="G6" s="115">
         <v>151.11</v>
       </c>
-      <c r="H6" s="116">
+      <c r="H6" s="115">
         <v>61.21</v>
       </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116">
+      <c r="I6" s="115"/>
+      <c r="J6" s="115">
         <v>22.07</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118">
+      <c r="K6" s="116"/>
+      <c r="L6" s="117">
         <f t="shared" ref="L6:L11" si="5">G6/H6</f>
         <v>2.468714262</v>
       </c>
-      <c r="M6" s="118">
+      <c r="M6" s="117">
         <f t="shared" ref="M6:M11" si="6">G6/J6</f>
         <v>6.846850929</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="119">
+      <c r="B7" s="109"/>
+      <c r="C7" s="118">
         <v>1024.0</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="110">
         <v>1024.0</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="119">
         <v>25.0</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112">
+      <c r="F7" s="110"/>
+      <c r="G7" s="111">
         <v>384.0</v>
       </c>
-      <c r="H7" s="112">
+      <c r="H7" s="111">
         <v>152.38</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112">
+      <c r="I7" s="111"/>
+      <c r="J7" s="111">
         <v>52.87</v>
       </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="121">
+      <c r="K7" s="109"/>
+      <c r="L7" s="120">
         <f t="shared" si="5"/>
         <v>2.52001575</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="120">
         <f t="shared" si="6"/>
         <v>7.263098165</v>
       </c>
       <c r="P7" s="60"/>
     </row>
     <row r="8">
-      <c r="A8" s="104">
+      <c r="A8" s="103">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="122">
+      <c r="B8" s="104"/>
+      <c r="C8" s="121">
         <v>1024.0</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="105">
         <v>1024.0</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="105">
         <v>50.0</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107">
+      <c r="F8" s="105"/>
+      <c r="G8" s="106">
         <v>755.62</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="106">
         <v>306.56</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107">
+      <c r="I8" s="106"/>
+      <c r="J8" s="106">
         <v>80.64</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="108">
+      <c r="K8" s="104"/>
+      <c r="L8" s="107">
         <f t="shared" si="5"/>
         <v>2.464835595</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="107">
         <f t="shared" si="6"/>
         <v>9.370287698</v>
       </c>
       <c r="P8" s="62"/>
     </row>
     <row r="9">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <f t="shared" si="4"/>
         <v>107374182400</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="119">
+      <c r="B9" s="109"/>
+      <c r="C9" s="118">
         <v>1024.0</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="110">
         <v>1024.0</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="110">
         <v>100.0</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112">
+      <c r="F9" s="110"/>
+      <c r="G9" s="111">
         <v>1627.06</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="111">
         <v>594.16</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112">
+      <c r="I9" s="111"/>
+      <c r="J9" s="111">
         <v>162.9</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="113">
+      <c r="K9" s="109"/>
+      <c r="L9" s="112">
         <f t="shared" si="5"/>
         <v>2.738420627</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="112">
         <f t="shared" si="6"/>
         <v>9.988090853</v>
       </c>
       <c r="P9" s="60"/>
     </row>
     <row r="10">
-      <c r="A10" s="104">
+      <c r="A10" s="103">
         <f t="shared" si="4"/>
         <v>161061273600</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="122">
+      <c r="B10" s="104"/>
+      <c r="C10" s="121">
         <v>1024.0</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="105">
         <v>1024.0</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="122">
         <v>150.0</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107">
+      <c r="F10" s="105"/>
+      <c r="G10" s="106">
         <v>2283.96</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="106">
         <v>849.39</v>
       </c>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107">
+      <c r="I10" s="106"/>
+      <c r="J10" s="106">
         <v>234.31</v>
       </c>
-      <c r="K10" s="105"/>
-      <c r="L10" s="108">
+      <c r="K10" s="104"/>
+      <c r="L10" s="107">
         <f t="shared" si="5"/>
         <v>2.688941476</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="107">
         <f t="shared" si="6"/>
         <v>9.747599334</v>
       </c>
       <c r="P10" s="62"/>
     </row>
     <row r="11">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <f t="shared" si="4"/>
         <v>214748364800</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="124">
+      <c r="B11" s="109"/>
+      <c r="C11" s="123">
         <v>1024.0</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="124">
         <v>1024.0</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="125">
         <v>200.0</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="127">
+      <c r="F11" s="124"/>
+      <c r="G11" s="126">
         <v>3026.2</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="126">
         <v>1167.05</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127">
+      <c r="I11" s="126"/>
+      <c r="J11" s="126">
         <v>374.32</v>
       </c>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129">
+      <c r="K11" s="127"/>
+      <c r="L11" s="128">
         <f t="shared" si="5"/>
         <v>2.593033717</v>
       </c>
-      <c r="M11" s="129">
+      <c r="M11" s="128">
         <f t="shared" si="6"/>
         <v>8.084526608</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="71"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="104">
+      <c r="A14" s="103">
         <f t="shared" ref="A14:A23" si="7">E14*C14*D14^2</f>
         <v>209715200</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="132">
+      <c r="B14" s="104"/>
+      <c r="C14" s="131">
         <v>128.0</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="114">
         <v>128.0</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="114">
         <v>100.0</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116">
+      <c r="F14" s="114"/>
+      <c r="G14" s="115">
         <v>3.02</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="115">
         <v>2.18</v>
       </c>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116">
+      <c r="I14" s="115"/>
+      <c r="J14" s="115">
         <v>0.43</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118">
+      <c r="K14" s="116"/>
+      <c r="L14" s="117">
         <f t="shared" ref="L14:L30" si="8">G14/H14</f>
         <v>1.385321101</v>
       </c>
-      <c r="M14" s="118">
+      <c r="M14" s="117">
         <f t="shared" ref="M14:M30" si="9">G14/J14</f>
         <v>7.023255814</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <f t="shared" si="7"/>
         <v>419430400</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="133">
+      <c r="B15" s="109"/>
+      <c r="C15" s="132">
         <v>256.0</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="110">
         <v>128.0</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="110">
         <v>100.0</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112">
+      <c r="F15" s="110"/>
+      <c r="G15" s="111">
         <v>5.82</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="111">
         <v>3.47</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112">
+      <c r="I15" s="111"/>
+      <c r="J15" s="111">
         <v>0.46</v>
       </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="113">
+      <c r="K15" s="109"/>
+      <c r="L15" s="112">
         <f t="shared" si="8"/>
         <v>1.677233429</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="112">
         <f t="shared" si="9"/>
         <v>12.65217391</v>
       </c>
       <c r="P15" s="60"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="103">
         <f t="shared" si="7"/>
         <v>838860800</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="134">
+      <c r="B16" s="104"/>
+      <c r="C16" s="133">
         <v>512.0</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="105">
         <v>128.0</v>
       </c>
-      <c r="E16" s="106">
+      <c r="E16" s="105">
         <v>100.0</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107">
+      <c r="F16" s="105"/>
+      <c r="G16" s="106">
         <v>11.65</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="106">
         <v>5.8</v>
       </c>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107">
+      <c r="I16" s="106"/>
+      <c r="J16" s="106">
         <v>0.5</v>
       </c>
-      <c r="K16" s="105"/>
-      <c r="L16" s="108">
+      <c r="K16" s="104"/>
+      <c r="L16" s="107">
         <f t="shared" si="8"/>
         <v>2.00862069</v>
       </c>
-      <c r="M16" s="108">
+      <c r="M16" s="107">
         <f t="shared" si="9"/>
         <v>23.3</v>
       </c>
       <c r="P16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="109">
+      <c r="A17" s="108">
         <f t="shared" si="7"/>
         <v>1677721600</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="119">
+      <c r="B17" s="109"/>
+      <c r="C17" s="118">
         <v>1024.0</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="110">
         <v>128.0</v>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="110">
         <v>100.0</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112">
+      <c r="F17" s="110"/>
+      <c r="G17" s="111">
         <v>23.19</v>
       </c>
-      <c r="H17" s="112">
+      <c r="H17" s="111">
         <v>10.45</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112">
+      <c r="I17" s="111"/>
+      <c r="J17" s="111">
         <v>0.57</v>
       </c>
-      <c r="K17" s="110"/>
-      <c r="L17" s="113">
+      <c r="K17" s="109"/>
+      <c r="L17" s="112">
         <f t="shared" si="8"/>
         <v>2.219138756</v>
       </c>
-      <c r="M17" s="113">
+      <c r="M17" s="112">
         <f t="shared" si="9"/>
         <v>40.68421053</v>
       </c>
       <c r="P17" s="60"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="104">
+      <c r="A18" s="103">
         <f t="shared" si="7"/>
         <v>3355443200</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="122">
+      <c r="B18" s="104"/>
+      <c r="C18" s="121">
         <v>2048.0</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="105">
         <v>128.0</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="105">
         <v>100.0</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107">
+      <c r="F18" s="105"/>
+      <c r="G18" s="106">
         <v>46.39</v>
       </c>
-      <c r="H18" s="107">
+      <c r="H18" s="106">
         <v>19.79</v>
       </c>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107">
+      <c r="I18" s="106"/>
+      <c r="J18" s="106">
         <v>0.8</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="108">
+      <c r="K18" s="104"/>
+      <c r="L18" s="107">
         <f t="shared" si="8"/>
         <v>2.344113188</v>
       </c>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <f t="shared" si="9"/>
         <v>57.9875</v>
       </c>
       <c r="P18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="109">
+      <c r="A19" s="108">
         <f t="shared" si="7"/>
         <v>6710886400</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="119">
+      <c r="B19" s="109"/>
+      <c r="C19" s="118">
         <v>4096.0</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="110">
         <v>128.0</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E19" s="110">
         <v>100.0</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112">
+      <c r="F19" s="110"/>
+      <c r="G19" s="111">
         <v>94.73</v>
       </c>
-      <c r="H19" s="112">
+      <c r="H19" s="111">
         <v>35.92</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112">
+      <c r="I19" s="111"/>
+      <c r="J19" s="111">
         <v>1.31</v>
       </c>
-      <c r="K19" s="110"/>
-      <c r="L19" s="113">
+      <c r="K19" s="109"/>
+      <c r="L19" s="112">
         <f t="shared" si="8"/>
         <v>2.637249443</v>
       </c>
-      <c r="M19" s="113">
+      <c r="M19" s="112">
         <f t="shared" si="9"/>
         <v>72.3129771</v>
       </c>
       <c r="P19" s="60"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="104">
+      <c r="A20" s="103">
         <f t="shared" si="7"/>
         <v>13421772800</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="122">
+      <c r="B20" s="104"/>
+      <c r="C20" s="121">
         <f t="shared" ref="C20:C22" si="10">C19*2</f>
         <v>8192</v>
       </c>
-      <c r="D20" s="106">
+      <c r="D20" s="105">
         <v>128.0</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="105">
         <v>100.0</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107">
+      <c r="F20" s="105"/>
+      <c r="G20" s="106">
         <v>187.37</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="106">
         <v>80.06</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107">
+      <c r="I20" s="106"/>
+      <c r="J20" s="106">
         <v>2.54</v>
       </c>
-      <c r="K20" s="105"/>
-      <c r="L20" s="108">
+      <c r="K20" s="104"/>
+      <c r="L20" s="107">
         <f t="shared" si="8"/>
         <v>2.340369723</v>
       </c>
-      <c r="M20" s="108">
+      <c r="M20" s="107">
         <f t="shared" si="9"/>
         <v>73.76771654</v>
       </c>
       <c r="P20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="109">
+      <c r="A21" s="108">
         <f t="shared" si="7"/>
         <v>26843545600</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="119">
+      <c r="B21" s="109"/>
+      <c r="C21" s="118">
         <f t="shared" si="10"/>
         <v>16384</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="110">
         <v>128.0</v>
       </c>
-      <c r="E21" s="111">
+      <c r="E21" s="110">
         <v>100.0</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112">
+      <c r="F21" s="110"/>
+      <c r="G21" s="111">
         <v>376.53</v>
       </c>
-      <c r="H21" s="112">
+      <c r="H21" s="111">
         <v>138.66</v>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112">
+      <c r="I21" s="111"/>
+      <c r="J21" s="111">
         <v>4.03</v>
       </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="113">
+      <c r="K21" s="109"/>
+      <c r="L21" s="112">
         <f t="shared" si="8"/>
         <v>2.715491129</v>
       </c>
-      <c r="M21" s="113">
+      <c r="M21" s="112">
         <f t="shared" si="9"/>
         <v>93.43176179</v>
       </c>
       <c r="P21" s="60"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="104">
+      <c r="A22" s="103">
         <f t="shared" si="7"/>
         <v>53687091200</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="122">
+      <c r="B22" s="104"/>
+      <c r="C22" s="121">
         <f t="shared" si="10"/>
         <v>32768</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="105">
         <v>128.0</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="105">
         <v>100.0</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107">
+      <c r="F22" s="105"/>
+      <c r="G22" s="106">
         <v>757.11</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="106">
         <v>297.66</v>
       </c>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107">
+      <c r="I22" s="106"/>
+      <c r="J22" s="106">
         <v>6.45</v>
       </c>
-      <c r="K22" s="105"/>
-      <c r="L22" s="108">
+      <c r="K22" s="104"/>
+      <c r="L22" s="107">
         <f t="shared" si="8"/>
         <v>2.543539609</v>
       </c>
-      <c r="M22" s="108">
+      <c r="M22" s="107">
         <f t="shared" si="9"/>
         <v>117.3813953</v>
       </c>
       <c r="P22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="109">
+      <c r="A23" s="108">
         <f t="shared" si="7"/>
         <v>60397977600</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="119">
+      <c r="B23" s="109"/>
+      <c r="C23" s="118">
         <f t="shared" ref="C23:C24" si="11">C22+$C$19</f>
         <v>36864</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="110">
         <v>128.0</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E23" s="110">
         <v>100.0</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112">
+      <c r="F23" s="110"/>
+      <c r="G23" s="111">
         <v>845.14</v>
       </c>
-      <c r="H23" s="112">
+      <c r="H23" s="111">
         <v>347.02</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112">
+      <c r="I23" s="111"/>
+      <c r="J23" s="111">
         <v>6.79</v>
       </c>
-      <c r="K23" s="110"/>
-      <c r="L23" s="113">
+      <c r="K23" s="109"/>
+      <c r="L23" s="112">
         <f t="shared" si="8"/>
         <v>2.43542159</v>
       </c>
-      <c r="M23" s="113">
+      <c r="M23" s="112">
         <f t="shared" si="9"/>
         <v>124.4683358</v>
       </c>
       <c r="P23" s="60"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="104">
+      <c r="A24" s="103">
         <f t="shared" ref="A24:A26" si="12">$E$24*C24*$D$24^2</f>
         <v>67108864000</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="122">
+      <c r="B24" s="104"/>
+      <c r="C24" s="121">
         <f t="shared" si="11"/>
         <v>40960</v>
       </c>
-      <c r="D24" s="106">
+      <c r="D24" s="105">
         <v>128.0</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="105">
         <v>100.0</v>
       </c>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107">
+      <c r="F24" s="105"/>
+      <c r="G24" s="106">
         <v>931.95</v>
       </c>
-      <c r="H24" s="107">
+      <c r="H24" s="106">
         <v>384.69</v>
       </c>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107">
+      <c r="I24" s="106"/>
+      <c r="J24" s="106">
         <v>7.82</v>
       </c>
-      <c r="K24" s="105"/>
-      <c r="L24" s="108">
+      <c r="K24" s="104"/>
+      <c r="L24" s="107">
         <f t="shared" si="8"/>
         <v>2.422600016</v>
       </c>
-      <c r="M24" s="108">
+      <c r="M24" s="107">
         <f t="shared" si="9"/>
         <v>119.1751918</v>
       </c>
       <c r="P24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="109">
+      <c r="A25" s="108">
         <f t="shared" si="12"/>
         <v>68786585600</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="119">
+      <c r="B25" s="109"/>
+      <c r="C25" s="118">
         <f t="shared" ref="C25:C26" si="13">C24+C$17</f>
         <v>41984</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="110">
         <v>128.0</v>
       </c>
-      <c r="E25" s="111">
+      <c r="E25" s="110">
         <v>100.0</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112">
+      <c r="F25" s="110"/>
+      <c r="G25" s="111">
         <v>952.99</v>
       </c>
-      <c r="H25" s="112">
+      <c r="H25" s="111">
         <v>394.29</v>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112">
+      <c r="I25" s="111"/>
+      <c r="J25" s="111">
         <v>67.72</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="113">
+      <c r="K25" s="109"/>
+      <c r="L25" s="112">
         <f t="shared" si="8"/>
         <v>2.416977352</v>
       </c>
-      <c r="M25" s="113">
+      <c r="M25" s="112">
         <f t="shared" si="9"/>
         <v>14.07250443</v>
       </c>
       <c r="P25" s="60"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="104">
+      <c r="A26" s="103">
         <f t="shared" si="12"/>
         <v>70464307200</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="122">
+      <c r="B26" s="104"/>
+      <c r="C26" s="121">
         <f t="shared" si="13"/>
         <v>43008</v>
       </c>
-      <c r="D26" s="106">
+      <c r="D26" s="105">
         <v>128.0</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="105">
         <v>100.0</v>
       </c>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107">
+      <c r="F26" s="105"/>
+      <c r="G26" s="106">
         <v>974.15</v>
       </c>
-      <c r="H26" s="107">
+      <c r="H26" s="106">
         <v>402.86</v>
       </c>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107">
+      <c r="I26" s="106"/>
+      <c r="J26" s="106">
         <v>70.32</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="108">
+      <c r="K26" s="104"/>
+      <c r="L26" s="107">
         <f t="shared" si="8"/>
         <v>2.418085687</v>
       </c>
-      <c r="M26" s="108">
+      <c r="M26" s="107">
         <f t="shared" si="9"/>
         <v>13.85310011</v>
       </c>
       <c r="P26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="109">
+      <c r="A27" s="108">
         <f t="shared" ref="A27:A30" si="14">E27*C27*D27^2</f>
         <v>73819750400</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="119">
+      <c r="B27" s="109"/>
+      <c r="C27" s="118">
         <f>C24+$C$19</f>
         <v>45056</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="110">
         <v>128.0</v>
       </c>
-      <c r="E27" s="111">
+      <c r="E27" s="110">
         <v>100.0</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112">
+      <c r="F27" s="110"/>
+      <c r="G27" s="111">
         <v>1032.76</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="111">
         <v>443.0</v>
       </c>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112">
+      <c r="I27" s="111"/>
+      <c r="J27" s="111">
         <v>73.89</v>
       </c>
-      <c r="K27" s="110"/>
-      <c r="L27" s="113">
+      <c r="K27" s="109"/>
+      <c r="L27" s="112">
         <f t="shared" si="8"/>
         <v>2.331286682</v>
       </c>
-      <c r="M27" s="113">
+      <c r="M27" s="112">
         <f t="shared" si="9"/>
         <v>13.97699283</v>
       </c>
       <c r="P27" s="60"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="104">
+      <c r="A28" s="103">
         <f t="shared" si="14"/>
         <v>80530636800</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="122">
+      <c r="B28" s="104"/>
+      <c r="C28" s="121">
         <f>C22+$C$21</f>
         <v>49152</v>
       </c>
-      <c r="D28" s="106">
+      <c r="D28" s="105">
         <v>128.0</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="105">
         <v>100.0</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107">
+      <c r="F28" s="105"/>
+      <c r="G28" s="106">
         <v>1129.36</v>
       </c>
-      <c r="H28" s="107">
+      <c r="H28" s="106">
         <v>457.69</v>
       </c>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107">
+      <c r="I28" s="106"/>
+      <c r="J28" s="106">
         <v>77.8</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="108">
+      <c r="K28" s="104"/>
+      <c r="L28" s="107">
         <f t="shared" si="8"/>
         <v>2.467521685</v>
       </c>
-      <c r="M28" s="108">
+      <c r="M28" s="107">
         <f t="shared" si="9"/>
         <v>14.51619537</v>
       </c>
       <c r="P28" s="62"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="109">
+      <c r="A29" s="108">
         <f t="shared" si="14"/>
         <v>107374182400</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="119">
+      <c r="B29" s="109"/>
+      <c r="C29" s="118">
         <f>C28+$C$21</f>
         <v>65536</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="110">
         <v>128.0</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="110">
         <v>100.0</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112">
+      <c r="F29" s="110"/>
+      <c r="G29" s="111">
         <v>1500.12</v>
       </c>
-      <c r="H29" s="112">
+      <c r="H29" s="111">
         <v>571.52</v>
       </c>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112">
+      <c r="I29" s="111"/>
+      <c r="J29" s="111">
         <v>107.11</v>
       </c>
-      <c r="K29" s="110"/>
-      <c r="L29" s="113">
+      <c r="K29" s="109"/>
+      <c r="L29" s="112">
         <f t="shared" si="8"/>
         <v>2.624790034</v>
       </c>
-      <c r="M29" s="113">
+      <c r="M29" s="112">
         <f t="shared" si="9"/>
         <v>14.00541499</v>
       </c>
       <c r="P29" s="60"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="104">
+      <c r="A30" s="103">
         <f t="shared" si="14"/>
         <v>214748364800</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="135">
+      <c r="B30" s="104"/>
+      <c r="C30" s="134">
         <f>C29*2</f>
         <v>131072</v>
       </c>
-      <c r="D30" s="136">
+      <c r="D30" s="135">
         <v>128.0</v>
       </c>
-      <c r="E30" s="137">
+      <c r="E30" s="136">
         <v>100.0</v>
       </c>
-      <c r="F30" s="137"/>
-      <c r="G30" s="138">
+      <c r="F30" s="136"/>
+      <c r="G30" s="137">
         <v>3258.53</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="137">
         <v>1173.8</v>
       </c>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138">
+      <c r="I30" s="137"/>
+      <c r="J30" s="137">
         <v>214.13</v>
       </c>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140">
+      <c r="K30" s="138"/>
+      <c r="L30" s="139">
         <f t="shared" si="8"/>
         <v>2.776052138</v>
       </c>
-      <c r="M30" s="140">
+      <c r="M30" s="139">
         <f t="shared" si="9"/>
         <v>15.21753141</v>
       </c>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="109"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="141">
+      <c r="A33" s="140">
         <f t="shared" ref="A33:A39" si="15">E33*C33*D33^2</f>
         <v>419430400</v>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143">
+      <c r="B33" s="141"/>
+      <c r="C33" s="142">
         <v>1024.0</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="143">
         <v>64.0</v>
       </c>
-      <c r="E33" s="145">
+      <c r="E33" s="144">
         <v>100.0</v>
       </c>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146">
+      <c r="F33" s="144"/>
+      <c r="G33" s="145">
         <v>5.85</v>
       </c>
-      <c r="H33" s="146">
+      <c r="H33" s="145">
         <v>3.14</v>
       </c>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146">
+      <c r="I33" s="145"/>
+      <c r="J33" s="145">
         <v>0.42</v>
       </c>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148">
+      <c r="K33" s="146"/>
+      <c r="L33" s="147">
         <f t="shared" ref="L33:L39" si="16">G33/H33</f>
         <v>1.863057325</v>
       </c>
-      <c r="M33" s="148">
+      <c r="M33" s="147">
         <f t="shared" ref="M33:M39" si="17">G33/J33</f>
         <v>13.92857143</v>
       </c>
-      <c r="N33" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
+      <c r="N33" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="149">
+      <c r="A34" s="148">
         <f t="shared" si="15"/>
         <v>1677721600</v>
       </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="122">
+      <c r="B34" s="149"/>
+      <c r="C34" s="121">
         <v>1024.0</v>
       </c>
-      <c r="D34" s="123">
+      <c r="D34" s="122">
         <v>128.0</v>
       </c>
-      <c r="E34" s="106">
+      <c r="E34" s="105">
         <v>100.0</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107">
+      <c r="F34" s="105"/>
+      <c r="G34" s="106">
         <v>23.19</v>
       </c>
-      <c r="H34" s="107">
+      <c r="H34" s="106">
         <v>10.45</v>
       </c>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107">
+      <c r="I34" s="106"/>
+      <c r="J34" s="106">
         <v>0.82</v>
       </c>
-      <c r="K34" s="150"/>
-      <c r="L34" s="108">
+      <c r="K34" s="149"/>
+      <c r="L34" s="107">
         <f t="shared" si="16"/>
         <v>2.219138756</v>
       </c>
-      <c r="M34" s="108">
+      <c r="M34" s="107">
         <f t="shared" si="17"/>
         <v>28.2804878</v>
       </c>
       <c r="P34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="141">
+      <c r="A35" s="140">
         <f t="shared" si="15"/>
         <v>6710886400</v>
       </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="119">
+      <c r="B35" s="141"/>
+      <c r="C35" s="118">
         <v>1024.0</v>
       </c>
-      <c r="D35" s="120">
+      <c r="D35" s="119">
         <v>256.0</v>
       </c>
-      <c r="E35" s="111">
+      <c r="E35" s="110">
         <v>100.0</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112">
+      <c r="F35" s="110"/>
+      <c r="G35" s="111">
         <v>93.78</v>
       </c>
-      <c r="H35" s="112">
+      <c r="H35" s="111">
         <v>40.43</v>
       </c>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112">
+      <c r="I35" s="111"/>
+      <c r="J35" s="111">
         <v>1.52</v>
       </c>
-      <c r="K35" s="142"/>
-      <c r="L35" s="113">
+      <c r="K35" s="141"/>
+      <c r="L35" s="112">
         <f t="shared" si="16"/>
         <v>2.31956468</v>
       </c>
-      <c r="M35" s="113">
+      <c r="M35" s="112">
         <f t="shared" si="17"/>
         <v>61.69736842</v>
       </c>
       <c r="P35" s="60"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="149">
+      <c r="A36" s="148">
         <f t="shared" si="15"/>
         <v>26843545600</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="122">
+      <c r="B36" s="149"/>
+      <c r="C36" s="121">
         <v>1024.0</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="122">
         <v>512.0</v>
       </c>
-      <c r="E36" s="106">
+      <c r="E36" s="105">
         <v>100.0</v>
       </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107">
+      <c r="F36" s="105"/>
+      <c r="G36" s="106">
         <v>373.05</v>
       </c>
-      <c r="H36" s="107">
+      <c r="H36" s="106">
         <v>160.31</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107">
+      <c r="I36" s="106"/>
+      <c r="J36" s="106">
         <v>5.26</v>
       </c>
-      <c r="K36" s="150"/>
-      <c r="L36" s="108">
+      <c r="K36" s="149"/>
+      <c r="L36" s="107">
         <f t="shared" si="16"/>
         <v>2.327053833</v>
       </c>
-      <c r="M36" s="108">
+      <c r="M36" s="107">
         <f t="shared" si="17"/>
         <v>70.92205323</v>
       </c>
       <c r="P36" s="62"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="141">
+      <c r="A37" s="140">
         <f t="shared" si="15"/>
         <v>107374182400</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="119">
+      <c r="B37" s="141"/>
+      <c r="C37" s="118">
         <v>1024.0</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="119">
         <v>1024.0</v>
       </c>
-      <c r="E37" s="111">
+      <c r="E37" s="110">
         <v>100.0</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="112">
+      <c r="F37" s="110"/>
+      <c r="G37" s="111">
         <v>1627.06</v>
       </c>
-      <c r="H37" s="112">
+      <c r="H37" s="111">
         <v>594.16</v>
       </c>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112">
+      <c r="I37" s="111"/>
+      <c r="J37" s="111">
         <v>162.9</v>
       </c>
-      <c r="K37" s="142"/>
-      <c r="L37" s="113">
+      <c r="K37" s="141"/>
+      <c r="L37" s="112">
         <f t="shared" si="16"/>
         <v>2.738420627</v>
       </c>
-      <c r="M37" s="113">
+      <c r="M37" s="112">
         <f t="shared" si="17"/>
         <v>9.988090853</v>
       </c>
       <c r="P37" s="60"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="149">
+      <c r="A38" s="148">
         <f t="shared" si="15"/>
         <v>429496729600</v>
       </c>
-      <c r="B38" s="150"/>
-      <c r="C38" s="122">
+      <c r="B38" s="149"/>
+      <c r="C38" s="121">
         <v>1024.0</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="122">
         <v>2048.0</v>
       </c>
-      <c r="E38" s="106">
+      <c r="E38" s="105">
         <v>100.0</v>
       </c>
-      <c r="F38" s="106"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107" t="s">
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="150"/>
-      <c r="L38" s="108" t="str">
+      <c r="I38" s="106"/>
+      <c r="J38" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="149"/>
+      <c r="L38" s="107" t="str">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="108" t="str">
+      <c r="M38" s="107" t="str">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="P38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="141">
+      <c r="A39" s="140">
         <f t="shared" si="15"/>
         <v>1717986918400</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="151">
+      <c r="B39" s="141"/>
+      <c r="C39" s="150">
         <v>1024.0</v>
       </c>
-      <c r="D39" s="152">
+      <c r="D39" s="151">
         <v>4096.0</v>
       </c>
-      <c r="E39" s="153">
+      <c r="E39" s="152">
         <v>100.0</v>
       </c>
-      <c r="F39" s="153"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="129" t="str">
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="128" t="str">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="129" t="str">
+      <c r="M39" s="128" t="str">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="71"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23588,2653 +24282,2653 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="158" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="160" t="s">
+      <c r="F1" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="G1" s="157"/>
+      <c r="H1" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="160" t="s">
+      <c r="J1" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="160" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
+      <c r="L1" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
     </row>
     <row r="2">
-      <c r="A2" s="162">
+      <c r="A2" s="161">
         <f t="shared" ref="A2:A7" si="1">E2*C2*D2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="164">
+      <c r="B2" s="162"/>
+      <c r="C2" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D2" s="164">
+      <c r="D2" s="163">
         <v>512.0</v>
       </c>
-      <c r="E2" s="164">
+      <c r="E2" s="163">
         <v>10.0</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="164">
         <v>38.07</v>
       </c>
-      <c r="I2" s="165">
+      <c r="I2" s="164">
         <v>16.05</v>
       </c>
-      <c r="J2" s="165">
+      <c r="J2" s="164">
         <v>15.07</v>
       </c>
-      <c r="K2" s="165">
+      <c r="K2" s="164">
         <v>2.76</v>
       </c>
-      <c r="L2" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
+      <c r="L2" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
     </row>
     <row r="3">
-      <c r="A3" s="162">
+      <c r="A3" s="161">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164">
+      <c r="B3" s="162"/>
+      <c r="C3" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D3" s="164">
+      <c r="D3" s="163">
         <v>512.0</v>
       </c>
-      <c r="E3" s="164">
+      <c r="E3" s="163">
         <v>50.0</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164">
         <v>185.74</v>
       </c>
-      <c r="I3" s="165">
+      <c r="I3" s="164">
         <v>79.8</v>
       </c>
-      <c r="J3" s="165">
+      <c r="J3" s="164">
         <v>75.0</v>
       </c>
-      <c r="K3" s="165">
+      <c r="K3" s="164">
         <v>3.41</v>
       </c>
-      <c r="L3" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
+      <c r="L3" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
     </row>
     <row r="4">
-      <c r="A4" s="162">
+      <c r="A4" s="161">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164">
+      <c r="B4" s="162"/>
+      <c r="C4" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D4" s="163">
         <v>512.0</v>
       </c>
-      <c r="E4" s="164">
+      <c r="E4" s="163">
         <v>100.0</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="165">
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164">
         <v>373.05</v>
       </c>
-      <c r="I4" s="165">
+      <c r="I4" s="164">
         <v>160.31</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165">
+      <c r="J4" s="164"/>
+      <c r="K4" s="164">
         <v>4.5</v>
       </c>
-      <c r="L4" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
+      <c r="L4" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5">
-      <c r="A5" s="162">
+      <c r="A5" s="161">
         <f t="shared" si="1"/>
         <v>10737418240</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164">
+      <c r="B5" s="162"/>
+      <c r="C5" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D5" s="164">
+      <c r="D5" s="163">
         <v>1024.0</v>
       </c>
-      <c r="E5" s="164">
+      <c r="E5" s="163">
         <v>10.0</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="165">
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164">
         <v>151.11</v>
       </c>
-      <c r="I5" s="165">
+      <c r="I5" s="164">
         <v>61.21</v>
       </c>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165">
+      <c r="J5" s="164"/>
+      <c r="K5" s="164">
         <v>9.29</v>
       </c>
-      <c r="L5" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
+      <c r="L5" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
     </row>
     <row r="6">
-      <c r="A6" s="162">
+      <c r="A6" s="161">
         <f t="shared" si="1"/>
         <v>53687091200</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164">
+      <c r="B6" s="162"/>
+      <c r="C6" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D6" s="164">
+      <c r="D6" s="163">
         <v>1024.0</v>
       </c>
-      <c r="E6" s="164">
+      <c r="E6" s="163">
         <v>50.0</v>
       </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164">
         <v>755.62</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="164">
         <v>306.56</v>
       </c>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165">
+      <c r="J6" s="164"/>
+      <c r="K6" s="164">
         <v>12.48</v>
       </c>
-      <c r="L6" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
+      <c r="L6" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
     </row>
     <row r="7">
-      <c r="A7" s="162">
+      <c r="A7" s="161">
         <f t="shared" si="1"/>
         <v>107374182400</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164">
+      <c r="B7" s="162"/>
+      <c r="C7" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D7" s="164">
+      <c r="D7" s="163">
         <v>1024.0</v>
       </c>
-      <c r="E7" s="164">
+      <c r="E7" s="163">
         <v>100.0</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="165">
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164">
         <v>1627.06</v>
       </c>
-      <c r="I7" s="165">
+      <c r="I7" s="164">
         <v>594.16</v>
       </c>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165">
+      <c r="J7" s="164"/>
+      <c r="K7" s="164">
         <v>16.84</v>
       </c>
-      <c r="L7" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
+      <c r="L7" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
     </row>
     <row r="8">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
     </row>
     <row r="9">
-      <c r="A9" s="162">
+      <c r="A9" s="161">
         <f t="shared" ref="A9:A17" si="2">E9*C9*D9^2</f>
         <v>41943040</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="164">
+      <c r="B9" s="162"/>
+      <c r="C9" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D9" s="164">
+      <c r="D9" s="163">
         <v>64.0</v>
       </c>
-      <c r="E9" s="164">
+      <c r="E9" s="163">
         <v>10.0</v>
       </c>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165">
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="164">
         <v>0.58</v>
       </c>
-      <c r="I9" s="165">
+      <c r="I9" s="164">
         <v>0.4</v>
       </c>
-      <c r="J9" s="165">
+      <c r="J9" s="164">
         <v>0.59</v>
       </c>
-      <c r="K9" s="165">
+      <c r="K9" s="164">
         <v>0.31</v>
       </c>
-      <c r="L9" s="165">
+      <c r="L9" s="164">
         <v>0.56</v>
       </c>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="162">
+      <c r="A10" s="161">
         <f t="shared" si="2"/>
         <v>83886080</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164">
+      <c r="B10" s="162"/>
+      <c r="C10" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="163">
         <v>64.0</v>
       </c>
-      <c r="E10" s="164">
+      <c r="E10" s="163">
         <v>10.0</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165">
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="164">
         <v>1.17</v>
       </c>
-      <c r="I10" s="165">
+      <c r="I10" s="164">
         <v>0.61</v>
       </c>
-      <c r="J10" s="165">
+      <c r="J10" s="164">
         <v>0.75</v>
       </c>
-      <c r="K10" s="165">
+      <c r="K10" s="164">
         <v>0.29</v>
       </c>
-      <c r="L10" s="165">
+      <c r="L10" s="164">
         <v>0.99</v>
       </c>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="162">
+      <c r="A11" s="161">
         <f t="shared" si="2"/>
         <v>167772160</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="164">
+      <c r="B11" s="162"/>
+      <c r="C11" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D11" s="164">
+      <c r="D11" s="163">
         <v>64.0</v>
       </c>
-      <c r="E11" s="164">
+      <c r="E11" s="163">
         <v>10.0</v>
       </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165">
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="164">
         <v>2.34</v>
       </c>
-      <c r="I11" s="165">
+      <c r="I11" s="164">
         <v>1.02</v>
       </c>
-      <c r="J11" s="165">
+      <c r="J11" s="164">
         <v>1.22</v>
       </c>
-      <c r="K11" s="165">
+      <c r="K11" s="164">
         <v>0.39</v>
       </c>
-      <c r="L11" s="165">
+      <c r="L11" s="164">
         <v>1.88</v>
       </c>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="161">
         <f t="shared" si="2"/>
         <v>335544320</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164">
+      <c r="B12" s="162"/>
+      <c r="C12" s="163">
         <f t="shared" ref="C12:C17" si="3">C11*2</f>
         <v>8192</v>
       </c>
-      <c r="D12" s="164">
+      <c r="D12" s="163">
         <v>64.0</v>
       </c>
-      <c r="E12" s="164">
+      <c r="E12" s="163">
         <v>10.0</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165">
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="164">
         <v>4.9</v>
       </c>
-      <c r="I12" s="165">
+      <c r="I12" s="164">
         <v>1.83</v>
       </c>
-      <c r="J12" s="165">
+      <c r="J12" s="164">
         <v>2.28</v>
       </c>
-      <c r="K12" s="165">
+      <c r="K12" s="164">
         <v>0.59</v>
       </c>
-      <c r="L12" s="165">
+      <c r="L12" s="164">
         <v>3.91</v>
       </c>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="162">
+      <c r="A13" s="161">
         <f t="shared" si="2"/>
         <v>671088640</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="164">
+      <c r="B13" s="162"/>
+      <c r="C13" s="163">
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
-      <c r="D13" s="164">
+      <c r="D13" s="163">
         <v>64.0</v>
       </c>
-      <c r="E13" s="164">
+      <c r="E13" s="163">
         <v>10.0</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165">
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="164">
         <v>9.47</v>
       </c>
-      <c r="I13" s="165">
+      <c r="I13" s="164">
         <v>3.55</v>
       </c>
-      <c r="J13" s="165">
+      <c r="J13" s="164">
         <v>3.81</v>
       </c>
-      <c r="K13" s="165">
+      <c r="K13" s="164">
         <v>0.74</v>
       </c>
-      <c r="L13" s="165">
+      <c r="L13" s="164">
         <v>7.87</v>
       </c>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="162">
+      <c r="A14" s="161">
         <f t="shared" si="2"/>
         <v>1342177280</v>
       </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="164">
+      <c r="B14" s="162"/>
+      <c r="C14" s="163">
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="D14" s="164">
+      <c r="D14" s="163">
         <v>64.0</v>
       </c>
-      <c r="E14" s="164">
+      <c r="E14" s="163">
         <v>10.0</v>
       </c>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165">
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="164">
         <v>19.1</v>
       </c>
-      <c r="I14" s="165">
+      <c r="I14" s="164">
         <v>6.91</v>
       </c>
-      <c r="J14" s="165">
+      <c r="J14" s="164">
         <v>7.38</v>
       </c>
-      <c r="K14" s="165">
+      <c r="K14" s="164">
         <v>1.27</v>
       </c>
-      <c r="L14" s="165">
+      <c r="L14" s="164">
         <v>14.69</v>
       </c>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="162">
+      <c r="A15" s="161">
         <f t="shared" si="2"/>
         <v>2684354560</v>
       </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="164">
+      <c r="B15" s="162"/>
+      <c r="C15" s="163">
         <f t="shared" si="3"/>
         <v>65536</v>
       </c>
-      <c r="D15" s="164">
+      <c r="D15" s="163">
         <v>64.0</v>
       </c>
-      <c r="E15" s="164">
+      <c r="E15" s="163">
         <v>10.0</v>
       </c>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="165">
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="164">
         <v>38.05</v>
       </c>
-      <c r="I15" s="165">
+      <c r="I15" s="164">
         <v>14.01</v>
       </c>
-      <c r="J15" s="165">
+      <c r="J15" s="164">
         <v>15.3</v>
       </c>
-      <c r="K15" s="165">
+      <c r="K15" s="164">
         <v>2.42</v>
       </c>
-      <c r="L15" s="165">
+      <c r="L15" s="164">
         <v>27.0</v>
       </c>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="162">
+      <c r="A16" s="161">
         <f t="shared" si="2"/>
         <v>5368709120</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164">
+      <c r="B16" s="162"/>
+      <c r="C16" s="163">
         <f t="shared" si="3"/>
         <v>131072</v>
       </c>
-      <c r="D16" s="164">
+      <c r="D16" s="163">
         <v>64.0</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="163">
         <v>10.0</v>
       </c>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165">
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164">
         <v>75.75</v>
       </c>
-      <c r="I16" s="165">
+      <c r="I16" s="164">
         <v>28.04</v>
       </c>
-      <c r="J16" s="165">
+      <c r="J16" s="164">
         <v>31.02</v>
       </c>
-      <c r="K16" s="165">
+      <c r="K16" s="164">
         <v>4.81</v>
       </c>
-      <c r="L16" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
+      <c r="L16" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="162">
+      <c r="A17" s="161">
         <f t="shared" si="2"/>
         <v>10737418240</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="164">
+      <c r="B17" s="162"/>
+      <c r="C17" s="163">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
-      <c r="D17" s="164">
+      <c r="D17" s="163">
         <v>64.0</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="163">
         <v>10.0</v>
       </c>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165">
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164">
         <v>151.43</v>
       </c>
-      <c r="I17" s="165">
+      <c r="I17" s="164">
         <v>56.82</v>
       </c>
-      <c r="J17" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="165">
+      <c r="J17" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="164">
         <v>8.55</v>
       </c>
-      <c r="L17" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
+      <c r="L17" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="162"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="162">
+      <c r="A19" s="161">
         <f t="shared" ref="A19:A27" si="4">E19*C19*D19^2</f>
         <v>209715200</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164">
+      <c r="B19" s="162"/>
+      <c r="C19" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D19" s="164">
+      <c r="D19" s="163">
         <v>64.0</v>
       </c>
-      <c r="E19" s="164">
+      <c r="E19" s="163">
         <v>50.0</v>
       </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="162">
+      <c r="A20" s="161">
         <f t="shared" si="4"/>
         <v>419430400</v>
       </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164">
+      <c r="B20" s="162"/>
+      <c r="C20" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D20" s="164">
+      <c r="D20" s="163">
         <v>64.0</v>
       </c>
-      <c r="E20" s="164">
+      <c r="E20" s="163">
         <v>50.0</v>
       </c>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="162">
+      <c r="A21" s="161">
         <f t="shared" si="4"/>
         <v>838860800</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="164">
+      <c r="B21" s="162"/>
+      <c r="C21" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D21" s="164">
+      <c r="D21" s="163">
         <v>64.0</v>
       </c>
-      <c r="E21" s="164">
+      <c r="E21" s="163">
         <v>50.0</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="162">
+      <c r="A22" s="161">
         <f t="shared" si="4"/>
         <v>1677721600</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164">
+      <c r="B22" s="162"/>
+      <c r="C22" s="163">
         <f t="shared" ref="C22:C27" si="5">C21*2</f>
         <v>8192</v>
       </c>
-      <c r="D22" s="164">
+      <c r="D22" s="163">
         <v>64.0</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="163">
         <v>50.0</v>
       </c>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="162">
+      <c r="A23" s="161">
         <f t="shared" si="4"/>
         <v>3355443200</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164">
+      <c r="B23" s="162"/>
+      <c r="C23" s="163">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="D23" s="164">
+      <c r="D23" s="163">
         <v>64.0</v>
       </c>
-      <c r="E23" s="164">
+      <c r="E23" s="163">
         <v>50.0</v>
       </c>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="162">
+      <c r="A24" s="161">
         <f t="shared" si="4"/>
         <v>6710886400</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="164">
+      <c r="B24" s="162"/>
+      <c r="C24" s="163">
         <f t="shared" si="5"/>
         <v>32768</v>
       </c>
-      <c r="D24" s="164">
+      <c r="D24" s="163">
         <v>64.0</v>
       </c>
-      <c r="E24" s="164">
+      <c r="E24" s="163">
         <v>50.0</v>
       </c>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="162">
+      <c r="A25" s="161">
         <f t="shared" si="4"/>
         <v>13421772800</v>
       </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="164">
+      <c r="B25" s="162"/>
+      <c r="C25" s="163">
         <f t="shared" si="5"/>
         <v>65536</v>
       </c>
-      <c r="D25" s="164">
+      <c r="D25" s="163">
         <v>64.0</v>
       </c>
-      <c r="E25" s="164">
+      <c r="E25" s="163">
         <v>50.0</v>
       </c>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="162">
+      <c r="A26" s="161">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164">
+      <c r="B26" s="162"/>
+      <c r="C26" s="163">
         <f t="shared" si="5"/>
         <v>131072</v>
       </c>
-      <c r="D26" s="164">
+      <c r="D26" s="163">
         <v>64.0</v>
       </c>
-      <c r="E26" s="164">
+      <c r="E26" s="163">
         <v>50.0</v>
       </c>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="162">
+      <c r="A27" s="161">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="164">
+      <c r="B27" s="162"/>
+      <c r="C27" s="163">
         <f t="shared" si="5"/>
         <v>262144</v>
       </c>
-      <c r="D27" s="164">
+      <c r="D27" s="163">
         <v>64.0</v>
       </c>
-      <c r="E27" s="164">
+      <c r="E27" s="163">
         <v>50.0</v>
       </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="162"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="162">
+      <c r="A29" s="161">
         <f t="shared" ref="A29:A37" si="6">E29*C29*D29^2</f>
         <v>419430400</v>
       </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164">
+      <c r="B29" s="162"/>
+      <c r="C29" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="163">
         <v>64.0</v>
       </c>
-      <c r="E29" s="164">
+      <c r="E29" s="163">
         <v>100.0</v>
       </c>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="165">
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164">
         <v>5.85</v>
       </c>
-      <c r="I29" s="165">
+      <c r="I29" s="164">
         <v>3.14</v>
       </c>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165">
+      <c r="J29" s="164"/>
+      <c r="K29" s="164">
         <v>0.42</v>
       </c>
-      <c r="L29" s="166"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="162">
+      <c r="A30" s="161">
         <f t="shared" si="6"/>
         <v>838860800</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164">
+      <c r="B30" s="162"/>
+      <c r="C30" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D30" s="164">
+      <c r="D30" s="163">
         <v>64.0</v>
       </c>
-      <c r="E30" s="164">
+      <c r="E30" s="163">
         <v>100.0</v>
       </c>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="165">
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="164">
         <v>11.73</v>
       </c>
-      <c r="I30" s="165">
+      <c r="I30" s="164">
         <v>5.23</v>
       </c>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165">
+      <c r="J30" s="164"/>
+      <c r="K30" s="164">
         <v>0.35</v>
       </c>
-      <c r="L30" s="166"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="162">
+      <c r="A31" s="161">
         <f t="shared" si="6"/>
         <v>1677721600</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164">
+      <c r="B31" s="162"/>
+      <c r="C31" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D31" s="164">
+      <c r="D31" s="163">
         <v>64.0</v>
       </c>
-      <c r="E31" s="164">
+      <c r="E31" s="163">
         <v>100.0</v>
       </c>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="165">
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="164">
         <v>23.41</v>
       </c>
-      <c r="I31" s="165">
+      <c r="I31" s="164">
         <v>9.75</v>
       </c>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165">
+      <c r="J31" s="164"/>
+      <c r="K31" s="164">
         <v>0.48</v>
       </c>
-      <c r="L31" s="166"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="162">
+      <c r="A32" s="161">
         <f t="shared" si="6"/>
         <v>3355443200</v>
       </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164">
+      <c r="B32" s="162"/>
+      <c r="C32" s="163">
         <f t="shared" ref="C32:C37" si="7">C31*2</f>
         <v>8192</v>
       </c>
-      <c r="D32" s="164">
+      <c r="D32" s="163">
         <v>64.0</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="163">
         <v>100.0</v>
       </c>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="165">
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="164">
         <v>46.98</v>
       </c>
-      <c r="I32" s="165">
+      <c r="I32" s="164">
         <v>17.9</v>
       </c>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165">
+      <c r="J32" s="164"/>
+      <c r="K32" s="164">
         <v>0.68</v>
       </c>
-      <c r="L32" s="166"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="162">
+      <c r="A33" s="161">
         <f t="shared" si="6"/>
         <v>6710886400</v>
       </c>
-      <c r="B33" s="163"/>
-      <c r="C33" s="164">
+      <c r="B33" s="162"/>
+      <c r="C33" s="163">
         <f t="shared" si="7"/>
         <v>16384</v>
       </c>
-      <c r="D33" s="164">
+      <c r="D33" s="163">
         <v>64.0</v>
       </c>
-      <c r="E33" s="164">
+      <c r="E33" s="163">
         <v>100.0</v>
       </c>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="165">
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="164">
         <v>94.37</v>
       </c>
-      <c r="I33" s="165">
+      <c r="I33" s="164">
         <v>34.96</v>
       </c>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165">
+      <c r="J33" s="164"/>
+      <c r="K33" s="164">
         <v>1.03</v>
       </c>
-      <c r="L33" s="166"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="162">
+      <c r="A34" s="161">
         <f t="shared" si="6"/>
         <v>13421772800</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="164">
+      <c r="B34" s="162"/>
+      <c r="C34" s="163">
         <f t="shared" si="7"/>
         <v>32768</v>
       </c>
-      <c r="D34" s="164">
+      <c r="D34" s="163">
         <v>64.0</v>
       </c>
-      <c r="E34" s="164">
+      <c r="E34" s="163">
         <v>100.0</v>
       </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="165">
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="164">
         <v>189.68</v>
       </c>
-      <c r="I34" s="165">
+      <c r="I34" s="164">
         <v>68.15</v>
       </c>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165">
+      <c r="J34" s="164"/>
+      <c r="K34" s="164">
         <v>1.88</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="162">
+      <c r="A35" s="161">
         <f t="shared" si="6"/>
         <v>26843545600</v>
       </c>
-      <c r="B35" s="163"/>
-      <c r="C35" s="164">
+      <c r="B35" s="162"/>
+      <c r="C35" s="163">
         <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="D35" s="164">
+      <c r="D35" s="163">
         <v>64.0</v>
       </c>
-      <c r="E35" s="164">
+      <c r="E35" s="163">
         <v>100.0</v>
       </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="165">
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="164">
         <v>386.17</v>
       </c>
-      <c r="I35" s="165">
+      <c r="I35" s="164">
         <v>138.05</v>
       </c>
-      <c r="J35" s="166"/>
-      <c r="K35" s="165">
+      <c r="J35" s="165"/>
+      <c r="K35" s="164">
         <v>3.56</v>
       </c>
-      <c r="L35" s="166"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="162">
+      <c r="A36" s="161">
         <f t="shared" si="6"/>
         <v>53687091200</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="164">
+      <c r="B36" s="162"/>
+      <c r="C36" s="163">
         <f t="shared" si="7"/>
         <v>131072</v>
       </c>
-      <c r="D36" s="164">
+      <c r="D36" s="163">
         <v>64.0</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="163">
         <v>100.0</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="165">
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="164">
         <v>755.11</v>
       </c>
-      <c r="I36" s="165">
+      <c r="I36" s="164">
         <v>293.16</v>
       </c>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165">
+      <c r="J36" s="164"/>
+      <c r="K36" s="164">
         <v>6.57</v>
       </c>
-      <c r="L36" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="163"/>
+      <c r="L36" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="162">
+      <c r="A37" s="161">
         <f t="shared" si="6"/>
         <v>107374182400</v>
       </c>
-      <c r="B37" s="163"/>
-      <c r="C37" s="164">
+      <c r="B37" s="162"/>
+      <c r="C37" s="163">
         <f t="shared" si="7"/>
         <v>262144</v>
       </c>
-      <c r="D37" s="164">
+      <c r="D37" s="163">
         <v>64.0</v>
       </c>
-      <c r="E37" s="164">
+      <c r="E37" s="163">
         <v>100.0</v>
       </c>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="165">
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="164">
         <v>1523.29</v>
       </c>
-      <c r="I37" s="165">
+      <c r="I37" s="164">
         <v>582.13</v>
       </c>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165">
+      <c r="J37" s="164"/>
+      <c r="K37" s="164">
         <v>12.31</v>
       </c>
-      <c r="L37" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="163"/>
+      <c r="L37" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="162"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="163"/>
-      <c r="P38" s="163"/>
-      <c r="Q38" s="163"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="162">
+      <c r="A39" s="161">
         <f t="shared" ref="A39:A46" si="8">E39*C39*D39^2</f>
         <v>167772160</v>
       </c>
-      <c r="B39" s="163"/>
-      <c r="C39" s="164">
+      <c r="B39" s="162"/>
+      <c r="C39" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D39" s="164">
+      <c r="D39" s="163">
         <v>128.0</v>
       </c>
-      <c r="E39" s="164">
+      <c r="E39" s="163">
         <v>10.0</v>
       </c>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="162">
+      <c r="A40" s="161">
         <f t="shared" si="8"/>
         <v>335544320</v>
       </c>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164">
+      <c r="B40" s="162"/>
+      <c r="C40" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D40" s="164">
+      <c r="D40" s="163">
         <v>128.0</v>
       </c>
-      <c r="E40" s="164">
+      <c r="E40" s="163">
         <v>10.0</v>
       </c>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="162">
+      <c r="A41" s="161">
         <f t="shared" si="8"/>
         <v>671088640</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164">
+      <c r="B41" s="162"/>
+      <c r="C41" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D41" s="164">
+      <c r="D41" s="163">
         <v>128.0</v>
       </c>
-      <c r="E41" s="164">
+      <c r="E41" s="163">
         <v>10.0</v>
       </c>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="163"/>
-      <c r="P41" s="163"/>
-      <c r="Q41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="162">
+      <c r="A42" s="161">
         <f t="shared" si="8"/>
         <v>1342177280</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="164">
+      <c r="B42" s="162"/>
+      <c r="C42" s="163">
         <f t="shared" ref="C42:C46" si="9">C41*2</f>
         <v>8192</v>
       </c>
-      <c r="D42" s="164">
+      <c r="D42" s="163">
         <v>128.0</v>
       </c>
-      <c r="E42" s="164">
+      <c r="E42" s="163">
         <v>10.0</v>
       </c>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="163"/>
-      <c r="P42" s="163"/>
-      <c r="Q42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="162"/>
+      <c r="Q42" s="162"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="162">
+      <c r="A43" s="161">
         <f t="shared" si="8"/>
         <v>2684354560</v>
       </c>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164">
+      <c r="B43" s="162"/>
+      <c r="C43" s="163">
         <f t="shared" si="9"/>
         <v>16384</v>
       </c>
-      <c r="D43" s="164">
+      <c r="D43" s="163">
         <v>128.0</v>
       </c>
-      <c r="E43" s="164">
+      <c r="E43" s="163">
         <v>10.0</v>
       </c>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="162"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="162">
+      <c r="A44" s="161">
         <f t="shared" si="8"/>
         <v>5368709120</v>
       </c>
-      <c r="B44" s="163"/>
-      <c r="C44" s="164">
+      <c r="B44" s="162"/>
+      <c r="C44" s="163">
         <f t="shared" si="9"/>
         <v>32768</v>
       </c>
-      <c r="D44" s="164">
+      <c r="D44" s="163">
         <v>128.0</v>
       </c>
-      <c r="E44" s="164">
+      <c r="E44" s="163">
         <v>10.0</v>
       </c>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="162">
+      <c r="A45" s="161">
         <f t="shared" si="8"/>
         <v>10737418240</v>
       </c>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164">
+      <c r="B45" s="162"/>
+      <c r="C45" s="163">
         <f t="shared" si="9"/>
         <v>65536</v>
       </c>
-      <c r="D45" s="164">
+      <c r="D45" s="163">
         <v>128.0</v>
       </c>
-      <c r="E45" s="164">
+      <c r="E45" s="163">
         <v>10.0</v>
       </c>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="163"/>
-      <c r="Q45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="162"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="162"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="162">
+      <c r="A46" s="161">
         <f t="shared" si="8"/>
         <v>21474836480</v>
       </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="164">
+      <c r="B46" s="162"/>
+      <c r="C46" s="163">
         <f t="shared" si="9"/>
         <v>131072</v>
       </c>
-      <c r="D46" s="164">
+      <c r="D46" s="163">
         <v>128.0</v>
       </c>
-      <c r="E46" s="164">
+      <c r="E46" s="163">
         <v>10.0</v>
       </c>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" s="163"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="163"/>
-      <c r="P46" s="163"/>
-      <c r="Q46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="162"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="163"/>
-      <c r="O47" s="163"/>
-      <c r="P47" s="163"/>
-      <c r="Q47" s="163"/>
+      <c r="A47" s="161"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="162"/>
+      <c r="P47" s="162"/>
+      <c r="Q47" s="162"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="162">
+      <c r="A48" s="161">
         <f t="shared" ref="A48:A55" si="10">E48*C48*D48^2</f>
         <v>838860800</v>
       </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="164">
+      <c r="B48" s="162"/>
+      <c r="C48" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D48" s="164">
+      <c r="D48" s="163">
         <v>128.0</v>
       </c>
-      <c r="E48" s="164">
+      <c r="E48" s="163">
         <v>50.0</v>
       </c>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="165">
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="164">
         <v>11.63</v>
       </c>
-      <c r="I48" s="166"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="165">
+      <c r="I48" s="165"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="164">
         <v>0.59</v>
       </c>
-      <c r="L48" s="166"/>
-      <c r="M48" s="163"/>
-      <c r="N48" s="163"/>
-      <c r="O48" s="163"/>
-      <c r="P48" s="163"/>
-      <c r="Q48" s="163"/>
+      <c r="L48" s="165"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="162"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="162">
+      <c r="A49" s="161">
         <f t="shared" si="10"/>
         <v>1677721600</v>
       </c>
-      <c r="B49" s="163"/>
-      <c r="C49" s="164">
+      <c r="B49" s="162"/>
+      <c r="C49" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D49" s="164">
+      <c r="D49" s="163">
         <v>128.0</v>
       </c>
-      <c r="E49" s="164">
+      <c r="E49" s="163">
         <v>50.0</v>
       </c>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="165">
+      <c r="F49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="164">
         <v>23.27</v>
       </c>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="165">
+      <c r="I49" s="165"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="164">
         <v>0.92</v>
       </c>
-      <c r="L49" s="166"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="163"/>
-      <c r="P49" s="163"/>
-      <c r="Q49" s="163"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="162"/>
+      <c r="N49" s="162"/>
+      <c r="O49" s="162"/>
+      <c r="P49" s="162"/>
+      <c r="Q49" s="162"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="162">
+      <c r="A50" s="161">
         <f t="shared" si="10"/>
         <v>3355443200</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="164">
+      <c r="B50" s="162"/>
+      <c r="C50" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D50" s="164">
+      <c r="D50" s="163">
         <v>128.0</v>
       </c>
-      <c r="E50" s="164">
+      <c r="E50" s="163">
         <v>50.0</v>
       </c>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="165">
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="164">
         <v>47.23</v>
       </c>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="165">
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="164">
         <v>1.21</v>
       </c>
-      <c r="L50" s="166"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
-      <c r="P50" s="163"/>
-      <c r="Q50" s="163"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="162"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="162">
+      <c r="A51" s="161">
         <f t="shared" si="10"/>
         <v>6710886400</v>
       </c>
-      <c r="B51" s="163"/>
-      <c r="C51" s="164">
+      <c r="B51" s="162"/>
+      <c r="C51" s="163">
         <f t="shared" ref="C51:C55" si="11">C50*2</f>
         <v>8192</v>
       </c>
-      <c r="D51" s="164">
+      <c r="D51" s="163">
         <v>128.0</v>
       </c>
-      <c r="E51" s="164">
+      <c r="E51" s="163">
         <v>50.0</v>
       </c>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="165">
+      <c r="F51" s="163"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="164">
         <v>93.54</v>
       </c>
-      <c r="I51" s="166"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="165">
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="164">
         <v>1.92</v>
       </c>
-      <c r="L51" s="166"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="163"/>
-      <c r="O51" s="163"/>
-      <c r="P51" s="163"/>
-      <c r="Q51" s="163"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="162"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="162"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="162">
+      <c r="A52" s="161">
         <f t="shared" si="10"/>
         <v>13421772800</v>
       </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="164">
+      <c r="B52" s="162"/>
+      <c r="C52" s="163">
         <f t="shared" si="11"/>
         <v>16384</v>
       </c>
-      <c r="D52" s="164">
+      <c r="D52" s="163">
         <v>128.0</v>
       </c>
-      <c r="E52" s="164">
+      <c r="E52" s="163">
         <v>50.0</v>
       </c>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="165">
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="164">
         <v>188.37</v>
       </c>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="165">
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="164">
         <v>3.13</v>
       </c>
-      <c r="L52" s="166"/>
-      <c r="M52" s="163"/>
-      <c r="N52" s="163"/>
-      <c r="O52" s="163"/>
-      <c r="P52" s="163"/>
-      <c r="Q52" s="163"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="162"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="162">
+      <c r="A53" s="161">
         <f t="shared" si="10"/>
         <v>26843545600</v>
       </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="164">
+      <c r="B53" s="162"/>
+      <c r="C53" s="163">
         <f t="shared" si="11"/>
         <v>32768</v>
       </c>
-      <c r="D53" s="164">
+      <c r="D53" s="163">
         <v>128.0</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="163">
         <v>50.0</v>
       </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="165">
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="164">
         <v>375.21</v>
       </c>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="165">
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="164">
         <v>29.57</v>
       </c>
-      <c r="L53" s="166"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="162"/>
+      <c r="N53" s="162"/>
+      <c r="O53" s="162"/>
+      <c r="P53" s="162"/>
+      <c r="Q53" s="162"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="162">
+      <c r="A54" s="161">
         <f t="shared" si="10"/>
         <v>53687091200</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="164">
+      <c r="B54" s="162"/>
+      <c r="C54" s="163">
         <f t="shared" si="11"/>
         <v>65536</v>
       </c>
-      <c r="D54" s="164">
+      <c r="D54" s="163">
         <v>128.0</v>
       </c>
-      <c r="E54" s="164">
+      <c r="E54" s="163">
         <v>50.0</v>
       </c>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="165">
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="164">
         <v>754.4</v>
       </c>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="165">
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="164">
         <v>57.1</v>
       </c>
-      <c r="L54" s="166"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="163"/>
-      <c r="P54" s="163"/>
-      <c r="Q54" s="163"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="162"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="162"/>
+      <c r="Q54" s="162"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="162">
+      <c r="A55" s="161">
         <f t="shared" si="10"/>
         <v>107374182400</v>
       </c>
-      <c r="B55" s="163"/>
-      <c r="C55" s="164">
+      <c r="B55" s="162"/>
+      <c r="C55" s="163">
         <f t="shared" si="11"/>
         <v>131072</v>
       </c>
-      <c r="D55" s="164">
+      <c r="D55" s="163">
         <v>128.0</v>
       </c>
-      <c r="E55" s="164">
+      <c r="E55" s="163">
         <v>50.0</v>
       </c>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="165">
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="164">
         <v>1517.0</v>
       </c>
-      <c r="I55" s="166"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="165">
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="164">
         <v>151.35</v>
       </c>
-      <c r="L55" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="163"/>
-      <c r="P55" s="163"/>
-      <c r="Q55" s="163"/>
+      <c r="L55" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="162"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
+      <c r="Q55" s="162"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="162"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="166"/>
-      <c r="K56" s="166"/>
-      <c r="L56" s="166"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
-      <c r="Q56" s="163"/>
+      <c r="A56" s="161"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="162"/>
+      <c r="N56" s="162"/>
+      <c r="O56" s="162"/>
+      <c r="P56" s="162"/>
+      <c r="Q56" s="162"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="162">
+      <c r="A57" s="161">
         <f t="shared" ref="A57:A64" si="12">E57*C57*D57^2</f>
         <v>1677721600</v>
       </c>
-      <c r="B57" s="163"/>
-      <c r="C57" s="164">
+      <c r="B57" s="162"/>
+      <c r="C57" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D57" s="164">
+      <c r="D57" s="163">
         <v>128.0</v>
       </c>
-      <c r="E57" s="164">
+      <c r="E57" s="163">
         <v>100.0</v>
       </c>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="165">
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="164">
         <v>23.19</v>
       </c>
-      <c r="I57" s="165">
+      <c r="I57" s="164">
         <v>10.45</v>
       </c>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165">
+      <c r="J57" s="164"/>
+      <c r="K57" s="164">
         <v>0.82</v>
       </c>
-      <c r="L57" s="166"/>
-      <c r="M57" s="163"/>
-      <c r="N57" s="163"/>
-      <c r="O57" s="163"/>
-      <c r="P57" s="163"/>
-      <c r="Q57" s="163"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="162"/>
+      <c r="N57" s="162"/>
+      <c r="O57" s="162"/>
+      <c r="P57" s="162"/>
+      <c r="Q57" s="162"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="162">
+      <c r="A58" s="161">
         <f t="shared" si="12"/>
         <v>3355443200</v>
       </c>
-      <c r="B58" s="163"/>
-      <c r="C58" s="164">
+      <c r="B58" s="162"/>
+      <c r="C58" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D58" s="164">
+      <c r="D58" s="163">
         <v>128.0</v>
       </c>
-      <c r="E58" s="164">
+      <c r="E58" s="163">
         <v>100.0</v>
       </c>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="165">
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="164">
         <v>46.39</v>
       </c>
-      <c r="I58" s="165">
+      <c r="I58" s="164">
         <v>19.79</v>
       </c>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165">
+      <c r="J58" s="164"/>
+      <c r="K58" s="164">
         <v>0.86</v>
       </c>
-      <c r="L58" s="166"/>
-      <c r="M58" s="163"/>
-      <c r="N58" s="163"/>
-      <c r="O58" s="163"/>
-      <c r="P58" s="163"/>
-      <c r="Q58" s="163"/>
+      <c r="L58" s="165"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="162"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="162"/>
+      <c r="Q58" s="162"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="162">
+      <c r="A59" s="161">
         <f t="shared" si="12"/>
         <v>6710886400</v>
       </c>
-      <c r="B59" s="163"/>
-      <c r="C59" s="164">
+      <c r="B59" s="162"/>
+      <c r="C59" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D59" s="164">
+      <c r="D59" s="163">
         <v>128.0</v>
       </c>
-      <c r="E59" s="164">
+      <c r="E59" s="163">
         <v>100.0</v>
       </c>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="165">
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="164">
         <v>94.73</v>
       </c>
-      <c r="I59" s="165">
+      <c r="I59" s="164">
         <v>35.92</v>
       </c>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165">
+      <c r="J59" s="164"/>
+      <c r="K59" s="164">
         <v>1.12</v>
       </c>
-      <c r="L59" s="166"/>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="163"/>
-      <c r="Q59" s="163"/>
+      <c r="L59" s="165"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="162"/>
+      <c r="O59" s="162"/>
+      <c r="P59" s="162"/>
+      <c r="Q59" s="162"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="162">
+      <c r="A60" s="161">
         <f t="shared" si="12"/>
         <v>13421772800</v>
       </c>
-      <c r="B60" s="163"/>
-      <c r="C60" s="164">
+      <c r="B60" s="162"/>
+      <c r="C60" s="163">
         <f t="shared" ref="C60:C64" si="13">C59*2</f>
         <v>8192</v>
       </c>
-      <c r="D60" s="164">
+      <c r="D60" s="163">
         <v>128.0</v>
       </c>
-      <c r="E60" s="164">
+      <c r="E60" s="163">
         <v>100.0</v>
       </c>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="165">
+      <c r="F60" s="163"/>
+      <c r="G60" s="163"/>
+      <c r="H60" s="164">
         <v>187.37</v>
       </c>
-      <c r="I60" s="165">
+      <c r="I60" s="164">
         <v>80.06</v>
       </c>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165">
+      <c r="J60" s="164"/>
+      <c r="K60" s="164">
         <v>1.87</v>
       </c>
-      <c r="L60" s="165">
+      <c r="L60" s="164">
         <v>118.85</v>
       </c>
-      <c r="M60" s="163"/>
-      <c r="N60" s="163"/>
-      <c r="O60" s="163"/>
-      <c r="P60" s="163"/>
-      <c r="Q60" s="163"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="162"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="162"/>
+      <c r="Q60" s="162"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="162">
+      <c r="A61" s="161">
         <f t="shared" si="12"/>
         <v>26843545600</v>
       </c>
-      <c r="B61" s="163"/>
-      <c r="C61" s="164">
+      <c r="B61" s="162"/>
+      <c r="C61" s="163">
         <f t="shared" si="13"/>
         <v>16384</v>
       </c>
-      <c r="D61" s="164">
+      <c r="D61" s="163">
         <v>128.0</v>
       </c>
-      <c r="E61" s="164">
+      <c r="E61" s="163">
         <v>100.0</v>
       </c>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="165">
+      <c r="F61" s="163"/>
+      <c r="G61" s="163"/>
+      <c r="H61" s="164">
         <v>376.53</v>
       </c>
-      <c r="I61" s="165">
+      <c r="I61" s="164">
         <v>138.66</v>
       </c>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165">
+      <c r="J61" s="164"/>
+      <c r="K61" s="164">
         <v>3.15</v>
       </c>
-      <c r="L61" s="166"/>
-      <c r="M61" s="163"/>
-      <c r="N61" s="163"/>
-      <c r="O61" s="163"/>
-      <c r="P61" s="163"/>
-      <c r="Q61" s="163"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="162"/>
+      <c r="O61" s="162"/>
+      <c r="P61" s="162"/>
+      <c r="Q61" s="162"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="162">
+      <c r="A62" s="161">
         <f t="shared" si="12"/>
         <v>53687091200</v>
       </c>
-      <c r="B62" s="163"/>
-      <c r="C62" s="164">
+      <c r="B62" s="162"/>
+      <c r="C62" s="163">
         <f t="shared" si="13"/>
         <v>32768</v>
       </c>
-      <c r="D62" s="164">
+      <c r="D62" s="163">
         <v>128.0</v>
       </c>
-      <c r="E62" s="164">
+      <c r="E62" s="163">
         <v>100.0</v>
       </c>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="165">
+      <c r="F62" s="163"/>
+      <c r="G62" s="163"/>
+      <c r="H62" s="164">
         <v>757.11</v>
       </c>
-      <c r="I62" s="165">
+      <c r="I62" s="164">
         <v>297.66</v>
       </c>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165">
+      <c r="J62" s="164"/>
+      <c r="K62" s="164">
         <v>6.27</v>
       </c>
-      <c r="L62" s="166"/>
-      <c r="M62" s="163"/>
-      <c r="N62" s="163"/>
-      <c r="O62" s="163"/>
-      <c r="P62" s="163"/>
-      <c r="Q62" s="163"/>
+      <c r="L62" s="165"/>
+      <c r="M62" s="162"/>
+      <c r="N62" s="162"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="162"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="162">
+      <c r="A63" s="161">
         <f t="shared" si="12"/>
         <v>107374182400</v>
       </c>
-      <c r="B63" s="163"/>
-      <c r="C63" s="164">
+      <c r="B63" s="162"/>
+      <c r="C63" s="163">
         <f t="shared" si="13"/>
         <v>65536</v>
       </c>
-      <c r="D63" s="164">
+      <c r="D63" s="163">
         <v>128.0</v>
       </c>
-      <c r="E63" s="164">
+      <c r="E63" s="163">
         <v>100.0</v>
       </c>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="165">
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="164">
         <v>1500.12</v>
       </c>
-      <c r="I63" s="165">
+      <c r="I63" s="164">
         <v>571.52</v>
       </c>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165">
+      <c r="J63" s="164"/>
+      <c r="K63" s="164">
         <v>13.85</v>
       </c>
-      <c r="L63" s="166"/>
-      <c r="M63" s="163"/>
-      <c r="N63" s="163"/>
-      <c r="O63" s="163"/>
-      <c r="P63" s="163"/>
-      <c r="Q63" s="163"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="162"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="162"/>
+      <c r="P63" s="162"/>
+      <c r="Q63" s="162"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="162">
+      <c r="A64" s="161">
         <f t="shared" si="12"/>
         <v>214748364800</v>
       </c>
-      <c r="B64" s="163"/>
-      <c r="C64" s="164">
+      <c r="B64" s="162"/>
+      <c r="C64" s="163">
         <f t="shared" si="13"/>
         <v>131072</v>
       </c>
-      <c r="D64" s="164">
+      <c r="D64" s="163">
         <v>128.0</v>
       </c>
-      <c r="E64" s="164">
+      <c r="E64" s="163">
         <v>100.0</v>
       </c>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="165">
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="164">
         <v>3258.53</v>
       </c>
-      <c r="I64" s="165">
+      <c r="I64" s="164">
         <v>1173.8</v>
       </c>
-      <c r="J64" s="165"/>
-      <c r="K64" s="165">
+      <c r="J64" s="164"/>
+      <c r="K64" s="164">
         <v>214.13</v>
       </c>
-      <c r="L64" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="M64" s="163"/>
-      <c r="N64" s="163"/>
-      <c r="O64" s="163"/>
-      <c r="P64" s="163"/>
-      <c r="Q64" s="163"/>
+      <c r="L64" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" s="162"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="162"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="162"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164"/>
-      <c r="F65" s="164"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="166"/>
-      <c r="K65" s="166"/>
-      <c r="L65" s="166"/>
-      <c r="M65" s="163"/>
-      <c r="N65" s="163"/>
-      <c r="O65" s="163"/>
-      <c r="P65" s="163"/>
-      <c r="Q65" s="163"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="163"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="162"/>
+      <c r="P65" s="162"/>
+      <c r="Q65" s="162"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="162">
+      <c r="A66" s="161">
         <f t="shared" ref="A66:A70" si="14">E66*C66*D66^2</f>
         <v>671088640</v>
       </c>
-      <c r="B66" s="163"/>
-      <c r="C66" s="167">
+      <c r="B66" s="162"/>
+      <c r="C66" s="166">
         <v>1024.0</v>
       </c>
-      <c r="D66" s="164">
+      <c r="D66" s="163">
         <v>256.0</v>
       </c>
-      <c r="E66" s="164">
+      <c r="E66" s="163">
         <v>10.0</v>
       </c>
-      <c r="F66" s="164"/>
-      <c r="G66" s="164"/>
-      <c r="H66" s="165">
+      <c r="F66" s="163"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="164">
         <v>9.51</v>
       </c>
-      <c r="I66" s="165">
+      <c r="I66" s="164">
         <v>4.15</v>
       </c>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165">
+      <c r="J66" s="164"/>
+      <c r="K66" s="164">
         <v>1.08</v>
       </c>
-      <c r="L66" s="166"/>
-      <c r="M66" s="163"/>
-      <c r="N66" s="163"/>
-      <c r="O66" s="163"/>
-      <c r="P66" s="163"/>
-      <c r="Q66" s="163"/>
+      <c r="L66" s="165"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="162"/>
+      <c r="Q66" s="162"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="162">
+      <c r="A67" s="161">
         <f t="shared" si="14"/>
         <v>1342177280</v>
       </c>
-      <c r="B67" s="163"/>
-      <c r="C67" s="164">
+      <c r="B67" s="162"/>
+      <c r="C67" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D67" s="164">
+      <c r="D67" s="163">
         <v>256.0</v>
       </c>
-      <c r="E67" s="164">
+      <c r="E67" s="163">
         <v>10.0</v>
       </c>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="165">
+      <c r="F67" s="163"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="164">
         <v>18.7</v>
       </c>
-      <c r="I67" s="165">
+      <c r="I67" s="164">
         <v>7.49</v>
       </c>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165">
+      <c r="J67" s="164"/>
+      <c r="K67" s="164">
         <v>1.48</v>
       </c>
-      <c r="L67" s="166"/>
-      <c r="M67" s="163"/>
-      <c r="N67" s="163"/>
-      <c r="O67" s="163"/>
-      <c r="P67" s="163"/>
-      <c r="Q67" s="163"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="162"/>
+      <c r="O67" s="162"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="162"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="162">
+      <c r="A68" s="161">
         <f t="shared" si="14"/>
         <v>2684354560</v>
       </c>
-      <c r="B68" s="163"/>
-      <c r="C68" s="164">
+      <c r="B68" s="162"/>
+      <c r="C68" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D68" s="164">
+      <c r="D68" s="163">
         <v>256.0</v>
       </c>
-      <c r="E68" s="164">
+      <c r="E68" s="163">
         <v>10.0</v>
       </c>
-      <c r="F68" s="164"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="165">
+      <c r="F68" s="163"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="164">
         <v>38.12</v>
       </c>
-      <c r="I68" s="165">
+      <c r="I68" s="164">
         <v>13.94</v>
       </c>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165">
+      <c r="J68" s="164"/>
+      <c r="K68" s="164">
         <v>2.61</v>
       </c>
-      <c r="L68" s="166"/>
-      <c r="M68" s="163"/>
-      <c r="N68" s="163"/>
-      <c r="O68" s="163"/>
-      <c r="P68" s="163"/>
-      <c r="Q68" s="163"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="162"/>
+      <c r="N68" s="162"/>
+      <c r="O68" s="162"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="162"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="162">
+      <c r="A69" s="161">
         <f t="shared" si="14"/>
         <v>5368709120</v>
       </c>
-      <c r="B69" s="163"/>
-      <c r="C69" s="164">
+      <c r="B69" s="162"/>
+      <c r="C69" s="163">
         <f t="shared" ref="C69:C70" si="15">C68*2</f>
         <v>8192</v>
       </c>
-      <c r="D69" s="164">
+      <c r="D69" s="163">
         <v>256.0</v>
       </c>
-      <c r="E69" s="164">
+      <c r="E69" s="163">
         <v>10.0</v>
       </c>
-      <c r="F69" s="164"/>
-      <c r="G69" s="164"/>
-      <c r="H69" s="165">
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="164">
         <v>74.54</v>
       </c>
-      <c r="I69" s="165">
+      <c r="I69" s="164">
         <v>28.75</v>
       </c>
-      <c r="J69" s="165"/>
-      <c r="K69" s="165">
+      <c r="J69" s="164"/>
+      <c r="K69" s="164">
         <v>4.82</v>
       </c>
-      <c r="L69" s="166"/>
-      <c r="M69" s="163"/>
-      <c r="N69" s="163"/>
-      <c r="O69" s="163"/>
-      <c r="P69" s="163"/>
-      <c r="Q69" s="163"/>
+      <c r="L69" s="165"/>
+      <c r="M69" s="162"/>
+      <c r="N69" s="162"/>
+      <c r="O69" s="162"/>
+      <c r="P69" s="162"/>
+      <c r="Q69" s="162"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="162">
+      <c r="A70" s="161">
         <f t="shared" si="14"/>
         <v>10737418240</v>
       </c>
-      <c r="B70" s="163"/>
-      <c r="C70" s="164">
+      <c r="B70" s="162"/>
+      <c r="C70" s="163">
         <f t="shared" si="15"/>
         <v>16384</v>
       </c>
-      <c r="D70" s="164">
+      <c r="D70" s="163">
         <v>256.0</v>
       </c>
-      <c r="E70" s="164">
+      <c r="E70" s="163">
         <v>10.0</v>
       </c>
-      <c r="F70" s="164"/>
-      <c r="G70" s="164"/>
-      <c r="H70" s="165">
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="164">
         <v>150.39</v>
       </c>
-      <c r="I70" s="165">
+      <c r="I70" s="164">
         <v>57.16</v>
       </c>
-      <c r="J70" s="165"/>
-      <c r="K70" s="165">
+      <c r="J70" s="164"/>
+      <c r="K70" s="164">
         <v>18.17</v>
       </c>
-      <c r="L70" s="166"/>
-      <c r="M70" s="163"/>
-      <c r="N70" s="163"/>
-      <c r="O70" s="163"/>
-      <c r="P70" s="163"/>
-      <c r="Q70" s="163"/>
+      <c r="L70" s="165"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="162"/>
+      <c r="O70" s="162"/>
+      <c r="P70" s="162"/>
+      <c r="Q70" s="162"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="162"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="164"/>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
-      <c r="H71" s="166"/>
-      <c r="I71" s="166"/>
-      <c r="J71" s="166"/>
-      <c r="K71" s="166"/>
-      <c r="L71" s="166"/>
-      <c r="M71" s="163"/>
-      <c r="N71" s="163"/>
-      <c r="O71" s="163"/>
-      <c r="P71" s="163"/>
-      <c r="Q71" s="163"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="162"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="165"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="162"/>
+      <c r="O71" s="162"/>
+      <c r="P71" s="162"/>
+      <c r="Q71" s="162"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="162">
+      <c r="A72" s="161">
         <f t="shared" ref="A72:A76" si="16">E72*C72*D72^2</f>
         <v>3355443200</v>
       </c>
-      <c r="B72" s="163"/>
-      <c r="C72" s="164">
+      <c r="B72" s="162"/>
+      <c r="C72" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D72" s="164">
+      <c r="D72" s="163">
         <v>256.0</v>
       </c>
-      <c r="E72" s="164">
+      <c r="E72" s="163">
         <v>50.0</v>
       </c>
-      <c r="F72" s="164"/>
-      <c r="G72" s="164"/>
-      <c r="H72" s="165">
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="164">
         <v>46.56</v>
       </c>
-      <c r="I72" s="165">
+      <c r="I72" s="164">
         <v>20.23</v>
       </c>
-      <c r="J72" s="165"/>
-      <c r="K72" s="165">
+      <c r="J72" s="164"/>
+      <c r="K72" s="164">
         <v>1.2</v>
       </c>
-      <c r="L72" s="166"/>
-      <c r="M72" s="163"/>
-      <c r="N72" s="163"/>
-      <c r="O72" s="163"/>
-      <c r="P72" s="163"/>
-      <c r="Q72" s="163"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="162"/>
+      <c r="Q72" s="162"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="162">
+      <c r="A73" s="161">
         <f t="shared" si="16"/>
         <v>6710886400</v>
       </c>
-      <c r="B73" s="163"/>
-      <c r="C73" s="164">
+      <c r="B73" s="162"/>
+      <c r="C73" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D73" s="164">
+      <c r="D73" s="163">
         <v>256.0</v>
       </c>
-      <c r="E73" s="164">
+      <c r="E73" s="163">
         <v>50.0</v>
       </c>
-      <c r="F73" s="164"/>
-      <c r="G73" s="164"/>
-      <c r="H73" s="165">
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="164">
         <v>93.56</v>
       </c>
-      <c r="I73" s="165">
+      <c r="I73" s="164">
         <v>38.56</v>
       </c>
-      <c r="J73" s="165"/>
-      <c r="K73" s="165">
+      <c r="J73" s="164"/>
+      <c r="K73" s="164">
         <v>1.81</v>
       </c>
-      <c r="L73" s="166"/>
-      <c r="M73" s="163"/>
-      <c r="N73" s="163"/>
-      <c r="O73" s="163"/>
-      <c r="P73" s="163"/>
-      <c r="Q73" s="163"/>
+      <c r="L73" s="165"/>
+      <c r="M73" s="162"/>
+      <c r="N73" s="162"/>
+      <c r="O73" s="162"/>
+      <c r="P73" s="162"/>
+      <c r="Q73" s="162"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="162">
+      <c r="A74" s="161">
         <f t="shared" si="16"/>
         <v>13421772800</v>
       </c>
-      <c r="B74" s="163"/>
-      <c r="C74" s="164">
+      <c r="B74" s="162"/>
+      <c r="C74" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D74" s="164">
+      <c r="D74" s="163">
         <v>256.0</v>
       </c>
-      <c r="E74" s="164">
+      <c r="E74" s="163">
         <v>50.0</v>
       </c>
-      <c r="F74" s="164"/>
-      <c r="G74" s="164"/>
-      <c r="H74" s="165">
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="164">
         <v>187.95</v>
       </c>
-      <c r="I74" s="165">
+      <c r="I74" s="164">
         <v>69.42</v>
       </c>
-      <c r="J74" s="165"/>
-      <c r="K74" s="165">
+      <c r="J74" s="164"/>
+      <c r="K74" s="164">
         <v>3.22</v>
       </c>
-      <c r="L74" s="166"/>
-      <c r="M74" s="163"/>
-      <c r="N74" s="163"/>
-      <c r="O74" s="163"/>
-      <c r="P74" s="163"/>
-      <c r="Q74" s="163"/>
+      <c r="L74" s="165"/>
+      <c r="M74" s="162"/>
+      <c r="N74" s="162"/>
+      <c r="O74" s="162"/>
+      <c r="P74" s="162"/>
+      <c r="Q74" s="162"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="162">
+      <c r="A75" s="161">
         <f t="shared" si="16"/>
         <v>26843545600</v>
       </c>
-      <c r="B75" s="163"/>
-      <c r="C75" s="164">
+      <c r="B75" s="162"/>
+      <c r="C75" s="163">
         <f t="shared" ref="C75:C76" si="17">C74*2</f>
         <v>8192</v>
       </c>
-      <c r="D75" s="164">
+      <c r="D75" s="163">
         <v>256.0</v>
       </c>
-      <c r="E75" s="164">
+      <c r="E75" s="163">
         <v>50.0</v>
       </c>
-      <c r="F75" s="164"/>
-      <c r="G75" s="164"/>
-      <c r="H75" s="165">
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="164">
         <v>384.52</v>
       </c>
-      <c r="I75" s="165">
+      <c r="I75" s="164">
         <v>137.58</v>
       </c>
-      <c r="J75" s="165"/>
-      <c r="K75" s="165">
+      <c r="J75" s="164"/>
+      <c r="K75" s="164">
         <v>5.48</v>
       </c>
-      <c r="L75" s="166"/>
-      <c r="M75" s="163"/>
-      <c r="N75" s="163"/>
-      <c r="O75" s="163"/>
-      <c r="P75" s="163"/>
-      <c r="Q75" s="163"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="162"/>
+      <c r="N75" s="162"/>
+      <c r="O75" s="162"/>
+      <c r="P75" s="162"/>
+      <c r="Q75" s="162"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="162">
+      <c r="A76" s="161">
         <f t="shared" si="16"/>
         <v>53687091200</v>
       </c>
-      <c r="B76" s="163"/>
-      <c r="C76" s="164">
+      <c r="B76" s="162"/>
+      <c r="C76" s="163">
         <f t="shared" si="17"/>
         <v>16384</v>
       </c>
-      <c r="D76" s="164">
+      <c r="D76" s="163">
         <v>256.0</v>
       </c>
-      <c r="E76" s="164">
+      <c r="E76" s="163">
         <v>50.0</v>
       </c>
-      <c r="F76" s="164"/>
-      <c r="G76" s="164"/>
-      <c r="H76" s="165">
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="164">
         <v>755.25</v>
       </c>
-      <c r="I76" s="165">
+      <c r="I76" s="164">
         <v>286.66</v>
       </c>
-      <c r="J76" s="165"/>
-      <c r="K76" s="165">
+      <c r="J76" s="164"/>
+      <c r="K76" s="164">
         <v>56.38</v>
       </c>
-      <c r="L76" s="166"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="163"/>
-      <c r="O76" s="163"/>
-      <c r="P76" s="163"/>
-      <c r="Q76" s="163"/>
+      <c r="L76" s="165"/>
+      <c r="M76" s="162"/>
+      <c r="N76" s="162"/>
+      <c r="O76" s="162"/>
+      <c r="P76" s="162"/>
+      <c r="Q76" s="162"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="162"/>
-      <c r="B77" s="163"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="164"/>
-      <c r="F77" s="164"/>
-      <c r="G77" s="164"/>
-      <c r="H77" s="166"/>
-      <c r="I77" s="166"/>
-      <c r="J77" s="166"/>
-      <c r="K77" s="166"/>
-      <c r="L77" s="166"/>
-      <c r="M77" s="163"/>
-      <c r="N77" s="163"/>
-      <c r="O77" s="163"/>
-      <c r="P77" s="163"/>
-      <c r="Q77" s="163"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="165"/>
+      <c r="I77" s="165"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="165"/>
+      <c r="L77" s="165"/>
+      <c r="M77" s="162"/>
+      <c r="N77" s="162"/>
+      <c r="O77" s="162"/>
+      <c r="P77" s="162"/>
+      <c r="Q77" s="162"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="162">
+      <c r="A78" s="161">
         <f t="shared" ref="A78:A82" si="18">E78*C78*D78^2</f>
         <v>6710886400</v>
       </c>
-      <c r="B78" s="163"/>
-      <c r="C78" s="164">
+      <c r="B78" s="162"/>
+      <c r="C78" s="163">
         <v>1024.0</v>
       </c>
-      <c r="D78" s="164">
+      <c r="D78" s="163">
         <v>256.0</v>
       </c>
-      <c r="E78" s="164">
+      <c r="E78" s="163">
         <v>100.0</v>
       </c>
-      <c r="F78" s="164"/>
-      <c r="G78" s="164"/>
-      <c r="H78" s="165">
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="164">
         <v>93.78</v>
       </c>
-      <c r="I78" s="165">
+      <c r="I78" s="164">
         <v>40.43</v>
       </c>
-      <c r="J78" s="165"/>
-      <c r="K78" s="165">
+      <c r="J78" s="164"/>
+      <c r="K78" s="164">
         <v>1.52</v>
       </c>
-      <c r="L78" s="166"/>
-      <c r="M78" s="163"/>
-      <c r="N78" s="163"/>
-      <c r="O78" s="163"/>
-      <c r="P78" s="163"/>
-      <c r="Q78" s="163"/>
+      <c r="L78" s="165"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="162"/>
+      <c r="O78" s="162"/>
+      <c r="P78" s="162"/>
+      <c r="Q78" s="162"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="162">
+      <c r="A79" s="161">
         <f t="shared" si="18"/>
         <v>13421772800</v>
       </c>
-      <c r="B79" s="163"/>
-      <c r="C79" s="164">
+      <c r="B79" s="162"/>
+      <c r="C79" s="163">
         <v>2048.0</v>
       </c>
-      <c r="D79" s="164">
+      <c r="D79" s="163">
         <v>256.0</v>
       </c>
-      <c r="E79" s="164">
+      <c r="E79" s="163">
         <v>100.0</v>
       </c>
-      <c r="F79" s="164"/>
-      <c r="G79" s="164"/>
-      <c r="H79" s="165">
+      <c r="F79" s="163"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="164">
         <v>186.62</v>
       </c>
-      <c r="I79" s="165">
+      <c r="I79" s="164">
         <v>74.02</v>
       </c>
-      <c r="J79" s="165"/>
-      <c r="K79" s="165">
+      <c r="J79" s="164"/>
+      <c r="K79" s="164">
         <v>2.16</v>
       </c>
-      <c r="L79" s="166"/>
-      <c r="M79" s="163"/>
-      <c r="N79" s="163"/>
-      <c r="O79" s="163"/>
-      <c r="P79" s="163"/>
-      <c r="Q79" s="163"/>
+      <c r="L79" s="165"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="162"/>
+      <c r="O79" s="162"/>
+      <c r="P79" s="162"/>
+      <c r="Q79" s="162"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="162">
+      <c r="A80" s="161">
         <f t="shared" si="18"/>
         <v>26843545600</v>
       </c>
-      <c r="B80" s="163"/>
-      <c r="C80" s="164">
+      <c r="B80" s="162"/>
+      <c r="C80" s="163">
         <v>4096.0</v>
       </c>
-      <c r="D80" s="164">
+      <c r="D80" s="163">
         <v>256.0</v>
       </c>
-      <c r="E80" s="164">
+      <c r="E80" s="163">
         <v>100.0</v>
       </c>
-      <c r="F80" s="164"/>
-      <c r="G80" s="164"/>
-      <c r="H80" s="165">
+      <c r="F80" s="163"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="164">
         <v>371.27</v>
       </c>
-      <c r="I80" s="165">
+      <c r="I80" s="164">
         <v>146.81</v>
       </c>
-      <c r="J80" s="165"/>
-      <c r="K80" s="165">
+      <c r="J80" s="164"/>
+      <c r="K80" s="164">
         <v>3.74</v>
       </c>
-      <c r="L80" s="166"/>
-      <c r="M80" s="163"/>
-      <c r="N80" s="163"/>
-      <c r="O80" s="163"/>
-      <c r="P80" s="163"/>
-      <c r="Q80" s="163"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="162"/>
+      <c r="N80" s="162"/>
+      <c r="O80" s="162"/>
+      <c r="P80" s="162"/>
+      <c r="Q80" s="162"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="162">
+      <c r="A81" s="161">
         <f t="shared" si="18"/>
         <v>53687091200</v>
       </c>
-      <c r="B81" s="163"/>
-      <c r="C81" s="164">
+      <c r="B81" s="162"/>
+      <c r="C81" s="163">
         <f t="shared" ref="C81:C82" si="19">C80*2</f>
         <v>8192</v>
       </c>
-      <c r="D81" s="164">
+      <c r="D81" s="163">
         <v>256.0</v>
       </c>
-      <c r="E81" s="164">
+      <c r="E81" s="163">
         <v>100.0</v>
       </c>
-      <c r="F81" s="164"/>
-      <c r="G81" s="164"/>
-      <c r="H81" s="165">
+      <c r="F81" s="163"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="164">
         <v>760.84</v>
       </c>
-      <c r="I81" s="165">
+      <c r="I81" s="164">
         <v>274.15</v>
       </c>
-      <c r="J81" s="165"/>
-      <c r="K81" s="165">
+      <c r="J81" s="164"/>
+      <c r="K81" s="164">
         <v>6.2</v>
       </c>
-      <c r="L81" s="165">
+      <c r="L81" s="164">
         <v>442.13</v>
       </c>
-      <c r="M81" s="163"/>
-      <c r="N81" s="163"/>
-      <c r="O81" s="163"/>
-      <c r="P81" s="163"/>
-      <c r="Q81" s="163"/>
+      <c r="M81" s="162"/>
+      <c r="N81" s="162"/>
+      <c r="O81" s="162"/>
+      <c r="P81" s="162"/>
+      <c r="Q81" s="162"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="162">
+      <c r="A82" s="161">
         <f t="shared" si="18"/>
         <v>107374182400</v>
       </c>
-      <c r="B82" s="163"/>
-      <c r="C82" s="164">
+      <c r="B82" s="162"/>
+      <c r="C82" s="163">
         <f t="shared" si="19"/>
         <v>16384</v>
       </c>
-      <c r="D82" s="164">
+      <c r="D82" s="163">
         <v>256.0</v>
       </c>
-      <c r="E82" s="164">
+      <c r="E82" s="163">
         <v>100.0</v>
       </c>
-      <c r="F82" s="164"/>
-      <c r="G82" s="164"/>
-      <c r="H82" s="165">
+      <c r="F82" s="163"/>
+      <c r="G82" s="163"/>
+      <c r="H82" s="164">
         <v>1527.07</v>
       </c>
-      <c r="I82" s="165">
+      <c r="I82" s="164">
         <v>568.9</v>
       </c>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165">
+      <c r="J82" s="164"/>
+      <c r="K82" s="164">
         <v>107.51</v>
       </c>
-      <c r="L82" s="166"/>
-      <c r="M82" s="163"/>
-      <c r="N82" s="163"/>
-      <c r="O82" s="163"/>
-      <c r="P82" s="163"/>
-      <c r="Q82" s="163"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="162"/>
+      <c r="N82" s="162"/>
+      <c r="O82" s="162"/>
+      <c r="P82" s="162"/>
+      <c r="Q82" s="162"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/GPU Project Results.xlsx
+++ b/GPU Project Results.xlsx
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,6 +352,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -877,11 +880,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1343380459"/>
-        <c:axId val="623570194"/>
+        <c:axId val="1062552378"/>
+        <c:axId val="2014685649"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1343380459"/>
+        <c:axId val="1062552378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,10 +936,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623570194"/>
+        <c:crossAx val="2014685649"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623570194"/>
+        <c:axId val="2014685649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1014,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1343380459"/>
+        <c:crossAx val="1062552378"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1754,11 +1757,11 @@
       <c r="N9" s="25">
         <v>0.81</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="26">
         <f t="shared" si="1"/>
         <v>0.885</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="27">
         <f t="shared" si="2"/>
         <v>0.06023103667</v>
       </c>
@@ -2116,11 +2119,11 @@
       <c r="N17" s="25">
         <v>0.54</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="26">
         <f t="shared" si="3"/>
         <v>0.518</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="27">
         <f t="shared" si="4"/>
         <v>0.02616188916</v>
       </c>
@@ -20655,2175 +20658,2175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="O1" s="33"/>
+      <c r="P1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <f t="shared" ref="A2:A4" si="1">I2*G2*H2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37">
         <v>1024.0</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="37">
         <v>512.0</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="37">
         <v>10.0</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37">
+      <c r="J2" s="37"/>
+      <c r="K2" s="38">
         <v>38.07</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="38">
         <v>16.05</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="38">
         <v>15.07</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="38">
         <v>2.76</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="38">
+      <c r="O2" s="36"/>
+      <c r="P2" s="39">
         <f t="shared" ref="P2:P4" si="2">K2/L2</f>
         <v>2.371962617</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="39">
         <f t="shared" ref="Q2:Q4" si="3">K2/N2</f>
         <v>13.79347826</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42">
         <v>1024.0</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="42">
         <v>512.0</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="42">
         <v>50.0</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42">
+      <c r="J3" s="42"/>
+      <c r="K3" s="43">
         <v>185.74</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="43">
         <v>79.8</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="43">
         <v>75.0</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="43">
         <v>3.41</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="43">
+      <c r="O3" s="41"/>
+      <c r="P3" s="44">
         <f t="shared" si="2"/>
         <v>2.327568922</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="44">
         <f t="shared" si="3"/>
         <v>54.46920821</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
     </row>
     <row r="4" hidden="1">
-      <c r="A4" s="34">
+      <c r="A4" s="35">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37">
         <v>1024.0</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="37">
         <v>512.0</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="37">
         <v>100.0</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37">
+      <c r="J4" s="37"/>
+      <c r="K4" s="38">
         <v>373.05</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="38">
         <v>160.31</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38">
         <v>4.5</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="38">
+      <c r="O4" s="36"/>
+      <c r="P4" s="39">
         <f t="shared" si="2"/>
         <v>2.327053833</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="39">
         <f t="shared" si="3"/>
         <v>82.9</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
     </row>
     <row r="5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
     </row>
     <row r="6">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <f t="shared" ref="A6:A11" si="4">I6*G6*H6^2</f>
         <v>10737418240</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46">
         <f t="shared" ref="C6:C11" si="5">G6*H6^2*4</f>
         <v>4294967296</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="47">
         <f t="shared" ref="D6:D11" si="6">(H6*G6*H6*2+H6+H6*(G6/64))*4/1024/1024/1024</f>
         <v>8.00006485</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="47">
+      <c r="E6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="48">
         <v>1024.0</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="49">
         <v>1024.0</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="49">
         <v>10.0</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49">
+      <c r="J6" s="49"/>
+      <c r="K6" s="50">
         <v>151.11</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="50">
         <v>61.21</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50">
         <v>8.97</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51">
+      <c r="O6" s="51"/>
+      <c r="P6" s="52">
         <f t="shared" ref="P6:P11" si="7">K6/L6</f>
         <v>2.468714262</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="52">
         <f t="shared" ref="Q6:Q11" si="8">K6/N6</f>
         <v>16.84615385</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="53"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
     </row>
     <row r="7">
-      <c r="A7" s="39">
+      <c r="A7" s="40">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57">
         <f t="shared" si="5"/>
         <v>4294967296</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="58">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="58">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="59">
         <v>1024.0</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="42">
         <v>1024.0</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="45">
         <v>25.0</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42">
+      <c r="J7" s="42"/>
+      <c r="K7" s="43">
         <v>384.0</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="43">
         <v>152.38</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <v>10.07</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="59">
+      <c r="O7" s="41"/>
+      <c r="P7" s="60">
         <f t="shared" si="7"/>
         <v>2.52001575</v>
       </c>
-      <c r="Q7" s="59">
+      <c r="Q7" s="60">
         <f t="shared" si="8"/>
         <v>38.13306852</v>
       </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
     </row>
     <row r="8">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46">
         <f t="shared" si="5"/>
         <v>4294967296</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="47">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="61">
+      <c r="E8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="62">
         <v>1024.0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="37">
         <v>1024.0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="37">
         <v>50.0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37">
+      <c r="J8" s="37"/>
+      <c r="K8" s="38">
         <v>755.62</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="38">
         <v>306.56</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38">
         <v>11.93</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="38">
+      <c r="O8" s="36"/>
+      <c r="P8" s="39">
         <f t="shared" si="7"/>
         <v>2.464835595</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="39">
         <f t="shared" si="8"/>
         <v>63.33780386</v>
       </c>
-      <c r="T8" s="62"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
     </row>
     <row r="9">
-      <c r="A9" s="39">
+      <c r="A9" s="40">
         <f t="shared" si="4"/>
         <v>107374182400</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57">
         <f t="shared" si="5"/>
         <v>4294967296</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="58">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="58">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="59">
         <v>1024.0</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="42">
         <v>1024.0</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="42">
         <v>100.0</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42">
+      <c r="J9" s="42"/>
+      <c r="K9" s="43">
         <v>1627.06</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="43">
         <v>594.16</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
+      <c r="M9" s="43"/>
+      <c r="N9" s="43">
         <v>15.77</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="43">
+      <c r="O9" s="41"/>
+      <c r="P9" s="44">
         <f t="shared" si="7"/>
         <v>2.738420627</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="44">
         <f t="shared" si="8"/>
         <v>103.1743817</v>
       </c>
-      <c r="T9" s="60"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
     </row>
     <row r="10">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <f t="shared" si="4"/>
         <v>161061273600</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46">
         <f t="shared" si="5"/>
         <v>4294967296</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="47">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="61">
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="62">
         <v>1024.0</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="37">
         <v>1024.0</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="56">
         <v>150.0</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37">
+      <c r="J10" s="37"/>
+      <c r="K10" s="38">
         <v>2283.96</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="38">
         <v>849.39</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37">
+      <c r="M10" s="38"/>
+      <c r="N10" s="38">
         <v>19.64</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="38">
+      <c r="O10" s="36"/>
+      <c r="P10" s="39">
         <f t="shared" si="7"/>
         <v>2.688941476</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="39">
         <f t="shared" si="8"/>
         <v>116.2912424</v>
       </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
     </row>
     <row r="11">
-      <c r="A11" s="39">
+      <c r="A11" s="40">
         <f t="shared" si="4"/>
         <v>214748364800</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57">
         <f t="shared" si="5"/>
         <v>4294967296</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="58">
         <f t="shared" si="6"/>
         <v>8.00006485</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="63">
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="64">
         <v>1024.0</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="65">
         <v>1024.0</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="66">
         <v>200.0</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="66">
+      <c r="J11" s="65"/>
+      <c r="K11" s="67">
         <v>3026.2</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="67">
         <v>1167.05</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67">
         <v>23.83</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68">
+      <c r="O11" s="68"/>
+      <c r="P11" s="69">
         <f t="shared" si="7"/>
         <v>2.593033717</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="69">
         <f t="shared" si="8"/>
         <v>126.9911876</v>
       </c>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
     </row>
     <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <f t="shared" ref="A14:A23" si="9">I14*G14*H14^2</f>
         <v>209715200</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46">
         <f t="shared" ref="C14:C30" si="10">G14*H14^2*4</f>
         <v>8388608</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="47">
         <f t="shared" ref="D14:D30" si="11">(H14*G14*H14*2+H14+H14*(G14/64))*4/1024/1024/1024</f>
         <v>0.01562643051</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="47">
         <f t="shared" ref="E14:E30" si="12">(G14*H14*2 + G14 + G14/64)/4/1024/1024</f>
         <v>0.007843494415</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="73">
+      <c r="F14" s="46"/>
+      <c r="G14" s="74">
         <v>128.0</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="49">
         <v>128.0</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="49">
         <v>100.0</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49">
+      <c r="J14" s="49"/>
+      <c r="K14" s="50">
         <v>3.02</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="50">
         <v>2.18</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50">
         <v>0.43</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51">
+      <c r="O14" s="51"/>
+      <c r="P14" s="52">
         <f t="shared" ref="P14:P30" si="13">K14/L14</f>
         <v>1.385321101</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="52">
         <f t="shared" ref="Q14:Q30" si="14">K14/N14</f>
         <v>7.023255814</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="R14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="39">
+      <c r="A15" s="40">
         <f t="shared" si="9"/>
         <v>419430400</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57">
         <f t="shared" si="10"/>
         <v>16777216</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="58">
         <f t="shared" si="11"/>
         <v>0.03125238419</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="58">
         <f t="shared" si="12"/>
         <v>0.01568698883</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="74">
+      <c r="F15" s="57"/>
+      <c r="G15" s="75">
         <v>256.0</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="42">
         <v>128.0</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="42">
         <v>100.0</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42">
+      <c r="J15" s="42"/>
+      <c r="K15" s="43">
         <v>5.82</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="43">
         <v>3.47</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42">
+      <c r="M15" s="43"/>
+      <c r="N15" s="43">
         <v>0.46</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="43">
+      <c r="O15" s="41"/>
+      <c r="P15" s="44">
         <f t="shared" si="13"/>
         <v>1.677233429</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="44">
         <f t="shared" si="14"/>
         <v>12.65217391</v>
       </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="35">
         <f t="shared" si="9"/>
         <v>838860800</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46">
         <f t="shared" si="10"/>
         <v>33554432</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="47">
         <f t="shared" si="11"/>
         <v>0.06250429153</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="47">
         <f t="shared" si="12"/>
         <v>0.03137397766</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="75">
+      <c r="F16" s="46"/>
+      <c r="G16" s="76">
         <v>512.0</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="37">
         <v>128.0</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="37">
         <v>100.0</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37">
+      <c r="J16" s="37"/>
+      <c r="K16" s="38">
         <v>11.65</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="38">
         <v>5.8</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37">
+      <c r="M16" s="38"/>
+      <c r="N16" s="38">
         <v>0.5</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="38">
+      <c r="O16" s="36"/>
+      <c r="P16" s="39">
         <f t="shared" si="13"/>
         <v>2.00862069</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="39">
         <f t="shared" si="14"/>
         <v>23.3</v>
       </c>
-      <c r="T16" s="62"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="39">
+      <c r="A17" s="40">
         <f t="shared" si="9"/>
         <v>1677721600</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57">
         <f t="shared" si="10"/>
         <v>67108864</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="58">
         <f t="shared" si="11"/>
         <v>0.1250081062</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="58">
         <f t="shared" si="12"/>
         <v>0.06274795532</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="58">
+      <c r="F17" s="57"/>
+      <c r="G17" s="59">
         <v>1024.0</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="42">
         <v>128.0</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="42">
         <v>100.0</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42">
+      <c r="J17" s="42"/>
+      <c r="K17" s="43">
         <v>23.19</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="43">
         <v>10.45</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42">
+      <c r="M17" s="43"/>
+      <c r="N17" s="43">
         <v>0.57</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="43">
+      <c r="O17" s="41"/>
+      <c r="P17" s="44">
         <f t="shared" si="13"/>
         <v>2.219138756</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="44">
         <f t="shared" si="14"/>
         <v>40.68421053</v>
       </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="35">
         <f t="shared" si="9"/>
         <v>3355443200</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46">
         <f t="shared" si="10"/>
         <v>134217728</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="47">
         <f t="shared" si="11"/>
         <v>0.2500157356</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="47">
         <f t="shared" si="12"/>
         <v>0.1254959106</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="61">
+      <c r="F18" s="46"/>
+      <c r="G18" s="62">
         <v>2048.0</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="37">
         <v>128.0</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="37">
         <v>100.0</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37">
+      <c r="J18" s="37"/>
+      <c r="K18" s="38">
         <v>46.39</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="38">
         <v>19.79</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38">
         <v>0.8</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="38">
+      <c r="O18" s="36"/>
+      <c r="P18" s="39">
         <f t="shared" si="13"/>
         <v>2.344113188</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="39">
         <f t="shared" si="14"/>
         <v>57.9875</v>
       </c>
-      <c r="T18" s="62"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="39">
+      <c r="A19" s="40">
         <f t="shared" si="9"/>
         <v>6710886400</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57">
         <f t="shared" si="10"/>
         <v>268435456</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="58">
         <f t="shared" si="11"/>
         <v>0.5000309944</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="58">
         <f t="shared" si="12"/>
         <v>0.2509918213</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58">
+      <c r="F19" s="57"/>
+      <c r="G19" s="59">
         <v>4096.0</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="42">
         <v>128.0</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="42">
         <v>100.0</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42">
+      <c r="J19" s="42"/>
+      <c r="K19" s="43">
         <v>94.73</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="43">
         <v>35.92</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42">
+      <c r="M19" s="43"/>
+      <c r="N19" s="43">
         <v>1.31</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="43">
+      <c r="O19" s="41"/>
+      <c r="P19" s="44">
         <f t="shared" si="13"/>
         <v>2.637249443</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="44">
         <f t="shared" si="14"/>
         <v>72.3129771</v>
       </c>
-      <c r="T19" s="60"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="35">
         <f t="shared" si="9"/>
         <v>13421772800</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46">
         <f t="shared" si="10"/>
         <v>536870912</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="47">
         <f t="shared" si="11"/>
         <v>1.000061512</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="47">
         <f t="shared" si="12"/>
         <v>0.5019836426</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="61">
+      <c r="F20" s="46"/>
+      <c r="G20" s="62">
         <f t="shared" ref="G20:G22" si="15">G19*2</f>
         <v>8192</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="37">
         <v>128.0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="37">
         <v>100.0</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37">
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
         <v>187.37</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="38">
         <v>80.06</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38">
         <v>2.54</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="38">
+      <c r="O20" s="36"/>
+      <c r="P20" s="39">
         <f t="shared" si="13"/>
         <v>2.340369723</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="39">
         <f t="shared" si="14"/>
         <v>73.76771654</v>
       </c>
-      <c r="T20" s="62"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="39">
+      <c r="A21" s="40">
         <f t="shared" si="9"/>
         <v>26843545600</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57">
         <f t="shared" si="10"/>
         <v>1073741824</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="58">
         <f t="shared" si="11"/>
         <v>2.000122547</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="58">
         <f t="shared" si="12"/>
         <v>1.003967285</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58">
+      <c r="F21" s="57"/>
+      <c r="G21" s="59">
         <f t="shared" si="15"/>
         <v>16384</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="42">
         <v>128.0</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="42">
         <v>100.0</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42">
+      <c r="J21" s="42"/>
+      <c r="K21" s="43">
         <v>376.53</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="43">
         <v>138.66</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42">
+      <c r="M21" s="43"/>
+      <c r="N21" s="43">
         <v>4.03</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="43">
+      <c r="O21" s="41"/>
+      <c r="P21" s="44">
         <f t="shared" si="13"/>
         <v>2.715491129</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="44">
         <f t="shared" si="14"/>
         <v>93.43176179</v>
       </c>
-      <c r="T21" s="60"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34">
+      <c r="A22" s="35">
         <f t="shared" si="9"/>
         <v>53687091200</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46">
         <f t="shared" si="10"/>
         <v>2147483648</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="47">
         <f t="shared" si="11"/>
         <v>4.000244617</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="47">
         <f t="shared" si="12"/>
         <v>2.00793457</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="61">
+      <c r="F22" s="46"/>
+      <c r="G22" s="62">
         <f t="shared" si="15"/>
         <v>32768</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="37">
         <v>128.0</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="37">
         <v>100.0</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37">
+      <c r="J22" s="37"/>
+      <c r="K22" s="38">
         <v>757.11</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="38">
         <v>297.66</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37">
+      <c r="M22" s="38"/>
+      <c r="N22" s="38">
         <v>6.45</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="38">
+      <c r="O22" s="36"/>
+      <c r="P22" s="39">
         <f t="shared" si="13"/>
         <v>2.543539609</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="39">
         <f t="shared" si="14"/>
         <v>117.3813953</v>
       </c>
-      <c r="T22" s="62"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="39">
+      <c r="A23" s="40">
         <f t="shared" si="9"/>
         <v>60397977600</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57">
         <f t="shared" si="10"/>
         <v>2415919104</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="58">
         <f t="shared" si="11"/>
         <v>4.500275135</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="58">
         <f t="shared" si="12"/>
         <v>2.258926392</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="58">
+      <c r="F23" s="57"/>
+      <c r="G23" s="59">
         <f t="shared" ref="G23:G24" si="16">G22+$G$19</f>
         <v>36864</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="42">
         <v>128.0</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="42">
         <v>100.0</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42">
+      <c r="J23" s="42"/>
+      <c r="K23" s="43">
         <v>845.14</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="43">
         <v>347.02</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42">
+      <c r="M23" s="43"/>
+      <c r="N23" s="43">
         <v>6.79</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="43">
+      <c r="O23" s="41"/>
+      <c r="P23" s="44">
         <f t="shared" si="13"/>
         <v>2.43542159</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="44">
         <f t="shared" si="14"/>
         <v>124.4683358</v>
       </c>
-      <c r="T23" s="60"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34">
+      <c r="A24" s="35">
         <f t="shared" ref="A24:A26" si="17">$I$24*G24*$H$24^2</f>
         <v>67108864000</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46">
         <f t="shared" si="10"/>
         <v>2684354560</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="47">
         <f t="shared" si="11"/>
         <v>5.000305653</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="47">
         <f t="shared" si="12"/>
         <v>2.509918213</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="61">
+      <c r="F24" s="46"/>
+      <c r="G24" s="62">
         <f t="shared" si="16"/>
         <v>40960</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <v>128.0</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="37">
         <v>100.0</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37">
+      <c r="J24" s="37"/>
+      <c r="K24" s="38">
         <v>931.95</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="38">
         <v>384.69</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38">
         <v>7.82</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="38">
+      <c r="O24" s="36"/>
+      <c r="P24" s="39">
         <f t="shared" si="13"/>
         <v>2.422600016</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="39">
         <f t="shared" si="14"/>
         <v>119.1751918</v>
       </c>
-      <c r="T24" s="62"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="39">
+      <c r="A25" s="40">
         <f t="shared" si="17"/>
         <v>68786585600</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57">
         <f t="shared" si="10"/>
         <v>2751463424</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="58">
         <f t="shared" si="11"/>
         <v>5.125313282</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="58">
         <f t="shared" si="12"/>
         <v>2.572666168</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="58">
+      <c r="F25" s="57"/>
+      <c r="G25" s="59">
         <f t="shared" ref="G25:G26" si="18">G24+G$17</f>
         <v>41984</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="42">
         <v>128.0</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="42">
         <v>100.0</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42">
+      <c r="J25" s="42"/>
+      <c r="K25" s="43">
         <v>952.99</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="43">
         <v>394.29</v>
       </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42">
+      <c r="M25" s="43"/>
+      <c r="N25" s="43">
         <v>7.97</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="43">
+      <c r="O25" s="41"/>
+      <c r="P25" s="44">
         <f t="shared" si="13"/>
         <v>2.416977352</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="44">
         <f t="shared" si="14"/>
         <v>119.5721455</v>
       </c>
-      <c r="T25" s="60"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34">
+      <c r="A26" s="35">
         <f t="shared" si="17"/>
         <v>70464307200</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46">
         <f t="shared" si="10"/>
         <v>2818572288</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="47">
         <f t="shared" si="11"/>
         <v>5.250320911</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="47">
         <f t="shared" si="12"/>
         <v>2.635414124</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="61">
+      <c r="F26" s="46"/>
+      <c r="G26" s="62">
         <f t="shared" si="18"/>
         <v>43008</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="37">
         <v>128.0</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="37">
         <v>100.0</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37">
+      <c r="J26" s="37"/>
+      <c r="K26" s="38">
         <v>974.15</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="38">
         <v>402.86</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37">
+      <c r="M26" s="38"/>
+      <c r="N26" s="38">
         <v>7.85</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="38">
+      <c r="O26" s="36"/>
+      <c r="P26" s="39">
         <f t="shared" si="13"/>
         <v>2.418085687</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="39">
         <f t="shared" si="14"/>
         <v>124.0955414</v>
       </c>
-      <c r="T26" s="62"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="39">
+      <c r="A27" s="40">
         <f t="shared" ref="A27:A30" si="19">I27*G27*H27^2</f>
         <v>73819750400</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57">
         <f t="shared" si="10"/>
         <v>2952790016</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="58">
         <f t="shared" si="11"/>
         <v>5.50033617</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="58">
         <f t="shared" si="12"/>
         <v>2.760910034</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="58">
+      <c r="F27" s="57"/>
+      <c r="G27" s="59">
         <f>G24+$G$19</f>
         <v>45056</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="42">
         <v>128.0</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="42">
         <v>100.0</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42">
+      <c r="J27" s="42"/>
+      <c r="K27" s="43">
         <v>1032.76</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="43">
         <v>443.0</v>
       </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42">
+      <c r="M27" s="43"/>
+      <c r="N27" s="43">
         <v>8.1</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="43">
+      <c r="O27" s="41"/>
+      <c r="P27" s="44">
         <f t="shared" si="13"/>
         <v>2.331286682</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="44">
         <f t="shared" si="14"/>
         <v>127.5012346</v>
       </c>
-      <c r="T27" s="60"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34">
+      <c r="A28" s="35">
         <f t="shared" si="19"/>
         <v>80530636800</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46">
         <f t="shared" si="10"/>
         <v>3221225472</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="47">
         <f t="shared" si="11"/>
         <v>6.000366688</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="47">
         <f t="shared" si="12"/>
         <v>3.011901855</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="61">
+      <c r="F28" s="46"/>
+      <c r="G28" s="62">
         <f>G22+$G$21</f>
         <v>49152</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="37">
         <v>128.0</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="37">
         <v>100.0</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37">
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
         <v>1129.36</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="38">
         <v>457.69</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37">
+      <c r="M28" s="38"/>
+      <c r="N28" s="38">
         <v>9.08</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="38">
+      <c r="O28" s="36"/>
+      <c r="P28" s="39">
         <f t="shared" si="13"/>
         <v>2.467521685</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="39">
         <f t="shared" si="14"/>
         <v>124.3788546</v>
       </c>
-      <c r="T28" s="62"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="39">
+      <c r="A29" s="40">
         <f t="shared" si="19"/>
         <v>107374182400</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57">
         <f t="shared" si="10"/>
         <v>4294967296</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="58">
         <f t="shared" si="11"/>
         <v>8.000488758</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="58">
         <f t="shared" si="12"/>
         <v>4.015869141</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58">
+      <c r="F29" s="57"/>
+      <c r="G29" s="59">
         <f>G28+$G$21</f>
         <v>65536</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="42">
         <v>128.0</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="42">
         <v>100.0</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42">
+      <c r="J29" s="42"/>
+      <c r="K29" s="43">
         <v>1500.12</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="43">
         <v>571.52</v>
       </c>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42">
+      <c r="M29" s="43"/>
+      <c r="N29" s="43">
         <v>12.83</v>
       </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="43">
+      <c r="O29" s="41"/>
+      <c r="P29" s="44">
         <f t="shared" si="13"/>
         <v>2.624790034</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="Q29" s="44">
         <f t="shared" si="14"/>
         <v>116.9228371</v>
       </c>
-      <c r="T29" s="60"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34">
+      <c r="A30" s="35">
         <f t="shared" si="19"/>
         <v>214748364800</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46">
         <f t="shared" si="10"/>
         <v>8589934592</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="47">
         <f t="shared" si="11"/>
         <v>16.00097704</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="47">
         <f t="shared" si="12"/>
         <v>8.031738281</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="76">
+      <c r="F30" s="46"/>
+      <c r="G30" s="77">
         <f>G29*2</f>
         <v>131072</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="78">
         <v>128.0</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="79">
         <v>100.0</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79">
+      <c r="J30" s="79"/>
+      <c r="K30" s="80">
         <v>3258.53</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="80">
         <v>1173.8</v>
       </c>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79">
+      <c r="M30" s="80"/>
+      <c r="N30" s="80">
         <v>31.81</v>
       </c>
-      <c r="O30" s="80"/>
-      <c r="P30" s="81">
+      <c r="O30" s="81"/>
+      <c r="P30" s="82">
         <f t="shared" si="13"/>
         <v>2.776052138</v>
       </c>
-      <c r="Q30" s="81">
+      <c r="Q30" s="82">
         <f t="shared" si="14"/>
         <v>102.4372839</v>
       </c>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="84">
+      <c r="A33" s="85">
         <f t="shared" ref="A33:A38" si="20">I33*G33*H33^2</f>
         <v>419430400</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57">
         <f t="shared" ref="C33:C38" si="21">G33*H33^2*4</f>
         <v>16777216</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="58">
         <f t="shared" ref="D33:D38" si="22">(H33*G33*H33*2+H33+H33*(G33/64))*4/1024/1024/1024</f>
         <v>0.03125405312</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="58">
         <f t="shared" ref="E33:E38" si="23">(G33*H33*2 + G33 + G33/64)/4/1024/1024</f>
         <v>0.03149795532</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="85">
+      <c r="F33" s="57"/>
+      <c r="G33" s="86">
         <v>1024.0</v>
       </c>
-      <c r="H33" s="86">
+      <c r="H33" s="87">
         <v>64.0</v>
       </c>
-      <c r="I33" s="87">
+      <c r="I33" s="88">
         <v>100.0</v>
       </c>
-      <c r="J33" s="87"/>
-      <c r="K33" s="88">
+      <c r="J33" s="88"/>
+      <c r="K33" s="89">
         <v>5.85</v>
       </c>
-      <c r="L33" s="88">
+      <c r="L33" s="89">
         <v>3.14</v>
       </c>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88">
+      <c r="M33" s="89"/>
+      <c r="N33" s="89">
         <v>0.42</v>
       </c>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90">
+      <c r="O33" s="90"/>
+      <c r="P33" s="91">
         <f t="shared" ref="P33:P38" si="24">K33/L33</f>
         <v>1.863057325</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="Q33" s="91">
         <f t="shared" ref="Q33:Q38" si="25">K33/N33</f>
         <v>13.92857143</v>
       </c>
-      <c r="R33" s="86" t="s">
+      <c r="R33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="S33" s="91"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="93">
+      <c r="A34" s="94">
         <f t="shared" si="20"/>
         <v>1677721600</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46">
         <f t="shared" si="21"/>
         <v>67108864</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="47">
         <f t="shared" si="22"/>
         <v>0.1250081062</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="47">
         <f t="shared" si="23"/>
         <v>0.06274795532</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="61">
+      <c r="F34" s="46"/>
+      <c r="G34" s="62">
         <v>1024.0</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="56">
         <v>128.0</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="37">
         <v>100.0</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37">
+      <c r="J34" s="37"/>
+      <c r="K34" s="38">
         <v>23.19</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="38">
         <v>10.45</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37">
+      <c r="M34" s="38"/>
+      <c r="N34" s="38">
         <v>0.82</v>
       </c>
-      <c r="O34" s="94"/>
-      <c r="P34" s="38">
+      <c r="O34" s="95"/>
+      <c r="P34" s="39">
         <f t="shared" si="24"/>
         <v>2.219138756</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="39">
         <f t="shared" si="25"/>
         <v>28.2804878</v>
       </c>
-      <c r="T34" s="62"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="84">
+      <c r="A35" s="85">
         <f t="shared" si="20"/>
         <v>6710886400</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57">
         <f t="shared" si="21"/>
         <v>268435456</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="58">
         <f t="shared" si="22"/>
         <v>0.5000162125</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="58">
         <f t="shared" si="23"/>
         <v>0.1252479553</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="58">
+      <c r="F35" s="57"/>
+      <c r="G35" s="59">
         <v>1024.0</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="45">
         <v>256.0</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="42">
         <v>100.0</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42">
+      <c r="J35" s="42"/>
+      <c r="K35" s="43">
         <v>93.78</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="43">
         <v>40.43</v>
       </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42">
+      <c r="M35" s="43"/>
+      <c r="N35" s="43">
         <v>1.52</v>
       </c>
-      <c r="O35" s="95"/>
-      <c r="P35" s="43">
+      <c r="O35" s="96"/>
+      <c r="P35" s="44">
         <f t="shared" si="24"/>
         <v>2.31956468</v>
       </c>
-      <c r="Q35" s="43">
+      <c r="Q35" s="44">
         <f t="shared" si="25"/>
         <v>61.69736842</v>
       </c>
-      <c r="T35" s="60"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="93">
+      <c r="A36" s="94">
         <f t="shared" si="20"/>
         <v>26843545600</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46">
         <f t="shared" si="21"/>
         <v>1073741824</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="47">
         <f t="shared" si="22"/>
         <v>2.000032425</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="47">
         <f t="shared" si="23"/>
         <v>0.2502479553</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="61">
+      <c r="F36" s="46"/>
+      <c r="G36" s="62">
         <v>1024.0</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="56">
         <v>512.0</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="37">
         <v>100.0</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37">
+      <c r="J36" s="37"/>
+      <c r="K36" s="38">
         <v>373.05</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="38">
         <v>160.31</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37">
+      <c r="M36" s="38"/>
+      <c r="N36" s="38">
         <v>3.0</v>
       </c>
-      <c r="O36" s="94"/>
-      <c r="P36" s="38">
+      <c r="O36" s="95"/>
+      <c r="P36" s="39">
         <f t="shared" si="24"/>
         <v>2.327053833</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="39">
         <f t="shared" si="25"/>
         <v>124.35</v>
       </c>
-      <c r="T36" s="62"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="84">
+      <c r="A37" s="85">
         <f t="shared" si="20"/>
         <v>60397977600</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57">
         <f t="shared" si="21"/>
         <v>2415919104</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="58">
         <f t="shared" si="22"/>
         <v>4.500048637</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="58">
         <f t="shared" si="23"/>
         <v>0.3752479553</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="58">
+      <c r="F37" s="57"/>
+      <c r="G37" s="59">
         <v>1024.0</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="45">
         <f>H36+H35</f>
         <v>768</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="42">
         <v>100.0</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42">
+      <c r="J37" s="42"/>
+      <c r="K37" s="43">
         <v>836.35</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="43">
         <v>303.34</v>
       </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42">
+      <c r="M37" s="43"/>
+      <c r="N37" s="43">
         <v>9.17</v>
       </c>
-      <c r="O37" s="95"/>
-      <c r="P37" s="43">
+      <c r="O37" s="96"/>
+      <c r="P37" s="44">
         <f t="shared" si="24"/>
         <v>2.757137206</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="44">
         <f t="shared" si="25"/>
         <v>91.20501636</v>
       </c>
-      <c r="T37" s="60"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="93">
+      <c r="A38" s="94">
         <f t="shared" si="20"/>
         <v>107374182400</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46">
         <f t="shared" si="21"/>
         <v>4294967296</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="47">
         <f t="shared" si="22"/>
         <v>8.00006485</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="47">
         <f t="shared" si="23"/>
         <v>0.5002479553</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="76">
+      <c r="F38" s="46"/>
+      <c r="G38" s="77">
         <v>1024.0</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="78">
         <v>1024.0</v>
       </c>
-      <c r="I38" s="78">
+      <c r="I38" s="79">
         <v>100.0</v>
       </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79">
+      <c r="J38" s="79"/>
+      <c r="K38" s="80">
         <v>1627.06</v>
       </c>
-      <c r="L38" s="79">
+      <c r="L38" s="80">
         <v>594.16</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79">
+      <c r="M38" s="80"/>
+      <c r="N38" s="80">
         <v>15.84</v>
       </c>
-      <c r="O38" s="96"/>
-      <c r="P38" s="81">
+      <c r="O38" s="97"/>
+      <c r="P38" s="82">
         <f t="shared" si="24"/>
         <v>2.738420627</v>
       </c>
-      <c r="Q38" s="81">
+      <c r="Q38" s="82">
         <f t="shared" si="25"/>
         <v>102.7184343</v>
       </c>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22865,1384 +22868,1384 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="100" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="102" t="s">
+      <c r="K1" s="98"/>
+      <c r="L1" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="103">
+      <c r="A2" s="104">
         <f t="shared" ref="A2:A4" si="1">E2*C2*D2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106">
         <v>1024.0</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="106">
         <v>512.0</v>
       </c>
-      <c r="E2" s="105">
+      <c r="E2" s="106">
         <v>10.0</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107">
         <v>38.07</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="107">
         <v>16.05</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="107">
         <v>15.07</v>
       </c>
-      <c r="J2" s="106">
+      <c r="J2" s="107">
         <v>2.76</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="107">
+      <c r="K2" s="105"/>
+      <c r="L2" s="108">
         <f t="shared" ref="L2:L4" si="2">G2/H2</f>
         <v>2.371962617</v>
       </c>
-      <c r="M2" s="107">
+      <c r="M2" s="108">
         <f t="shared" ref="M2:M4" si="3">G2/J2</f>
         <v>13.79347826</v>
       </c>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="108">
+      <c r="A3" s="109">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111">
         <v>1024.0</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="111">
         <v>512.0</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="111">
         <v>50.0</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111">
+      <c r="F3" s="111"/>
+      <c r="G3" s="112">
         <v>185.74</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="112">
         <v>79.8</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="112">
         <v>75.0</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="112">
         <v>3.41</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="112">
+      <c r="K3" s="110"/>
+      <c r="L3" s="113">
         <f t="shared" si="2"/>
         <v>2.327568922</v>
       </c>
-      <c r="M3" s="112">
+      <c r="M3" s="113">
         <f t="shared" si="3"/>
         <v>54.46920821</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
     </row>
     <row r="4" hidden="1">
-      <c r="A4" s="103">
+      <c r="A4" s="104">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106">
         <v>1024.0</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="106">
         <v>512.0</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="106">
         <v>100.0</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107">
         <v>373.05</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="107">
         <v>160.31</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107">
         <v>4.5</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107">
+      <c r="K4" s="105"/>
+      <c r="L4" s="108">
         <f t="shared" si="2"/>
         <v>2.327053833</v>
       </c>
-      <c r="M4" s="107">
+      <c r="M4" s="108">
         <f t="shared" si="3"/>
         <v>82.9</v>
       </c>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
     </row>
     <row r="5">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6">
-      <c r="A6" s="103">
+      <c r="A6" s="104">
         <f t="shared" ref="A6:A11" si="4">E6*C6*D6^2</f>
         <v>10737418240</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="113">
+      <c r="B6" s="105"/>
+      <c r="C6" s="114">
         <v>1024.0</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="115">
         <v>1024.0</v>
       </c>
-      <c r="E6" s="114">
+      <c r="E6" s="115">
         <v>10.0</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115">
+      <c r="F6" s="115"/>
+      <c r="G6" s="116">
         <v>151.11</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="116">
         <v>61.21</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115">
+      <c r="I6" s="116"/>
+      <c r="J6" s="116">
         <v>22.07</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117">
+      <c r="K6" s="117"/>
+      <c r="L6" s="118">
         <f t="shared" ref="L6:L11" si="5">G6/H6</f>
         <v>2.468714262</v>
       </c>
-      <c r="M6" s="117">
+      <c r="M6" s="118">
         <f t="shared" ref="M6:M11" si="6">G6/J6</f>
         <v>6.846850929</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7">
-      <c r="A7" s="108">
+      <c r="A7" s="109">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="118">
+      <c r="B7" s="110"/>
+      <c r="C7" s="119">
         <v>1024.0</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="111">
         <v>1024.0</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="120">
         <v>25.0</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111">
+      <c r="F7" s="111"/>
+      <c r="G7" s="112">
         <v>384.0</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="112">
         <v>152.38</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111">
+      <c r="I7" s="112"/>
+      <c r="J7" s="112">
         <v>52.87</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="120">
+      <c r="K7" s="110"/>
+      <c r="L7" s="121">
         <f t="shared" si="5"/>
         <v>2.52001575</v>
       </c>
-      <c r="M7" s="120">
+      <c r="M7" s="121">
         <f t="shared" si="6"/>
         <v>7.263098165</v>
       </c>
-      <c r="P7" s="60"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8">
-      <c r="A8" s="103">
+      <c r="A8" s="104">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="121">
+      <c r="B8" s="105"/>
+      <c r="C8" s="122">
         <v>1024.0</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="106">
         <v>1024.0</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="106">
         <v>50.0</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106">
+      <c r="F8" s="106"/>
+      <c r="G8" s="107">
         <v>755.62</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="107">
         <v>306.56</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106">
+      <c r="I8" s="107"/>
+      <c r="J8" s="107">
         <v>80.64</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="107">
+      <c r="K8" s="105"/>
+      <c r="L8" s="108">
         <f t="shared" si="5"/>
         <v>2.464835595</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="108">
         <f t="shared" si="6"/>
         <v>9.370287698</v>
       </c>
-      <c r="P8" s="62"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9">
-      <c r="A9" s="108">
+      <c r="A9" s="109">
         <f t="shared" si="4"/>
         <v>107374182400</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="118">
+      <c r="B9" s="110"/>
+      <c r="C9" s="119">
         <v>1024.0</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="111">
         <v>1024.0</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="111">
         <v>100.0</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111">
+      <c r="F9" s="111"/>
+      <c r="G9" s="112">
         <v>1627.06</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="112">
         <v>594.16</v>
       </c>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111">
+      <c r="I9" s="112"/>
+      <c r="J9" s="112">
         <v>162.9</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="112">
+      <c r="K9" s="110"/>
+      <c r="L9" s="113">
         <f t="shared" si="5"/>
         <v>2.738420627</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="113">
         <f t="shared" si="6"/>
         <v>9.988090853</v>
       </c>
-      <c r="P9" s="60"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10">
-      <c r="A10" s="103">
+      <c r="A10" s="104">
         <f t="shared" si="4"/>
         <v>161061273600</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="121">
+      <c r="B10" s="105"/>
+      <c r="C10" s="122">
         <v>1024.0</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="106">
         <v>1024.0</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="123">
         <v>150.0</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106">
+      <c r="F10" s="106"/>
+      <c r="G10" s="107">
         <v>2283.96</v>
       </c>
-      <c r="H10" s="106">
+      <c r="H10" s="107">
         <v>849.39</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106">
+      <c r="I10" s="107"/>
+      <c r="J10" s="107">
         <v>234.31</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="107">
+      <c r="K10" s="105"/>
+      <c r="L10" s="108">
         <f t="shared" si="5"/>
         <v>2.688941476</v>
       </c>
-      <c r="M10" s="107">
+      <c r="M10" s="108">
         <f t="shared" si="6"/>
         <v>9.747599334</v>
       </c>
-      <c r="P10" s="62"/>
+      <c r="P10" s="63"/>
     </row>
     <row r="11">
-      <c r="A11" s="108">
+      <c r="A11" s="109">
         <f t="shared" si="4"/>
         <v>214748364800</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="123">
+      <c r="B11" s="110"/>
+      <c r="C11" s="124">
         <v>1024.0</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="125">
         <v>1024.0</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="126">
         <v>200.0</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="126">
+      <c r="F11" s="125"/>
+      <c r="G11" s="127">
         <v>3026.2</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="127">
         <v>1167.05</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126">
+      <c r="I11" s="127"/>
+      <c r="J11" s="127">
         <v>374.32</v>
       </c>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128">
+      <c r="K11" s="128"/>
+      <c r="L11" s="129">
         <f t="shared" si="5"/>
         <v>2.593033717</v>
       </c>
-      <c r="M11" s="128">
+      <c r="M11" s="129">
         <f t="shared" si="6"/>
         <v>8.084526608</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
     </row>
     <row r="12">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="103">
+      <c r="A14" s="104">
         <f t="shared" ref="A14:A23" si="7">E14*C14*D14^2</f>
         <v>209715200</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="131">
+      <c r="B14" s="105"/>
+      <c r="C14" s="132">
         <v>128.0</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="115">
         <v>128.0</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="115">
         <v>100.0</v>
       </c>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115">
+      <c r="F14" s="115"/>
+      <c r="G14" s="116">
         <v>3.02</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="116">
         <v>2.18</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115">
+      <c r="I14" s="116"/>
+      <c r="J14" s="116">
         <v>0.43</v>
       </c>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117">
+      <c r="K14" s="117"/>
+      <c r="L14" s="118">
         <f t="shared" ref="L14:L30" si="8">G14/H14</f>
         <v>1.385321101</v>
       </c>
-      <c r="M14" s="117">
+      <c r="M14" s="118">
         <f t="shared" ref="M14:M30" si="9">G14/J14</f>
         <v>7.023255814</v>
       </c>
-      <c r="N14" s="52" t="s">
+      <c r="N14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="108">
+      <c r="A15" s="109">
         <f t="shared" si="7"/>
         <v>419430400</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="132">
+      <c r="B15" s="110"/>
+      <c r="C15" s="133">
         <v>256.0</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="111">
         <v>128.0</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="111">
         <v>100.0</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111">
+      <c r="F15" s="111"/>
+      <c r="G15" s="112">
         <v>5.82</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="112">
         <v>3.47</v>
       </c>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111">
+      <c r="I15" s="112"/>
+      <c r="J15" s="112">
         <v>0.46</v>
       </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="112">
+      <c r="K15" s="110"/>
+      <c r="L15" s="113">
         <f t="shared" si="8"/>
         <v>1.677233429</v>
       </c>
-      <c r="M15" s="112">
+      <c r="M15" s="113">
         <f t="shared" si="9"/>
         <v>12.65217391</v>
       </c>
-      <c r="P15" s="60"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="103">
+      <c r="A16" s="104">
         <f t="shared" si="7"/>
         <v>838860800</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="133">
+      <c r="B16" s="105"/>
+      <c r="C16" s="134">
         <v>512.0</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="106">
         <v>128.0</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="106">
         <v>100.0</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106">
+      <c r="F16" s="106"/>
+      <c r="G16" s="107">
         <v>11.65</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="107">
         <v>5.8</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106">
+      <c r="I16" s="107"/>
+      <c r="J16" s="107">
         <v>0.5</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="107">
+      <c r="K16" s="105"/>
+      <c r="L16" s="108">
         <f t="shared" si="8"/>
         <v>2.00862069</v>
       </c>
-      <c r="M16" s="107">
+      <c r="M16" s="108">
         <f t="shared" si="9"/>
         <v>23.3</v>
       </c>
-      <c r="P16" s="62"/>
+      <c r="P16" s="63"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="108">
+      <c r="A17" s="109">
         <f t="shared" si="7"/>
         <v>1677721600</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="118">
+      <c r="B17" s="110"/>
+      <c r="C17" s="119">
         <v>1024.0</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="111">
         <v>128.0</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="111">
         <v>100.0</v>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111">
+      <c r="F17" s="111"/>
+      <c r="G17" s="112">
         <v>23.19</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="112">
         <v>10.45</v>
       </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111">
+      <c r="I17" s="112"/>
+      <c r="J17" s="112">
         <v>0.57</v>
       </c>
-      <c r="K17" s="109"/>
-      <c r="L17" s="112">
+      <c r="K17" s="110"/>
+      <c r="L17" s="113">
         <f t="shared" si="8"/>
         <v>2.219138756</v>
       </c>
-      <c r="M17" s="112">
+      <c r="M17" s="113">
         <f t="shared" si="9"/>
         <v>40.68421053</v>
       </c>
-      <c r="P17" s="60"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="103">
+      <c r="A18" s="104">
         <f t="shared" si="7"/>
         <v>3355443200</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="121">
+      <c r="B18" s="105"/>
+      <c r="C18" s="122">
         <v>2048.0</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="106">
         <v>128.0</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="106">
         <v>100.0</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106">
+      <c r="F18" s="106"/>
+      <c r="G18" s="107">
         <v>46.39</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="107">
         <v>19.79</v>
       </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106">
+      <c r="I18" s="107"/>
+      <c r="J18" s="107">
         <v>0.8</v>
       </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="107">
+      <c r="K18" s="105"/>
+      <c r="L18" s="108">
         <f t="shared" si="8"/>
         <v>2.344113188</v>
       </c>
-      <c r="M18" s="107">
+      <c r="M18" s="108">
         <f t="shared" si="9"/>
         <v>57.9875</v>
       </c>
-      <c r="P18" s="62"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="108">
+      <c r="A19" s="109">
         <f t="shared" si="7"/>
         <v>6710886400</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="118">
+      <c r="B19" s="110"/>
+      <c r="C19" s="119">
         <v>4096.0</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="111">
         <v>128.0</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="111">
         <v>100.0</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="111">
+      <c r="F19" s="111"/>
+      <c r="G19" s="112">
         <v>94.73</v>
       </c>
-      <c r="H19" s="111">
+      <c r="H19" s="112">
         <v>35.92</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111">
+      <c r="I19" s="112"/>
+      <c r="J19" s="112">
         <v>1.31</v>
       </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="112">
+      <c r="K19" s="110"/>
+      <c r="L19" s="113">
         <f t="shared" si="8"/>
         <v>2.637249443</v>
       </c>
-      <c r="M19" s="112">
+      <c r="M19" s="113">
         <f t="shared" si="9"/>
         <v>72.3129771</v>
       </c>
-      <c r="P19" s="60"/>
+      <c r="P19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="103">
+      <c r="A20" s="104">
         <f t="shared" si="7"/>
         <v>13421772800</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="121">
+      <c r="B20" s="105"/>
+      <c r="C20" s="122">
         <f t="shared" ref="C20:C22" si="10">C19*2</f>
         <v>8192</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="106">
         <v>128.0</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="106">
         <v>100.0</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106">
+      <c r="F20" s="106"/>
+      <c r="G20" s="107">
         <v>187.37</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>80.06</v>
       </c>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106">
+      <c r="I20" s="107"/>
+      <c r="J20" s="107">
         <v>2.54</v>
       </c>
-      <c r="K20" s="104"/>
-      <c r="L20" s="107">
+      <c r="K20" s="105"/>
+      <c r="L20" s="108">
         <f t="shared" si="8"/>
         <v>2.340369723</v>
       </c>
-      <c r="M20" s="107">
+      <c r="M20" s="108">
         <f t="shared" si="9"/>
         <v>73.76771654</v>
       </c>
-      <c r="P20" s="62"/>
+      <c r="P20" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="108">
+      <c r="A21" s="109">
         <f t="shared" si="7"/>
         <v>26843545600</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="118">
+      <c r="B21" s="110"/>
+      <c r="C21" s="119">
         <f t="shared" si="10"/>
         <v>16384</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D21" s="111">
         <v>128.0</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="111">
         <v>100.0</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="111">
+      <c r="F21" s="111"/>
+      <c r="G21" s="112">
         <v>376.53</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="112">
         <v>138.66</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111">
+      <c r="I21" s="112"/>
+      <c r="J21" s="112">
         <v>4.03</v>
       </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="112">
+      <c r="K21" s="110"/>
+      <c r="L21" s="113">
         <f t="shared" si="8"/>
         <v>2.715491129</v>
       </c>
-      <c r="M21" s="112">
+      <c r="M21" s="113">
         <f t="shared" si="9"/>
         <v>93.43176179</v>
       </c>
-      <c r="P21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="103">
+      <c r="A22" s="104">
         <f t="shared" si="7"/>
         <v>53687091200</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="121">
+      <c r="B22" s="105"/>
+      <c r="C22" s="122">
         <f t="shared" si="10"/>
         <v>32768</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="106">
         <v>128.0</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="106">
         <v>100.0</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106">
+      <c r="F22" s="106"/>
+      <c r="G22" s="107">
         <v>757.11</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="107">
         <v>297.66</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106">
+      <c r="I22" s="107"/>
+      <c r="J22" s="107">
         <v>6.45</v>
       </c>
-      <c r="K22" s="104"/>
-      <c r="L22" s="107">
+      <c r="K22" s="105"/>
+      <c r="L22" s="108">
         <f t="shared" si="8"/>
         <v>2.543539609</v>
       </c>
-      <c r="M22" s="107">
+      <c r="M22" s="108">
         <f t="shared" si="9"/>
         <v>117.3813953</v>
       </c>
-      <c r="P22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="108">
+      <c r="A23" s="109">
         <f t="shared" si="7"/>
         <v>60397977600</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="118">
+      <c r="B23" s="110"/>
+      <c r="C23" s="119">
         <f t="shared" ref="C23:C24" si="11">C22+$C$19</f>
         <v>36864</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="111">
         <v>128.0</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="111">
         <v>100.0</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111">
+      <c r="F23" s="111"/>
+      <c r="G23" s="112">
         <v>845.14</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="112">
         <v>347.02</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111">
+      <c r="I23" s="112"/>
+      <c r="J23" s="112">
         <v>6.79</v>
       </c>
-      <c r="K23" s="109"/>
-      <c r="L23" s="112">
+      <c r="K23" s="110"/>
+      <c r="L23" s="113">
         <f t="shared" si="8"/>
         <v>2.43542159</v>
       </c>
-      <c r="M23" s="112">
+      <c r="M23" s="113">
         <f t="shared" si="9"/>
         <v>124.4683358</v>
       </c>
-      <c r="P23" s="60"/>
+      <c r="P23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="103">
+      <c r="A24" s="104">
         <f t="shared" ref="A24:A26" si="12">$E$24*C24*$D$24^2</f>
         <v>67108864000</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="121">
+      <c r="B24" s="105"/>
+      <c r="C24" s="122">
         <f t="shared" si="11"/>
         <v>40960</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="106">
         <v>128.0</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="106">
         <v>100.0</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106">
+      <c r="F24" s="106"/>
+      <c r="G24" s="107">
         <v>931.95</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="107">
         <v>384.69</v>
       </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106">
+      <c r="I24" s="107"/>
+      <c r="J24" s="107">
         <v>7.82</v>
       </c>
-      <c r="K24" s="104"/>
-      <c r="L24" s="107">
+      <c r="K24" s="105"/>
+      <c r="L24" s="108">
         <f t="shared" si="8"/>
         <v>2.422600016</v>
       </c>
-      <c r="M24" s="107">
+      <c r="M24" s="108">
         <f t="shared" si="9"/>
         <v>119.1751918</v>
       </c>
-      <c r="P24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="108">
+      <c r="A25" s="109">
         <f t="shared" si="12"/>
         <v>68786585600</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="118">
+      <c r="B25" s="110"/>
+      <c r="C25" s="119">
         <f t="shared" ref="C25:C26" si="13">C24+C$17</f>
         <v>41984</v>
       </c>
-      <c r="D25" s="110">
+      <c r="D25" s="111">
         <v>128.0</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="111">
         <v>100.0</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111">
+      <c r="F25" s="111"/>
+      <c r="G25" s="112">
         <v>952.99</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="112">
         <v>394.29</v>
       </c>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111">
+      <c r="I25" s="112"/>
+      <c r="J25" s="112">
         <v>67.72</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="112">
+      <c r="K25" s="110"/>
+      <c r="L25" s="113">
         <f t="shared" si="8"/>
         <v>2.416977352</v>
       </c>
-      <c r="M25" s="112">
+      <c r="M25" s="113">
         <f t="shared" si="9"/>
         <v>14.07250443</v>
       </c>
-      <c r="P25" s="60"/>
+      <c r="P25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="103">
+      <c r="A26" s="104">
         <f t="shared" si="12"/>
         <v>70464307200</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="121">
+      <c r="B26" s="105"/>
+      <c r="C26" s="122">
         <f t="shared" si="13"/>
         <v>43008</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="106">
         <v>128.0</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="106">
         <v>100.0</v>
       </c>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106">
+      <c r="F26" s="106"/>
+      <c r="G26" s="107">
         <v>974.15</v>
       </c>
-      <c r="H26" s="106">
+      <c r="H26" s="107">
         <v>402.86</v>
       </c>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106">
+      <c r="I26" s="107"/>
+      <c r="J26" s="107">
         <v>70.32</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="107">
+      <c r="K26" s="105"/>
+      <c r="L26" s="108">
         <f t="shared" si="8"/>
         <v>2.418085687</v>
       </c>
-      <c r="M26" s="107">
+      <c r="M26" s="108">
         <f t="shared" si="9"/>
         <v>13.85310011</v>
       </c>
-      <c r="P26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="108">
+      <c r="A27" s="109">
         <f t="shared" ref="A27:A30" si="14">E27*C27*D27^2</f>
         <v>73819750400</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="118">
+      <c r="B27" s="110"/>
+      <c r="C27" s="119">
         <f>C24+$C$19</f>
         <v>45056</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="111">
         <v>128.0</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="111">
         <v>100.0</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="111">
+      <c r="F27" s="111"/>
+      <c r="G27" s="112">
         <v>1032.76</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="112">
         <v>443.0</v>
       </c>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111">
+      <c r="I27" s="112"/>
+      <c r="J27" s="112">
         <v>73.89</v>
       </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="112">
+      <c r="K27" s="110"/>
+      <c r="L27" s="113">
         <f t="shared" si="8"/>
         <v>2.331286682</v>
       </c>
-      <c r="M27" s="112">
+      <c r="M27" s="113">
         <f t="shared" si="9"/>
         <v>13.97699283</v>
       </c>
-      <c r="P27" s="60"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="103">
+      <c r="A28" s="104">
         <f t="shared" si="14"/>
         <v>80530636800</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="121">
+      <c r="B28" s="105"/>
+      <c r="C28" s="122">
         <f>C22+$C$21</f>
         <v>49152</v>
       </c>
-      <c r="D28" s="105">
+      <c r="D28" s="106">
         <v>128.0</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E28" s="106">
         <v>100.0</v>
       </c>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106">
+      <c r="F28" s="106"/>
+      <c r="G28" s="107">
         <v>1129.36</v>
       </c>
-      <c r="H28" s="106">
+      <c r="H28" s="107">
         <v>457.69</v>
       </c>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106">
+      <c r="I28" s="107"/>
+      <c r="J28" s="107">
         <v>77.8</v>
       </c>
-      <c r="K28" s="104"/>
-      <c r="L28" s="107">
+      <c r="K28" s="105"/>
+      <c r="L28" s="108">
         <f t="shared" si="8"/>
         <v>2.467521685</v>
       </c>
-      <c r="M28" s="107">
+      <c r="M28" s="108">
         <f t="shared" si="9"/>
         <v>14.51619537</v>
       </c>
-      <c r="P28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="108">
+      <c r="A29" s="109">
         <f t="shared" si="14"/>
         <v>107374182400</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="118">
+      <c r="B29" s="110"/>
+      <c r="C29" s="119">
         <f>C28+$C$21</f>
         <v>65536</v>
       </c>
-      <c r="D29" s="110">
+      <c r="D29" s="111">
         <v>128.0</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="111">
         <v>100.0</v>
       </c>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111">
+      <c r="F29" s="111"/>
+      <c r="G29" s="112">
         <v>1500.12</v>
       </c>
-      <c r="H29" s="111">
+      <c r="H29" s="112">
         <v>571.52</v>
       </c>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111">
+      <c r="I29" s="112"/>
+      <c r="J29" s="112">
         <v>107.11</v>
       </c>
-      <c r="K29" s="109"/>
-      <c r="L29" s="112">
+      <c r="K29" s="110"/>
+      <c r="L29" s="113">
         <f t="shared" si="8"/>
         <v>2.624790034</v>
       </c>
-      <c r="M29" s="112">
+      <c r="M29" s="113">
         <f t="shared" si="9"/>
         <v>14.00541499</v>
       </c>
-      <c r="P29" s="60"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="103">
+      <c r="A30" s="104">
         <f t="shared" si="14"/>
         <v>214748364800</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="134">
+      <c r="B30" s="105"/>
+      <c r="C30" s="135">
         <f>C29*2</f>
         <v>131072</v>
       </c>
-      <c r="D30" s="135">
+      <c r="D30" s="136">
         <v>128.0</v>
       </c>
-      <c r="E30" s="136">
+      <c r="E30" s="137">
         <v>100.0</v>
       </c>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137">
+      <c r="F30" s="137"/>
+      <c r="G30" s="138">
         <v>3258.53</v>
       </c>
-      <c r="H30" s="137">
+      <c r="H30" s="138">
         <v>1173.8</v>
       </c>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137">
+      <c r="I30" s="138"/>
+      <c r="J30" s="138">
         <v>214.13</v>
       </c>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139">
+      <c r="K30" s="139"/>
+      <c r="L30" s="140">
         <f t="shared" si="8"/>
         <v>2.776052138</v>
       </c>
-      <c r="M30" s="139">
+      <c r="M30" s="140">
         <f t="shared" si="9"/>
         <v>15.21753141</v>
       </c>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="108"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="140">
+      <c r="A33" s="141">
         <f t="shared" ref="A33:A39" si="15">E33*C33*D33^2</f>
         <v>419430400</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143">
         <v>1024.0</v>
       </c>
-      <c r="D33" s="143">
+      <c r="D33" s="144">
         <v>64.0</v>
       </c>
-      <c r="E33" s="144">
+      <c r="E33" s="145">
         <v>100.0</v>
       </c>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145">
+      <c r="F33" s="145"/>
+      <c r="G33" s="146">
         <v>5.85</v>
       </c>
-      <c r="H33" s="145">
+      <c r="H33" s="146">
         <v>3.14</v>
       </c>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145">
+      <c r="I33" s="146"/>
+      <c r="J33" s="146">
         <v>0.42</v>
       </c>
-      <c r="K33" s="146"/>
-      <c r="L33" s="147">
+      <c r="K33" s="147"/>
+      <c r="L33" s="148">
         <f t="shared" ref="L33:L39" si="16">G33/H33</f>
         <v>1.863057325</v>
       </c>
-      <c r="M33" s="147">
+      <c r="M33" s="148">
         <f t="shared" ref="M33:M39" si="17">G33/J33</f>
         <v>13.92857143</v>
       </c>
-      <c r="N33" s="86" t="s">
+      <c r="N33" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="148">
+      <c r="A34" s="149">
         <f t="shared" si="15"/>
         <v>1677721600</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="121">
+      <c r="B34" s="150"/>
+      <c r="C34" s="122">
         <v>1024.0</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="123">
         <v>128.0</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="106">
         <v>100.0</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106">
+      <c r="F34" s="106"/>
+      <c r="G34" s="107">
         <v>23.19</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="107">
         <v>10.45</v>
       </c>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106">
+      <c r="I34" s="107"/>
+      <c r="J34" s="107">
         <v>0.82</v>
       </c>
-      <c r="K34" s="149"/>
-      <c r="L34" s="107">
+      <c r="K34" s="150"/>
+      <c r="L34" s="108">
         <f t="shared" si="16"/>
         <v>2.219138756</v>
       </c>
-      <c r="M34" s="107">
+      <c r="M34" s="108">
         <f t="shared" si="17"/>
         <v>28.2804878</v>
       </c>
-      <c r="P34" s="62"/>
+      <c r="P34" s="63"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="140">
+      <c r="A35" s="141">
         <f t="shared" si="15"/>
         <v>6710886400</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="118">
+      <c r="B35" s="142"/>
+      <c r="C35" s="119">
         <v>1024.0</v>
       </c>
-      <c r="D35" s="119">
+      <c r="D35" s="120">
         <v>256.0</v>
       </c>
-      <c r="E35" s="110">
+      <c r="E35" s="111">
         <v>100.0</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111">
+      <c r="F35" s="111"/>
+      <c r="G35" s="112">
         <v>93.78</v>
       </c>
-      <c r="H35" s="111">
+      <c r="H35" s="112">
         <v>40.43</v>
       </c>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111">
+      <c r="I35" s="112"/>
+      <c r="J35" s="112">
         <v>1.52</v>
       </c>
-      <c r="K35" s="141"/>
-      <c r="L35" s="112">
+      <c r="K35" s="142"/>
+      <c r="L35" s="113">
         <f t="shared" si="16"/>
         <v>2.31956468</v>
       </c>
-      <c r="M35" s="112">
+      <c r="M35" s="113">
         <f t="shared" si="17"/>
         <v>61.69736842</v>
       </c>
-      <c r="P35" s="60"/>
+      <c r="P35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="148">
+      <c r="A36" s="149">
         <f t="shared" si="15"/>
         <v>26843545600</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="121">
+      <c r="B36" s="150"/>
+      <c r="C36" s="122">
         <v>1024.0</v>
       </c>
-      <c r="D36" s="122">
+      <c r="D36" s="123">
         <v>512.0</v>
       </c>
-      <c r="E36" s="105">
+      <c r="E36" s="106">
         <v>100.0</v>
       </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106">
+      <c r="F36" s="106"/>
+      <c r="G36" s="107">
         <v>373.05</v>
       </c>
-      <c r="H36" s="106">
+      <c r="H36" s="107">
         <v>160.31</v>
       </c>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106">
+      <c r="I36" s="107"/>
+      <c r="J36" s="107">
         <v>5.26</v>
       </c>
-      <c r="K36" s="149"/>
-      <c r="L36" s="107">
+      <c r="K36" s="150"/>
+      <c r="L36" s="108">
         <f t="shared" si="16"/>
         <v>2.327053833</v>
       </c>
-      <c r="M36" s="107">
+      <c r="M36" s="108">
         <f t="shared" si="17"/>
         <v>70.92205323</v>
       </c>
-      <c r="P36" s="62"/>
+      <c r="P36" s="63"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="140">
+      <c r="A37" s="141">
         <f t="shared" si="15"/>
         <v>107374182400</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="118">
+      <c r="B37" s="142"/>
+      <c r="C37" s="119">
         <v>1024.0</v>
       </c>
-      <c r="D37" s="119">
+      <c r="D37" s="120">
         <v>1024.0</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="111">
         <v>100.0</v>
       </c>
-      <c r="F37" s="110"/>
-      <c r="G37" s="111">
+      <c r="F37" s="111"/>
+      <c r="G37" s="112">
         <v>1627.06</v>
       </c>
-      <c r="H37" s="111">
+      <c r="H37" s="112">
         <v>594.16</v>
       </c>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111">
+      <c r="I37" s="112"/>
+      <c r="J37" s="112">
         <v>162.9</v>
       </c>
-      <c r="K37" s="141"/>
-      <c r="L37" s="112">
+      <c r="K37" s="142"/>
+      <c r="L37" s="113">
         <f t="shared" si="16"/>
         <v>2.738420627</v>
       </c>
-      <c r="M37" s="112">
+      <c r="M37" s="113">
         <f t="shared" si="17"/>
         <v>9.988090853</v>
       </c>
-      <c r="P37" s="60"/>
+      <c r="P37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="148">
+      <c r="A38" s="149">
         <f t="shared" si="15"/>
         <v>429496729600</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="121">
+      <c r="B38" s="150"/>
+      <c r="C38" s="122">
         <v>1024.0</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="123">
         <v>2048.0</v>
       </c>
-      <c r="E38" s="105">
+      <c r="E38" s="106">
         <v>100.0</v>
       </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106" t="s">
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106" t="s">
+      <c r="I38" s="107"/>
+      <c r="J38" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="149"/>
-      <c r="L38" s="107" t="str">
+      <c r="K38" s="150"/>
+      <c r="L38" s="108" t="str">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="107" t="str">
+      <c r="M38" s="108" t="str">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="62"/>
+      <c r="P38" s="63"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="140">
+      <c r="A39" s="141">
         <f t="shared" si="15"/>
         <v>1717986918400</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="150">
+      <c r="B39" s="142"/>
+      <c r="C39" s="151">
         <v>1024.0</v>
       </c>
-      <c r="D39" s="151">
+      <c r="D39" s="152">
         <v>4096.0</v>
       </c>
-      <c r="E39" s="152">
+      <c r="E39" s="153">
         <v>100.0</v>
       </c>
-      <c r="F39" s="152"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="128" t="str">
+      <c r="F39" s="153"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="129" t="str">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="128" t="str">
+      <c r="M39" s="129" t="str">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24282,2653 +24285,2653 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157" t="s">
+      <c r="B1" s="157"/>
+      <c r="C1" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="159" t="s">
+      <c r="G1" s="158"/>
+      <c r="H1" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="160" t="s">
+      <c r="I1" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="159" t="s">
+      <c r="K1" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="159" t="s">
+      <c r="L1" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
     </row>
     <row r="2">
-      <c r="A2" s="161">
+      <c r="A2" s="162">
         <f t="shared" ref="A2:A7" si="1">E2*C2*D2^2</f>
         <v>2684354560</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="163">
+      <c r="B2" s="163"/>
+      <c r="C2" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D2" s="163">
+      <c r="D2" s="164">
         <v>512.0</v>
       </c>
-      <c r="E2" s="163">
+      <c r="E2" s="164">
         <v>10.0</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164">
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165">
         <v>38.07</v>
       </c>
-      <c r="I2" s="164">
+      <c r="I2" s="165">
         <v>16.05</v>
       </c>
-      <c r="J2" s="164">
+      <c r="J2" s="165">
         <v>15.07</v>
       </c>
-      <c r="K2" s="164">
+      <c r="K2" s="165">
         <v>2.76</v>
       </c>
-      <c r="L2" s="164" t="s">
+      <c r="L2" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
     </row>
     <row r="3">
-      <c r="A3" s="161">
+      <c r="A3" s="162">
         <f t="shared" si="1"/>
         <v>13421772800</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163">
+      <c r="B3" s="163"/>
+      <c r="C3" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D3" s="163">
+      <c r="D3" s="164">
         <v>512.0</v>
       </c>
-      <c r="E3" s="163">
+      <c r="E3" s="164">
         <v>50.0</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164">
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165">
         <v>185.74</v>
       </c>
-      <c r="I3" s="164">
+      <c r="I3" s="165">
         <v>79.8</v>
       </c>
-      <c r="J3" s="164">
+      <c r="J3" s="165">
         <v>75.0</v>
       </c>
-      <c r="K3" s="164">
+      <c r="K3" s="165">
         <v>3.41</v>
       </c>
-      <c r="L3" s="164" t="s">
+      <c r="L3" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
     </row>
     <row r="4">
-      <c r="A4" s="161">
+      <c r="A4" s="162">
         <f t="shared" si="1"/>
         <v>26843545600</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D4" s="163">
+      <c r="D4" s="164">
         <v>512.0</v>
       </c>
-      <c r="E4" s="163">
+      <c r="E4" s="164">
         <v>100.0</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164">
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165">
         <v>373.05</v>
       </c>
-      <c r="I4" s="164">
+      <c r="I4" s="165">
         <v>160.31</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164">
+      <c r="J4" s="165"/>
+      <c r="K4" s="165">
         <v>4.5</v>
       </c>
-      <c r="L4" s="164" t="s">
+      <c r="L4" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
     </row>
     <row r="5">
-      <c r="A5" s="161">
+      <c r="A5" s="162">
         <f t="shared" si="1"/>
         <v>10737418240</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163">
+      <c r="B5" s="163"/>
+      <c r="C5" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D5" s="163">
+      <c r="D5" s="164">
         <v>1024.0</v>
       </c>
-      <c r="E5" s="163">
+      <c r="E5" s="164">
         <v>10.0</v>
       </c>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="164">
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="165">
         <v>151.11</v>
       </c>
-      <c r="I5" s="164">
+      <c r="I5" s="165">
         <v>61.21</v>
       </c>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164">
+      <c r="J5" s="165"/>
+      <c r="K5" s="165">
         <v>9.29</v>
       </c>
-      <c r="L5" s="164" t="s">
+      <c r="L5" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
     </row>
     <row r="6">
-      <c r="A6" s="161">
+      <c r="A6" s="162">
         <f t="shared" si="1"/>
         <v>53687091200</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163">
+      <c r="B6" s="163"/>
+      <c r="C6" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D6" s="163">
+      <c r="D6" s="164">
         <v>1024.0</v>
       </c>
-      <c r="E6" s="163">
+      <c r="E6" s="164">
         <v>50.0</v>
       </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164">
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165">
         <v>755.62</v>
       </c>
-      <c r="I6" s="164">
+      <c r="I6" s="165">
         <v>306.56</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164">
+      <c r="J6" s="165"/>
+      <c r="K6" s="165">
         <v>12.48</v>
       </c>
-      <c r="L6" s="164" t="s">
+      <c r="L6" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
     </row>
     <row r="7">
-      <c r="A7" s="161">
+      <c r="A7" s="162">
         <f t="shared" si="1"/>
         <v>107374182400</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163">
+      <c r="B7" s="163"/>
+      <c r="C7" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D7" s="163">
+      <c r="D7" s="164">
         <v>1024.0</v>
       </c>
-      <c r="E7" s="163">
+      <c r="E7" s="164">
         <v>100.0</v>
       </c>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164">
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165">
         <v>1627.06</v>
       </c>
-      <c r="I7" s="164">
+      <c r="I7" s="165">
         <v>594.16</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164">
+      <c r="J7" s="165"/>
+      <c r="K7" s="165">
         <v>16.84</v>
       </c>
-      <c r="L7" s="164" t="s">
+      <c r="L7" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
     </row>
     <row r="8">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
     </row>
     <row r="9">
-      <c r="A9" s="161">
+      <c r="A9" s="162">
         <f t="shared" ref="A9:A17" si="2">E9*C9*D9^2</f>
         <v>41943040</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163">
+      <c r="B9" s="163"/>
+      <c r="C9" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D9" s="163">
+      <c r="D9" s="164">
         <v>64.0</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="164">
         <v>10.0</v>
       </c>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="164">
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165">
         <v>0.58</v>
       </c>
-      <c r="I9" s="164">
+      <c r="I9" s="165">
         <v>0.4</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="165">
         <v>0.59</v>
       </c>
-      <c r="K9" s="164">
+      <c r="K9" s="165">
         <v>0.31</v>
       </c>
-      <c r="L9" s="164">
+      <c r="L9" s="165">
         <v>0.56</v>
       </c>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="161">
+      <c r="A10" s="162">
         <f t="shared" si="2"/>
         <v>83886080</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="163">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D10" s="163">
+      <c r="D10" s="164">
         <v>64.0</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="164">
         <v>10.0</v>
       </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="164">
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165">
         <v>1.17</v>
       </c>
-      <c r="I10" s="164">
+      <c r="I10" s="165">
         <v>0.61</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="165">
         <v>0.75</v>
       </c>
-      <c r="K10" s="164">
+      <c r="K10" s="165">
         <v>0.29</v>
       </c>
-      <c r="L10" s="164">
+      <c r="L10" s="165">
         <v>0.99</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="161">
+      <c r="A11" s="162">
         <f t="shared" si="2"/>
         <v>167772160</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163">
+      <c r="B11" s="163"/>
+      <c r="C11" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D11" s="163">
+      <c r="D11" s="164">
         <v>64.0</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="164">
         <v>10.0</v>
       </c>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="164">
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165">
         <v>2.34</v>
       </c>
-      <c r="I11" s="164">
+      <c r="I11" s="165">
         <v>1.02</v>
       </c>
-      <c r="J11" s="164">
+      <c r="J11" s="165">
         <v>1.22</v>
       </c>
-      <c r="K11" s="164">
+      <c r="K11" s="165">
         <v>0.39</v>
       </c>
-      <c r="L11" s="164">
+      <c r="L11" s="165">
         <v>1.88</v>
       </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="161">
+      <c r="A12" s="162">
         <f t="shared" si="2"/>
         <v>335544320</v>
       </c>
-      <c r="B12" s="162"/>
-      <c r="C12" s="163">
+      <c r="B12" s="163"/>
+      <c r="C12" s="164">
         <f t="shared" ref="C12:C17" si="3">C11*2</f>
         <v>8192</v>
       </c>
-      <c r="D12" s="163">
+      <c r="D12" s="164">
         <v>64.0</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="164">
         <v>10.0</v>
       </c>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="164">
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165">
         <v>4.9</v>
       </c>
-      <c r="I12" s="164">
+      <c r="I12" s="165">
         <v>1.83</v>
       </c>
-      <c r="J12" s="164">
+      <c r="J12" s="165">
         <v>2.28</v>
       </c>
-      <c r="K12" s="164">
+      <c r="K12" s="165">
         <v>0.59</v>
       </c>
-      <c r="L12" s="164">
+      <c r="L12" s="165">
         <v>3.91</v>
       </c>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="161">
+      <c r="A13" s="162">
         <f t="shared" si="2"/>
         <v>671088640</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163">
+      <c r="B13" s="163"/>
+      <c r="C13" s="164">
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
-      <c r="D13" s="163">
+      <c r="D13" s="164">
         <v>64.0</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="164">
         <v>10.0</v>
       </c>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="164">
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165">
         <v>9.47</v>
       </c>
-      <c r="I13" s="164">
+      <c r="I13" s="165">
         <v>3.55</v>
       </c>
-      <c r="J13" s="164">
+      <c r="J13" s="165">
         <v>3.81</v>
       </c>
-      <c r="K13" s="164">
+      <c r="K13" s="165">
         <v>0.74</v>
       </c>
-      <c r="L13" s="164">
+      <c r="L13" s="165">
         <v>7.87</v>
       </c>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="161">
+      <c r="A14" s="162">
         <f t="shared" si="2"/>
         <v>1342177280</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163">
+      <c r="B14" s="163"/>
+      <c r="C14" s="164">
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="D14" s="163">
+      <c r="D14" s="164">
         <v>64.0</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="164">
         <v>10.0</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="164">
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165">
         <v>19.1</v>
       </c>
-      <c r="I14" s="164">
+      <c r="I14" s="165">
         <v>6.91</v>
       </c>
-      <c r="J14" s="164">
+      <c r="J14" s="165">
         <v>7.38</v>
       </c>
-      <c r="K14" s="164">
+      <c r="K14" s="165">
         <v>1.27</v>
       </c>
-      <c r="L14" s="164">
+      <c r="L14" s="165">
         <v>14.69</v>
       </c>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="161">
+      <c r="A15" s="162">
         <f t="shared" si="2"/>
         <v>2684354560</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163">
+      <c r="B15" s="163"/>
+      <c r="C15" s="164">
         <f t="shared" si="3"/>
         <v>65536</v>
       </c>
-      <c r="D15" s="163">
+      <c r="D15" s="164">
         <v>64.0</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="164">
         <v>10.0</v>
       </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="164">
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165">
         <v>38.05</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="165">
         <v>14.01</v>
       </c>
-      <c r="J15" s="164">
+      <c r="J15" s="165">
         <v>15.3</v>
       </c>
-      <c r="K15" s="164">
+      <c r="K15" s="165">
         <v>2.42</v>
       </c>
-      <c r="L15" s="164">
+      <c r="L15" s="165">
         <v>27.0</v>
       </c>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="161">
+      <c r="A16" s="162">
         <f t="shared" si="2"/>
         <v>5368709120</v>
       </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163">
+      <c r="B16" s="163"/>
+      <c r="C16" s="164">
         <f t="shared" si="3"/>
         <v>131072</v>
       </c>
-      <c r="D16" s="163">
+      <c r="D16" s="164">
         <v>64.0</v>
       </c>
-      <c r="E16" s="163">
+      <c r="E16" s="164">
         <v>10.0</v>
       </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="164">
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165">
         <v>75.75</v>
       </c>
-      <c r="I16" s="164">
+      <c r="I16" s="165">
         <v>28.04</v>
       </c>
-      <c r="J16" s="164">
+      <c r="J16" s="165">
         <v>31.02</v>
       </c>
-      <c r="K16" s="164">
+      <c r="K16" s="165">
         <v>4.81</v>
       </c>
-      <c r="L16" s="164" t="s">
+      <c r="L16" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="161">
+      <c r="A17" s="162">
         <f t="shared" si="2"/>
         <v>10737418240</v>
       </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163">
+      <c r="B17" s="163"/>
+      <c r="C17" s="164">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="164">
         <v>64.0</v>
       </c>
-      <c r="E17" s="163">
+      <c r="E17" s="164">
         <v>10.0</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="164">
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165">
         <v>151.43</v>
       </c>
-      <c r="I17" s="164">
+      <c r="I17" s="165">
         <v>56.82</v>
       </c>
-      <c r="J17" s="164" t="s">
+      <c r="J17" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="164">
+      <c r="K17" s="165">
         <v>8.55</v>
       </c>
-      <c r="L17" s="164" t="s">
+      <c r="L17" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="161">
+      <c r="A19" s="162">
         <f t="shared" ref="A19:A27" si="4">E19*C19*D19^2</f>
         <v>209715200</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163">
+      <c r="B19" s="163"/>
+      <c r="C19" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D19" s="163">
+      <c r="D19" s="164">
         <v>64.0</v>
       </c>
-      <c r="E19" s="163">
+      <c r="E19" s="164">
         <v>50.0</v>
       </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="161">
+      <c r="A20" s="162">
         <f t="shared" si="4"/>
         <v>419430400</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163">
+      <c r="B20" s="163"/>
+      <c r="C20" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D20" s="163">
+      <c r="D20" s="164">
         <v>64.0</v>
       </c>
-      <c r="E20" s="163">
+      <c r="E20" s="164">
         <v>50.0</v>
       </c>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="161">
+      <c r="A21" s="162">
         <f t="shared" si="4"/>
         <v>838860800</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163">
+      <c r="B21" s="163"/>
+      <c r="C21" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D21" s="163">
+      <c r="D21" s="164">
         <v>64.0</v>
       </c>
-      <c r="E21" s="163">
+      <c r="E21" s="164">
         <v>50.0</v>
       </c>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="161">
+      <c r="A22" s="162">
         <f t="shared" si="4"/>
         <v>1677721600</v>
       </c>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163">
+      <c r="B22" s="163"/>
+      <c r="C22" s="164">
         <f t="shared" ref="C22:C27" si="5">C21*2</f>
         <v>8192</v>
       </c>
-      <c r="D22" s="163">
+      <c r="D22" s="164">
         <v>64.0</v>
       </c>
-      <c r="E22" s="163">
+      <c r="E22" s="164">
         <v>50.0</v>
       </c>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="161">
+      <c r="A23" s="162">
         <f t="shared" si="4"/>
         <v>3355443200</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163">
+      <c r="B23" s="163"/>
+      <c r="C23" s="164">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="D23" s="163">
+      <c r="D23" s="164">
         <v>64.0</v>
       </c>
-      <c r="E23" s="163">
+      <c r="E23" s="164">
         <v>50.0</v>
       </c>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="161">
+      <c r="A24" s="162">
         <f t="shared" si="4"/>
         <v>6710886400</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163">
+      <c r="B24" s="163"/>
+      <c r="C24" s="164">
         <f t="shared" si="5"/>
         <v>32768</v>
       </c>
-      <c r="D24" s="163">
+      <c r="D24" s="164">
         <v>64.0</v>
       </c>
-      <c r="E24" s="163">
+      <c r="E24" s="164">
         <v>50.0</v>
       </c>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="161">
+      <c r="A25" s="162">
         <f t="shared" si="4"/>
         <v>13421772800</v>
       </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163">
+      <c r="B25" s="163"/>
+      <c r="C25" s="164">
         <f t="shared" si="5"/>
         <v>65536</v>
       </c>
-      <c r="D25" s="163">
+      <c r="D25" s="164">
         <v>64.0</v>
       </c>
-      <c r="E25" s="163">
+      <c r="E25" s="164">
         <v>50.0</v>
       </c>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="162">
         <f t="shared" si="4"/>
         <v>26843545600</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163">
+      <c r="B26" s="163"/>
+      <c r="C26" s="164">
         <f t="shared" si="5"/>
         <v>131072</v>
       </c>
-      <c r="D26" s="163">
+      <c r="D26" s="164">
         <v>64.0</v>
       </c>
-      <c r="E26" s="163">
+      <c r="E26" s="164">
         <v>50.0</v>
       </c>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="164" t="s">
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="161">
+      <c r="A27" s="162">
         <f t="shared" si="4"/>
         <v>53687091200</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163">
+      <c r="B27" s="163"/>
+      <c r="C27" s="164">
         <f t="shared" si="5"/>
         <v>262144</v>
       </c>
-      <c r="D27" s="163">
+      <c r="D27" s="164">
         <v>64.0</v>
       </c>
-      <c r="E27" s="163">
+      <c r="E27" s="164">
         <v>50.0</v>
       </c>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="164" t="s">
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="161">
+      <c r="A29" s="162">
         <f t="shared" ref="A29:A37" si="6">E29*C29*D29^2</f>
         <v>419430400</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163">
+      <c r="B29" s="163"/>
+      <c r="C29" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D29" s="163">
+      <c r="D29" s="164">
         <v>64.0</v>
       </c>
-      <c r="E29" s="163">
+      <c r="E29" s="164">
         <v>100.0</v>
       </c>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="164">
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="165">
         <v>5.85</v>
       </c>
-      <c r="I29" s="164">
+      <c r="I29" s="165">
         <v>3.14</v>
       </c>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164">
+      <c r="J29" s="165"/>
+      <c r="K29" s="165">
         <v>0.42</v>
       </c>
-      <c r="L29" s="165"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="161">
+      <c r="A30" s="162">
         <f t="shared" si="6"/>
         <v>838860800</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163">
+      <c r="B30" s="163"/>
+      <c r="C30" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D30" s="163">
+      <c r="D30" s="164">
         <v>64.0</v>
       </c>
-      <c r="E30" s="163">
+      <c r="E30" s="164">
         <v>100.0</v>
       </c>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="164">
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="165">
         <v>11.73</v>
       </c>
-      <c r="I30" s="164">
+      <c r="I30" s="165">
         <v>5.23</v>
       </c>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164">
+      <c r="J30" s="165"/>
+      <c r="K30" s="165">
         <v>0.35</v>
       </c>
-      <c r="L30" s="165"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="161">
+      <c r="A31" s="162">
         <f t="shared" si="6"/>
         <v>1677721600</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163">
+      <c r="B31" s="163"/>
+      <c r="C31" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D31" s="163">
+      <c r="D31" s="164">
         <v>64.0</v>
       </c>
-      <c r="E31" s="163">
+      <c r="E31" s="164">
         <v>100.0</v>
       </c>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="164">
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="165">
         <v>23.41</v>
       </c>
-      <c r="I31" s="164">
+      <c r="I31" s="165">
         <v>9.75</v>
       </c>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164">
+      <c r="J31" s="165"/>
+      <c r="K31" s="165">
         <v>0.48</v>
       </c>
-      <c r="L31" s="165"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="161">
+      <c r="A32" s="162">
         <f t="shared" si="6"/>
         <v>3355443200</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="163">
+      <c r="B32" s="163"/>
+      <c r="C32" s="164">
         <f t="shared" ref="C32:C37" si="7">C31*2</f>
         <v>8192</v>
       </c>
-      <c r="D32" s="163">
+      <c r="D32" s="164">
         <v>64.0</v>
       </c>
-      <c r="E32" s="163">
+      <c r="E32" s="164">
         <v>100.0</v>
       </c>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="164">
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="165">
         <v>46.98</v>
       </c>
-      <c r="I32" s="164">
+      <c r="I32" s="165">
         <v>17.9</v>
       </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164">
+      <c r="J32" s="165"/>
+      <c r="K32" s="165">
         <v>0.68</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="161">
+      <c r="A33" s="162">
         <f t="shared" si="6"/>
         <v>6710886400</v>
       </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="163">
+      <c r="B33" s="163"/>
+      <c r="C33" s="164">
         <f t="shared" si="7"/>
         <v>16384</v>
       </c>
-      <c r="D33" s="163">
+      <c r="D33" s="164">
         <v>64.0</v>
       </c>
-      <c r="E33" s="163">
+      <c r="E33" s="164">
         <v>100.0</v>
       </c>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="164">
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="165">
         <v>94.37</v>
       </c>
-      <c r="I33" s="164">
+      <c r="I33" s="165">
         <v>34.96</v>
       </c>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164">
+      <c r="J33" s="165"/>
+      <c r="K33" s="165">
         <v>1.03</v>
       </c>
-      <c r="L33" s="165"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="161">
+      <c r="A34" s="162">
         <f t="shared" si="6"/>
         <v>13421772800</v>
       </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="163">
+      <c r="B34" s="163"/>
+      <c r="C34" s="164">
         <f t="shared" si="7"/>
         <v>32768</v>
       </c>
-      <c r="D34" s="163">
+      <c r="D34" s="164">
         <v>64.0</v>
       </c>
-      <c r="E34" s="163">
+      <c r="E34" s="164">
         <v>100.0</v>
       </c>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="164">
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="165">
         <v>189.68</v>
       </c>
-      <c r="I34" s="164">
+      <c r="I34" s="165">
         <v>68.15</v>
       </c>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164">
+      <c r="J34" s="165"/>
+      <c r="K34" s="165">
         <v>1.88</v>
       </c>
-      <c r="L34" s="165"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="161">
+      <c r="A35" s="162">
         <f t="shared" si="6"/>
         <v>26843545600</v>
       </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="163">
+      <c r="B35" s="163"/>
+      <c r="C35" s="164">
         <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="D35" s="163">
+      <c r="D35" s="164">
         <v>64.0</v>
       </c>
-      <c r="E35" s="163">
+      <c r="E35" s="164">
         <v>100.0</v>
       </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="164">
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="165">
         <v>386.17</v>
       </c>
-      <c r="I35" s="164">
+      <c r="I35" s="165">
         <v>138.05</v>
       </c>
-      <c r="J35" s="165"/>
-      <c r="K35" s="164">
+      <c r="J35" s="166"/>
+      <c r="K35" s="165">
         <v>3.56</v>
       </c>
-      <c r="L35" s="165"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="161">
+      <c r="A36" s="162">
         <f t="shared" si="6"/>
         <v>53687091200</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="163">
+      <c r="B36" s="163"/>
+      <c r="C36" s="164">
         <f t="shared" si="7"/>
         <v>131072</v>
       </c>
-      <c r="D36" s="163">
+      <c r="D36" s="164">
         <v>64.0</v>
       </c>
-      <c r="E36" s="163">
+      <c r="E36" s="164">
         <v>100.0</v>
       </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="164">
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="165">
         <v>755.11</v>
       </c>
-      <c r="I36" s="164">
+      <c r="I36" s="165">
         <v>293.16</v>
       </c>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164">
+      <c r="J36" s="165"/>
+      <c r="K36" s="165">
         <v>6.57</v>
       </c>
-      <c r="L36" s="164" t="s">
+      <c r="L36" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
+      <c r="P36" s="163"/>
+      <c r="Q36" s="163"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="161">
+      <c r="A37" s="162">
         <f t="shared" si="6"/>
         <v>107374182400</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="163">
+      <c r="B37" s="163"/>
+      <c r="C37" s="164">
         <f t="shared" si="7"/>
         <v>262144</v>
       </c>
-      <c r="D37" s="163">
+      <c r="D37" s="164">
         <v>64.0</v>
       </c>
-      <c r="E37" s="163">
+      <c r="E37" s="164">
         <v>100.0</v>
       </c>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="164">
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="165">
         <v>1523.29</v>
       </c>
-      <c r="I37" s="164">
+      <c r="I37" s="165">
         <v>582.13</v>
       </c>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164">
+      <c r="J37" s="165"/>
+      <c r="K37" s="165">
         <v>12.31</v>
       </c>
-      <c r="L37" s="164" t="s">
+      <c r="L37" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="162"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
+      <c r="P37" s="163"/>
+      <c r="Q37" s="163"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="161"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163"/>
+      <c r="O38" s="163"/>
+      <c r="P38" s="163"/>
+      <c r="Q38" s="163"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="161">
+      <c r="A39" s="162">
         <f t="shared" ref="A39:A46" si="8">E39*C39*D39^2</f>
         <v>167772160</v>
       </c>
-      <c r="B39" s="162"/>
-      <c r="C39" s="163">
+      <c r="B39" s="163"/>
+      <c r="C39" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D39" s="163">
+      <c r="D39" s="164">
         <v>128.0</v>
       </c>
-      <c r="E39" s="163">
+      <c r="E39" s="164">
         <v>10.0</v>
       </c>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
+      <c r="K39" s="166"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="163"/>
+      <c r="Q39" s="163"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="161">
+      <c r="A40" s="162">
         <f t="shared" si="8"/>
         <v>335544320</v>
       </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="163">
+      <c r="B40" s="163"/>
+      <c r="C40" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D40" s="163">
+      <c r="D40" s="164">
         <v>128.0</v>
       </c>
-      <c r="E40" s="163">
+      <c r="E40" s="164">
         <v>10.0</v>
       </c>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="165"/>
-      <c r="M40" s="162"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="163"/>
+      <c r="O40" s="163"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="163"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="161">
+      <c r="A41" s="162">
         <f t="shared" si="8"/>
         <v>671088640</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163">
+      <c r="B41" s="163"/>
+      <c r="C41" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D41" s="163">
+      <c r="D41" s="164">
         <v>128.0</v>
       </c>
-      <c r="E41" s="163">
+      <c r="E41" s="164">
         <v>10.0</v>
       </c>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="165"/>
-      <c r="M41" s="162"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="163"/>
+      <c r="P41" s="163"/>
+      <c r="Q41" s="163"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="161">
+      <c r="A42" s="162">
         <f t="shared" si="8"/>
         <v>1342177280</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="163">
+      <c r="B42" s="163"/>
+      <c r="C42" s="164">
         <f t="shared" ref="C42:C46" si="9">C41*2</f>
         <v>8192</v>
       </c>
-      <c r="D42" s="163">
+      <c r="D42" s="164">
         <v>128.0</v>
       </c>
-      <c r="E42" s="163">
+      <c r="E42" s="164">
         <v>10.0</v>
       </c>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="165"/>
-      <c r="L42" s="165"/>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="162"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="163"/>
+      <c r="P42" s="163"/>
+      <c r="Q42" s="163"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="161">
+      <c r="A43" s="162">
         <f t="shared" si="8"/>
         <v>2684354560</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="163">
+      <c r="B43" s="163"/>
+      <c r="C43" s="164">
         <f t="shared" si="9"/>
         <v>16384</v>
       </c>
-      <c r="D43" s="163">
+      <c r="D43" s="164">
         <v>128.0</v>
       </c>
-      <c r="E43" s="163">
+      <c r="E43" s="164">
         <v>10.0</v>
       </c>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="165"/>
-      <c r="L43" s="165"/>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="163"/>
+      <c r="Q43" s="163"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="161">
+      <c r="A44" s="162">
         <f t="shared" si="8"/>
         <v>5368709120</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="163">
+      <c r="B44" s="163"/>
+      <c r="C44" s="164">
         <f t="shared" si="9"/>
         <v>32768</v>
       </c>
-      <c r="D44" s="163">
+      <c r="D44" s="164">
         <v>128.0</v>
       </c>
-      <c r="E44" s="163">
+      <c r="E44" s="164">
         <v>10.0</v>
       </c>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="165"/>
-      <c r="L44" s="165"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="161">
+      <c r="A45" s="162">
         <f t="shared" si="8"/>
         <v>10737418240</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="163">
+      <c r="B45" s="163"/>
+      <c r="C45" s="164">
         <f t="shared" si="9"/>
         <v>65536</v>
       </c>
-      <c r="D45" s="163">
+      <c r="D45" s="164">
         <v>128.0</v>
       </c>
-      <c r="E45" s="163">
+      <c r="E45" s="164">
         <v>10.0</v>
       </c>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="165"/>
-      <c r="L45" s="165"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="162"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
+      <c r="Q45" s="163"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="161">
+      <c r="A46" s="162">
         <f t="shared" si="8"/>
         <v>21474836480</v>
       </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="163">
+      <c r="B46" s="163"/>
+      <c r="C46" s="164">
         <f t="shared" si="9"/>
         <v>131072</v>
       </c>
-      <c r="D46" s="163">
+      <c r="D46" s="164">
         <v>128.0</v>
       </c>
-      <c r="E46" s="163">
+      <c r="E46" s="164">
         <v>10.0</v>
       </c>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="165"/>
-      <c r="K46" s="165"/>
-      <c r="L46" s="164" t="s">
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="163"/>
+      <c r="P46" s="163"/>
+      <c r="Q46" s="163"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="161"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="165"/>
-      <c r="K47" s="165"/>
-      <c r="L47" s="165"/>
-      <c r="M47" s="162"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="162"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="163"/>
+      <c r="N47" s="163"/>
+      <c r="O47" s="163"/>
+      <c r="P47" s="163"/>
+      <c r="Q47" s="163"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="161">
+      <c r="A48" s="162">
         <f t="shared" ref="A48:A55" si="10">E48*C48*D48^2</f>
         <v>838860800</v>
       </c>
-      <c r="B48" s="162"/>
-      <c r="C48" s="163">
+      <c r="B48" s="163"/>
+      <c r="C48" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D48" s="163">
+      <c r="D48" s="164">
         <v>128.0</v>
       </c>
-      <c r="E48" s="163">
+      <c r="E48" s="164">
         <v>50.0</v>
       </c>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="164">
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="165">
         <v>11.63</v>
       </c>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="164">
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="165">
         <v>0.59</v>
       </c>
-      <c r="L48" s="165"/>
-      <c r="M48" s="162"/>
-      <c r="N48" s="162"/>
-      <c r="O48" s="162"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="162"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="163"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="161">
+      <c r="A49" s="162">
         <f t="shared" si="10"/>
         <v>1677721600</v>
       </c>
-      <c r="B49" s="162"/>
-      <c r="C49" s="163">
+      <c r="B49" s="163"/>
+      <c r="C49" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D49" s="163">
+      <c r="D49" s="164">
         <v>128.0</v>
       </c>
-      <c r="E49" s="163">
+      <c r="E49" s="164">
         <v>50.0</v>
       </c>
-      <c r="F49" s="163"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="164">
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="165">
         <v>23.27</v>
       </c>
-      <c r="I49" s="165"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="164">
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="165">
         <v>0.92</v>
       </c>
-      <c r="L49" s="165"/>
-      <c r="M49" s="162"/>
-      <c r="N49" s="162"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="162"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
+      <c r="O49" s="163"/>
+      <c r="P49" s="163"/>
+      <c r="Q49" s="163"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="161">
+      <c r="A50" s="162">
         <f t="shared" si="10"/>
         <v>3355443200</v>
       </c>
-      <c r="B50" s="162"/>
-      <c r="C50" s="163">
+      <c r="B50" s="163"/>
+      <c r="C50" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D50" s="163">
+      <c r="D50" s="164">
         <v>128.0</v>
       </c>
-      <c r="E50" s="163">
+      <c r="E50" s="164">
         <v>50.0</v>
       </c>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="164">
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="165">
         <v>47.23</v>
       </c>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="164">
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="165">
         <v>1.21</v>
       </c>
-      <c r="L50" s="165"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="162"/>
+      <c r="L50" s="166"/>
+      <c r="M50" s="163"/>
+      <c r="N50" s="163"/>
+      <c r="O50" s="163"/>
+      <c r="P50" s="163"/>
+      <c r="Q50" s="163"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="161">
+      <c r="A51" s="162">
         <f t="shared" si="10"/>
         <v>6710886400</v>
       </c>
-      <c r="B51" s="162"/>
-      <c r="C51" s="163">
+      <c r="B51" s="163"/>
+      <c r="C51" s="164">
         <f t="shared" ref="C51:C55" si="11">C50*2</f>
         <v>8192</v>
       </c>
-      <c r="D51" s="163">
+      <c r="D51" s="164">
         <v>128.0</v>
       </c>
-      <c r="E51" s="163">
+      <c r="E51" s="164">
         <v>50.0</v>
       </c>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="164">
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="165">
         <v>93.54</v>
       </c>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="164">
+      <c r="I51" s="166"/>
+      <c r="J51" s="166"/>
+      <c r="K51" s="165">
         <v>1.92</v>
       </c>
-      <c r="L51" s="165"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
+      <c r="L51" s="166"/>
+      <c r="M51" s="163"/>
+      <c r="N51" s="163"/>
+      <c r="O51" s="163"/>
+      <c r="P51" s="163"/>
+      <c r="Q51" s="163"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="161">
+      <c r="A52" s="162">
         <f t="shared" si="10"/>
         <v>13421772800</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="163">
+      <c r="B52" s="163"/>
+      <c r="C52" s="164">
         <f t="shared" si="11"/>
         <v>16384</v>
       </c>
-      <c r="D52" s="163">
+      <c r="D52" s="164">
         <v>128.0</v>
       </c>
-      <c r="E52" s="163">
+      <c r="E52" s="164">
         <v>50.0</v>
       </c>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="164">
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="165">
         <v>188.37</v>
       </c>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="164">
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="165">
         <v>3.13</v>
       </c>
-      <c r="L52" s="165"/>
-      <c r="M52" s="162"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="162"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="163"/>
+      <c r="N52" s="163"/>
+      <c r="O52" s="163"/>
+      <c r="P52" s="163"/>
+      <c r="Q52" s="163"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="161">
+      <c r="A53" s="162">
         <f t="shared" si="10"/>
         <v>26843545600</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="163">
+      <c r="B53" s="163"/>
+      <c r="C53" s="164">
         <f t="shared" si="11"/>
         <v>32768</v>
       </c>
-      <c r="D53" s="163">
+      <c r="D53" s="164">
         <v>128.0</v>
       </c>
-      <c r="E53" s="163">
+      <c r="E53" s="164">
         <v>50.0</v>
       </c>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="164">
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="165">
         <v>375.21</v>
       </c>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="164">
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="165">
         <v>29.57</v>
       </c>
-      <c r="L53" s="165"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="162"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="161">
+      <c r="A54" s="162">
         <f t="shared" si="10"/>
         <v>53687091200</v>
       </c>
-      <c r="B54" s="162"/>
-      <c r="C54" s="163">
+      <c r="B54" s="163"/>
+      <c r="C54" s="164">
         <f t="shared" si="11"/>
         <v>65536</v>
       </c>
-      <c r="D54" s="163">
+      <c r="D54" s="164">
         <v>128.0</v>
       </c>
-      <c r="E54" s="163">
+      <c r="E54" s="164">
         <v>50.0</v>
       </c>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="164">
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="165">
         <v>754.4</v>
       </c>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="164">
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="165">
         <v>57.1</v>
       </c>
-      <c r="L54" s="165"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="162"/>
-      <c r="Q54" s="162"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="163"/>
+      <c r="N54" s="163"/>
+      <c r="O54" s="163"/>
+      <c r="P54" s="163"/>
+      <c r="Q54" s="163"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="161">
+      <c r="A55" s="162">
         <f t="shared" si="10"/>
         <v>107374182400</v>
       </c>
-      <c r="B55" s="162"/>
-      <c r="C55" s="163">
+      <c r="B55" s="163"/>
+      <c r="C55" s="164">
         <f t="shared" si="11"/>
         <v>131072</v>
       </c>
-      <c r="D55" s="163">
+      <c r="D55" s="164">
         <v>128.0</v>
       </c>
-      <c r="E55" s="163">
+      <c r="E55" s="164">
         <v>50.0</v>
       </c>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="164">
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="165">
         <v>1517.0</v>
       </c>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="164">
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="165">
         <v>151.35</v>
       </c>
-      <c r="L55" s="164" t="s">
+      <c r="L55" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M55" s="162"/>
-      <c r="N55" s="162"/>
-      <c r="O55" s="162"/>
-      <c r="P55" s="162"/>
-      <c r="Q55" s="162"/>
+      <c r="M55" s="163"/>
+      <c r="N55" s="163"/>
+      <c r="O55" s="163"/>
+      <c r="P55" s="163"/>
+      <c r="Q55" s="163"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="161"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="165"/>
-      <c r="L56" s="165"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="162"/>
-      <c r="Q56" s="162"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="P56" s="163"/>
+      <c r="Q56" s="163"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="161">
+      <c r="A57" s="162">
         <f t="shared" ref="A57:A64" si="12">E57*C57*D57^2</f>
         <v>1677721600</v>
       </c>
-      <c r="B57" s="162"/>
-      <c r="C57" s="163">
+      <c r="B57" s="163"/>
+      <c r="C57" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D57" s="163">
+      <c r="D57" s="164">
         <v>128.0</v>
       </c>
-      <c r="E57" s="163">
+      <c r="E57" s="164">
         <v>100.0</v>
       </c>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="164">
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="165">
         <v>23.19</v>
       </c>
-      <c r="I57" s="164">
+      <c r="I57" s="165">
         <v>10.45</v>
       </c>
-      <c r="J57" s="164"/>
-      <c r="K57" s="164">
+      <c r="J57" s="165"/>
+      <c r="K57" s="165">
         <v>0.82</v>
       </c>
-      <c r="L57" s="165"/>
-      <c r="M57" s="162"/>
-      <c r="N57" s="162"/>
-      <c r="O57" s="162"/>
-      <c r="P57" s="162"/>
-      <c r="Q57" s="162"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="163"/>
+      <c r="N57" s="163"/>
+      <c r="O57" s="163"/>
+      <c r="P57" s="163"/>
+      <c r="Q57" s="163"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="161">
+      <c r="A58" s="162">
         <f t="shared" si="12"/>
         <v>3355443200</v>
       </c>
-      <c r="B58" s="162"/>
-      <c r="C58" s="163">
+      <c r="B58" s="163"/>
+      <c r="C58" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D58" s="163">
+      <c r="D58" s="164">
         <v>128.0</v>
       </c>
-      <c r="E58" s="163">
+      <c r="E58" s="164">
         <v>100.0</v>
       </c>
-      <c r="F58" s="163"/>
-      <c r="G58" s="163"/>
-      <c r="H58" s="164">
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="165">
         <v>46.39</v>
       </c>
-      <c r="I58" s="164">
+      <c r="I58" s="165">
         <v>19.79</v>
       </c>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164">
+      <c r="J58" s="165"/>
+      <c r="K58" s="165">
         <v>0.86</v>
       </c>
-      <c r="L58" s="165"/>
-      <c r="M58" s="162"/>
-      <c r="N58" s="162"/>
-      <c r="O58" s="162"/>
-      <c r="P58" s="162"/>
-      <c r="Q58" s="162"/>
+      <c r="L58" s="166"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
+      <c r="Q58" s="163"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="161">
+      <c r="A59" s="162">
         <f t="shared" si="12"/>
         <v>6710886400</v>
       </c>
-      <c r="B59" s="162"/>
-      <c r="C59" s="163">
+      <c r="B59" s="163"/>
+      <c r="C59" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D59" s="163">
+      <c r="D59" s="164">
         <v>128.0</v>
       </c>
-      <c r="E59" s="163">
+      <c r="E59" s="164">
         <v>100.0</v>
       </c>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="164">
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="165">
         <v>94.73</v>
       </c>
-      <c r="I59" s="164">
+      <c r="I59" s="165">
         <v>35.92</v>
       </c>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164">
+      <c r="J59" s="165"/>
+      <c r="K59" s="165">
         <v>1.12</v>
       </c>
-      <c r="L59" s="165"/>
-      <c r="M59" s="162"/>
-      <c r="N59" s="162"/>
-      <c r="O59" s="162"/>
-      <c r="P59" s="162"/>
-      <c r="Q59" s="162"/>
+      <c r="L59" s="166"/>
+      <c r="M59" s="163"/>
+      <c r="N59" s="163"/>
+      <c r="O59" s="163"/>
+      <c r="P59" s="163"/>
+      <c r="Q59" s="163"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="161">
+      <c r="A60" s="162">
         <f t="shared" si="12"/>
         <v>13421772800</v>
       </c>
-      <c r="B60" s="162"/>
-      <c r="C60" s="163">
+      <c r="B60" s="163"/>
+      <c r="C60" s="164">
         <f t="shared" ref="C60:C64" si="13">C59*2</f>
         <v>8192</v>
       </c>
-      <c r="D60" s="163">
+      <c r="D60" s="164">
         <v>128.0</v>
       </c>
-      <c r="E60" s="163">
+      <c r="E60" s="164">
         <v>100.0</v>
       </c>
-      <c r="F60" s="163"/>
-      <c r="G60" s="163"/>
-      <c r="H60" s="164">
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="165">
         <v>187.37</v>
       </c>
-      <c r="I60" s="164">
+      <c r="I60" s="165">
         <v>80.06</v>
       </c>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164">
+      <c r="J60" s="165"/>
+      <c r="K60" s="165">
         <v>1.87</v>
       </c>
-      <c r="L60" s="164">
+      <c r="L60" s="165">
         <v>118.85</v>
       </c>
-      <c r="M60" s="162"/>
-      <c r="N60" s="162"/>
-      <c r="O60" s="162"/>
-      <c r="P60" s="162"/>
-      <c r="Q60" s="162"/>
+      <c r="M60" s="163"/>
+      <c r="N60" s="163"/>
+      <c r="O60" s="163"/>
+      <c r="P60" s="163"/>
+      <c r="Q60" s="163"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="161">
+      <c r="A61" s="162">
         <f t="shared" si="12"/>
         <v>26843545600</v>
       </c>
-      <c r="B61" s="162"/>
-      <c r="C61" s="163">
+      <c r="B61" s="163"/>
+      <c r="C61" s="164">
         <f t="shared" si="13"/>
         <v>16384</v>
       </c>
-      <c r="D61" s="163">
+      <c r="D61" s="164">
         <v>128.0</v>
       </c>
-      <c r="E61" s="163">
+      <c r="E61" s="164">
         <v>100.0</v>
       </c>
-      <c r="F61" s="163"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="164">
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="165">
         <v>376.53</v>
       </c>
-      <c r="I61" s="164">
+      <c r="I61" s="165">
         <v>138.66</v>
       </c>
-      <c r="J61" s="164"/>
-      <c r="K61" s="164">
+      <c r="J61" s="165"/>
+      <c r="K61" s="165">
         <v>3.15</v>
       </c>
-      <c r="L61" s="165"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="162"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="162"/>
-      <c r="Q61" s="162"/>
+      <c r="L61" s="166"/>
+      <c r="M61" s="163"/>
+      <c r="N61" s="163"/>
+      <c r="O61" s="163"/>
+      <c r="P61" s="163"/>
+      <c r="Q61" s="163"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="161">
+      <c r="A62" s="162">
         <f t="shared" si="12"/>
         <v>53687091200</v>
       </c>
-      <c r="B62" s="162"/>
-      <c r="C62" s="163">
+      <c r="B62" s="163"/>
+      <c r="C62" s="164">
         <f t="shared" si="13"/>
         <v>32768</v>
       </c>
-      <c r="D62" s="163">
+      <c r="D62" s="164">
         <v>128.0</v>
       </c>
-      <c r="E62" s="163">
+      <c r="E62" s="164">
         <v>100.0</v>
       </c>
-      <c r="F62" s="163"/>
-      <c r="G62" s="163"/>
-      <c r="H62" s="164">
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="165">
         <v>757.11</v>
       </c>
-      <c r="I62" s="164">
+      <c r="I62" s="165">
         <v>297.66</v>
       </c>
-      <c r="J62" s="164"/>
-      <c r="K62" s="164">
+      <c r="J62" s="165"/>
+      <c r="K62" s="165">
         <v>6.27</v>
       </c>
-      <c r="L62" s="165"/>
-      <c r="M62" s="162"/>
-      <c r="N62" s="162"/>
-      <c r="O62" s="162"/>
-      <c r="P62" s="162"/>
-      <c r="Q62" s="162"/>
+      <c r="L62" s="166"/>
+      <c r="M62" s="163"/>
+      <c r="N62" s="163"/>
+      <c r="O62" s="163"/>
+      <c r="P62" s="163"/>
+      <c r="Q62" s="163"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="161">
+      <c r="A63" s="162">
         <f t="shared" si="12"/>
         <v>107374182400</v>
       </c>
-      <c r="B63" s="162"/>
-      <c r="C63" s="163">
+      <c r="B63" s="163"/>
+      <c r="C63" s="164">
         <f t="shared" si="13"/>
         <v>65536</v>
       </c>
-      <c r="D63" s="163">
+      <c r="D63" s="164">
         <v>128.0</v>
       </c>
-      <c r="E63" s="163">
+      <c r="E63" s="164">
         <v>100.0</v>
       </c>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="164">
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="165">
         <v>1500.12</v>
       </c>
-      <c r="I63" s="164">
+      <c r="I63" s="165">
         <v>571.52</v>
       </c>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164">
+      <c r="J63" s="165"/>
+      <c r="K63" s="165">
         <v>13.85</v>
       </c>
-      <c r="L63" s="165"/>
-      <c r="M63" s="162"/>
-      <c r="N63" s="162"/>
-      <c r="O63" s="162"/>
-      <c r="P63" s="162"/>
-      <c r="Q63" s="162"/>
+      <c r="L63" s="166"/>
+      <c r="M63" s="163"/>
+      <c r="N63" s="163"/>
+      <c r="O63" s="163"/>
+      <c r="P63" s="163"/>
+      <c r="Q63" s="163"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="161">
+      <c r="A64" s="162">
         <f t="shared" si="12"/>
         <v>214748364800</v>
       </c>
-      <c r="B64" s="162"/>
-      <c r="C64" s="163">
+      <c r="B64" s="163"/>
+      <c r="C64" s="164">
         <f t="shared" si="13"/>
         <v>131072</v>
       </c>
-      <c r="D64" s="163">
+      <c r="D64" s="164">
         <v>128.0</v>
       </c>
-      <c r="E64" s="163">
+      <c r="E64" s="164">
         <v>100.0</v>
       </c>
-      <c r="F64" s="163"/>
-      <c r="G64" s="163"/>
-      <c r="H64" s="164">
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="165">
         <v>3258.53</v>
       </c>
-      <c r="I64" s="164">
+      <c r="I64" s="165">
         <v>1173.8</v>
       </c>
-      <c r="J64" s="164"/>
-      <c r="K64" s="164">
+      <c r="J64" s="165"/>
+      <c r="K64" s="165">
         <v>214.13</v>
       </c>
-      <c r="L64" s="164" t="s">
+      <c r="L64" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="M64" s="162"/>
-      <c r="N64" s="162"/>
-      <c r="O64" s="162"/>
-      <c r="P64" s="162"/>
-      <c r="Q64" s="162"/>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="163"/>
+      <c r="Q64" s="163"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="161"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
-      <c r="E65" s="163"/>
-      <c r="F65" s="163"/>
-      <c r="G65" s="163"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="165"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-      <c r="P65" s="162"/>
-      <c r="Q65" s="162"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="166"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="166"/>
+      <c r="K65" s="166"/>
+      <c r="L65" s="166"/>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
+      <c r="O65" s="163"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="161">
+      <c r="A66" s="162">
         <f t="shared" ref="A66:A70" si="14">E66*C66*D66^2</f>
         <v>671088640</v>
       </c>
-      <c r="B66" s="162"/>
-      <c r="C66" s="166">
+      <c r="B66" s="163"/>
+      <c r="C66" s="167">
         <v>1024.0</v>
       </c>
-      <c r="D66" s="163">
+      <c r="D66" s="164">
         <v>256.0</v>
       </c>
-      <c r="E66" s="163">
+      <c r="E66" s="164">
         <v>10.0</v>
       </c>
-      <c r="F66" s="163"/>
-      <c r="G66" s="163"/>
-      <c r="H66" s="164">
+      <c r="F66" s="164"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="165">
         <v>9.51</v>
       </c>
-      <c r="I66" s="164">
+      <c r="I66" s="165">
         <v>4.15</v>
       </c>
-      <c r="J66" s="164"/>
-      <c r="K66" s="164">
+      <c r="J66" s="165"/>
+      <c r="K66" s="165">
         <v>1.08</v>
       </c>
-      <c r="L66" s="165"/>
-      <c r="M66" s="162"/>
-      <c r="N66" s="162"/>
-      <c r="O66" s="162"/>
-      <c r="P66" s="162"/>
-      <c r="Q66" s="162"/>
+      <c r="L66" s="166"/>
+      <c r="M66" s="163"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="163"/>
+      <c r="P66" s="163"/>
+      <c r="Q66" s="163"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="161">
+      <c r="A67" s="162">
         <f t="shared" si="14"/>
         <v>1342177280</v>
       </c>
-      <c r="B67" s="162"/>
-      <c r="C67" s="163">
+      <c r="B67" s="163"/>
+      <c r="C67" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D67" s="163">
+      <c r="D67" s="164">
         <v>256.0</v>
       </c>
-      <c r="E67" s="163">
+      <c r="E67" s="164">
         <v>10.0</v>
       </c>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="164">
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="165">
         <v>18.7</v>
       </c>
-      <c r="I67" s="164">
+      <c r="I67" s="165">
         <v>7.49</v>
       </c>
-      <c r="J67" s="164"/>
-      <c r="K67" s="164">
+      <c r="J67" s="165"/>
+      <c r="K67" s="165">
         <v>1.48</v>
       </c>
-      <c r="L67" s="165"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="162"/>
-      <c r="O67" s="162"/>
-      <c r="P67" s="162"/>
-      <c r="Q67" s="162"/>
+      <c r="L67" s="166"/>
+      <c r="M67" s="163"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="163"/>
+      <c r="P67" s="163"/>
+      <c r="Q67" s="163"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="161">
+      <c r="A68" s="162">
         <f t="shared" si="14"/>
         <v>2684354560</v>
       </c>
-      <c r="B68" s="162"/>
-      <c r="C68" s="163">
+      <c r="B68" s="163"/>
+      <c r="C68" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D68" s="163">
+      <c r="D68" s="164">
         <v>256.0</v>
       </c>
-      <c r="E68" s="163">
+      <c r="E68" s="164">
         <v>10.0</v>
       </c>
-      <c r="F68" s="163"/>
-      <c r="G68" s="163"/>
-      <c r="H68" s="164">
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="165">
         <v>38.12</v>
       </c>
-      <c r="I68" s="164">
+      <c r="I68" s="165">
         <v>13.94</v>
       </c>
-      <c r="J68" s="164"/>
-      <c r="K68" s="164">
+      <c r="J68" s="165"/>
+      <c r="K68" s="165">
         <v>2.61</v>
       </c>
-      <c r="L68" s="165"/>
-      <c r="M68" s="162"/>
-      <c r="N68" s="162"/>
-      <c r="O68" s="162"/>
-      <c r="P68" s="162"/>
-      <c r="Q68" s="162"/>
+      <c r="L68" s="166"/>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="163"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="163"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="161">
+      <c r="A69" s="162">
         <f t="shared" si="14"/>
         <v>5368709120</v>
       </c>
-      <c r="B69" s="162"/>
-      <c r="C69" s="163">
+      <c r="B69" s="163"/>
+      <c r="C69" s="164">
         <f t="shared" ref="C69:C70" si="15">C68*2</f>
         <v>8192</v>
       </c>
-      <c r="D69" s="163">
+      <c r="D69" s="164">
         <v>256.0</v>
       </c>
-      <c r="E69" s="163">
+      <c r="E69" s="164">
         <v>10.0</v>
       </c>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="164">
+      <c r="F69" s="164"/>
+      <c r="G69" s="164"/>
+      <c r="H69" s="165">
         <v>74.54</v>
       </c>
-      <c r="I69" s="164">
+      <c r="I69" s="165">
         <v>28.75</v>
       </c>
-      <c r="J69" s="164"/>
-      <c r="K69" s="164">
+      <c r="J69" s="165"/>
+      <c r="K69" s="165">
         <v>4.82</v>
       </c>
-      <c r="L69" s="165"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
-      <c r="P69" s="162"/>
-      <c r="Q69" s="162"/>
+      <c r="L69" s="166"/>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="163"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="161">
+      <c r="A70" s="162">
         <f t="shared" si="14"/>
         <v>10737418240</v>
       </c>
-      <c r="B70" s="162"/>
-      <c r="C70" s="163">
+      <c r="B70" s="163"/>
+      <c r="C70" s="164">
         <f t="shared" si="15"/>
         <v>16384</v>
       </c>
-      <c r="D70" s="163">
+      <c r="D70" s="164">
         <v>256.0</v>
       </c>
-      <c r="E70" s="163">
+      <c r="E70" s="164">
         <v>10.0</v>
       </c>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="164">
+      <c r="F70" s="164"/>
+      <c r="G70" s="164"/>
+      <c r="H70" s="165">
         <v>150.39</v>
       </c>
-      <c r="I70" s="164">
+      <c r="I70" s="165">
         <v>57.16</v>
       </c>
-      <c r="J70" s="164"/>
-      <c r="K70" s="164">
+      <c r="J70" s="165"/>
+      <c r="K70" s="165">
         <v>18.17</v>
       </c>
-      <c r="L70" s="165"/>
-      <c r="M70" s="162"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="162"/>
-      <c r="P70" s="162"/>
-      <c r="Q70" s="162"/>
+      <c r="L70" s="166"/>
+      <c r="M70" s="163"/>
+      <c r="N70" s="163"/>
+      <c r="O70" s="163"/>
+      <c r="P70" s="163"/>
+      <c r="Q70" s="163"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="161"/>
-      <c r="B71" s="162"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="165"/>
-      <c r="L71" s="165"/>
-      <c r="M71" s="162"/>
-      <c r="N71" s="162"/>
-      <c r="O71" s="162"/>
-      <c r="P71" s="162"/>
-      <c r="Q71" s="162"/>
+      <c r="A71" s="162"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="164"/>
+      <c r="H71" s="166"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="166"/>
+      <c r="K71" s="166"/>
+      <c r="L71" s="166"/>
+      <c r="M71" s="163"/>
+      <c r="N71" s="163"/>
+      <c r="O71" s="163"/>
+      <c r="P71" s="163"/>
+      <c r="Q71" s="163"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="161">
+      <c r="A72" s="162">
         <f t="shared" ref="A72:A76" si="16">E72*C72*D72^2</f>
         <v>3355443200</v>
       </c>
-      <c r="B72" s="162"/>
-      <c r="C72" s="163">
+      <c r="B72" s="163"/>
+      <c r="C72" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D72" s="163">
+      <c r="D72" s="164">
         <v>256.0</v>
       </c>
-      <c r="E72" s="163">
+      <c r="E72" s="164">
         <v>50.0</v>
       </c>
-      <c r="F72" s="163"/>
-      <c r="G72" s="163"/>
-      <c r="H72" s="164">
+      <c r="F72" s="164"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="165">
         <v>46.56</v>
       </c>
-      <c r="I72" s="164">
+      <c r="I72" s="165">
         <v>20.23</v>
       </c>
-      <c r="J72" s="164"/>
-      <c r="K72" s="164">
+      <c r="J72" s="165"/>
+      <c r="K72" s="165">
         <v>1.2</v>
       </c>
-      <c r="L72" s="165"/>
-      <c r="M72" s="162"/>
-      <c r="N72" s="162"/>
-      <c r="O72" s="162"/>
-      <c r="P72" s="162"/>
-      <c r="Q72" s="162"/>
+      <c r="L72" s="166"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="161">
+      <c r="A73" s="162">
         <f t="shared" si="16"/>
         <v>6710886400</v>
       </c>
-      <c r="B73" s="162"/>
-      <c r="C73" s="163">
+      <c r="B73" s="163"/>
+      <c r="C73" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D73" s="163">
+      <c r="D73" s="164">
         <v>256.0</v>
       </c>
-      <c r="E73" s="163">
+      <c r="E73" s="164">
         <v>50.0</v>
       </c>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="164">
+      <c r="F73" s="164"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="165">
         <v>93.56</v>
       </c>
-      <c r="I73" s="164">
+      <c r="I73" s="165">
         <v>38.56</v>
       </c>
-      <c r="J73" s="164"/>
-      <c r="K73" s="164">
+      <c r="J73" s="165"/>
+      <c r="K73" s="165">
         <v>1.81</v>
       </c>
-      <c r="L73" s="165"/>
-      <c r="M73" s="162"/>
-      <c r="N73" s="162"/>
-      <c r="O73" s="162"/>
-      <c r="P73" s="162"/>
-      <c r="Q73" s="162"/>
+      <c r="L73" s="166"/>
+      <c r="M73" s="163"/>
+      <c r="N73" s="163"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="163"/>
+      <c r="Q73" s="163"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="161">
+      <c r="A74" s="162">
         <f t="shared" si="16"/>
         <v>13421772800</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="163">
+      <c r="B74" s="163"/>
+      <c r="C74" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D74" s="163">
+      <c r="D74" s="164">
         <v>256.0</v>
       </c>
-      <c r="E74" s="163">
+      <c r="E74" s="164">
         <v>50.0</v>
       </c>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="164">
+      <c r="F74" s="164"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="165">
         <v>187.95</v>
       </c>
-      <c r="I74" s="164">
+      <c r="I74" s="165">
         <v>69.42</v>
       </c>
-      <c r="J74" s="164"/>
-      <c r="K74" s="164">
+      <c r="J74" s="165"/>
+      <c r="K74" s="165">
         <v>3.22</v>
       </c>
-      <c r="L74" s="165"/>
-      <c r="M74" s="162"/>
-      <c r="N74" s="162"/>
-      <c r="O74" s="162"/>
-      <c r="P74" s="162"/>
-      <c r="Q74" s="162"/>
+      <c r="L74" s="166"/>
+      <c r="M74" s="163"/>
+      <c r="N74" s="163"/>
+      <c r="O74" s="163"/>
+      <c r="P74" s="163"/>
+      <c r="Q74" s="163"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="161">
+      <c r="A75" s="162">
         <f t="shared" si="16"/>
         <v>26843545600</v>
       </c>
-      <c r="B75" s="162"/>
-      <c r="C75" s="163">
+      <c r="B75" s="163"/>
+      <c r="C75" s="164">
         <f t="shared" ref="C75:C76" si="17">C74*2</f>
         <v>8192</v>
       </c>
-      <c r="D75" s="163">
+      <c r="D75" s="164">
         <v>256.0</v>
       </c>
-      <c r="E75" s="163">
+      <c r="E75" s="164">
         <v>50.0</v>
       </c>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="164">
+      <c r="F75" s="164"/>
+      <c r="G75" s="164"/>
+      <c r="H75" s="165">
         <v>384.52</v>
       </c>
-      <c r="I75" s="164">
+      <c r="I75" s="165">
         <v>137.58</v>
       </c>
-      <c r="J75" s="164"/>
-      <c r="K75" s="164">
+      <c r="J75" s="165"/>
+      <c r="K75" s="165">
         <v>5.48</v>
       </c>
-      <c r="L75" s="165"/>
-      <c r="M75" s="162"/>
-      <c r="N75" s="162"/>
-      <c r="O75" s="162"/>
-      <c r="P75" s="162"/>
-      <c r="Q75" s="162"/>
+      <c r="L75" s="166"/>
+      <c r="M75" s="163"/>
+      <c r="N75" s="163"/>
+      <c r="O75" s="163"/>
+      <c r="P75" s="163"/>
+      <c r="Q75" s="163"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="161">
+      <c r="A76" s="162">
         <f t="shared" si="16"/>
         <v>53687091200</v>
       </c>
-      <c r="B76" s="162"/>
-      <c r="C76" s="163">
+      <c r="B76" s="163"/>
+      <c r="C76" s="164">
         <f t="shared" si="17"/>
         <v>16384</v>
       </c>
-      <c r="D76" s="163">
+      <c r="D76" s="164">
         <v>256.0</v>
       </c>
-      <c r="E76" s="163">
+      <c r="E76" s="164">
         <v>50.0</v>
       </c>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="164">
+      <c r="F76" s="164"/>
+      <c r="G76" s="164"/>
+      <c r="H76" s="165">
         <v>755.25</v>
       </c>
-      <c r="I76" s="164">
+      <c r="I76" s="165">
         <v>286.66</v>
       </c>
-      <c r="J76" s="164"/>
-      <c r="K76" s="164">
+      <c r="J76" s="165"/>
+      <c r="K76" s="165">
         <v>56.38</v>
       </c>
-      <c r="L76" s="165"/>
-      <c r="M76" s="162"/>
-      <c r="N76" s="162"/>
-      <c r="O76" s="162"/>
-      <c r="P76" s="162"/>
-      <c r="Q76" s="162"/>
+      <c r="L76" s="166"/>
+      <c r="M76" s="163"/>
+      <c r="N76" s="163"/>
+      <c r="O76" s="163"/>
+      <c r="P76" s="163"/>
+      <c r="Q76" s="163"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="161"/>
-      <c r="B77" s="162"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="163"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="165"/>
-      <c r="L77" s="165"/>
-      <c r="M77" s="162"/>
-      <c r="N77" s="162"/>
-      <c r="O77" s="162"/>
-      <c r="P77" s="162"/>
-      <c r="Q77" s="162"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="166"/>
+      <c r="I77" s="166"/>
+      <c r="J77" s="166"/>
+      <c r="K77" s="166"/>
+      <c r="L77" s="166"/>
+      <c r="M77" s="163"/>
+      <c r="N77" s="163"/>
+      <c r="O77" s="163"/>
+      <c r="P77" s="163"/>
+      <c r="Q77" s="163"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="161">
+      <c r="A78" s="162">
         <f t="shared" ref="A78:A82" si="18">E78*C78*D78^2</f>
         <v>6710886400</v>
       </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="163">
+      <c r="B78" s="163"/>
+      <c r="C78" s="164">
         <v>1024.0</v>
       </c>
-      <c r="D78" s="163">
+      <c r="D78" s="164">
         <v>256.0</v>
       </c>
-      <c r="E78" s="163">
+      <c r="E78" s="164">
         <v>100.0</v>
       </c>
-      <c r="F78" s="163"/>
-      <c r="G78" s="163"/>
-      <c r="H78" s="164">
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="165">
         <v>93.78</v>
       </c>
-      <c r="I78" s="164">
+      <c r="I78" s="165">
         <v>40.43</v>
       </c>
-      <c r="J78" s="164"/>
-      <c r="K78" s="164">
+      <c r="J78" s="165"/>
+      <c r="K78" s="165">
         <v>1.52</v>
       </c>
-      <c r="L78" s="165"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="162"/>
-      <c r="Q78" s="162"/>
+      <c r="L78" s="166"/>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
+      <c r="Q78" s="163"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="161">
+      <c r="A79" s="162">
         <f t="shared" si="18"/>
         <v>13421772800</v>
       </c>
-      <c r="B79" s="162"/>
-      <c r="C79" s="163">
+      <c r="B79" s="163"/>
+      <c r="C79" s="164">
         <v>2048.0</v>
       </c>
-      <c r="D79" s="163">
+      <c r="D79" s="164">
         <v>256.0</v>
       </c>
-      <c r="E79" s="163">
+      <c r="E79" s="164">
         <v>100.0</v>
       </c>
-      <c r="F79" s="163"/>
-      <c r="G79" s="163"/>
-      <c r="H79" s="164">
+      <c r="F79" s="164"/>
+      <c r="G79" s="164"/>
+      <c r="H79" s="165">
         <v>186.62</v>
       </c>
-      <c r="I79" s="164">
+      <c r="I79" s="165">
         <v>74.02</v>
       </c>
-      <c r="J79" s="164"/>
-      <c r="K79" s="164">
+      <c r="J79" s="165"/>
+      <c r="K79" s="165">
         <v>2.16</v>
       </c>
-      <c r="L79" s="165"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
-      <c r="O79" s="162"/>
-      <c r="P79" s="162"/>
-      <c r="Q79" s="162"/>
+      <c r="L79" s="166"/>
+      <c r="M79" s="163"/>
+      <c r="N79" s="163"/>
+      <c r="O79" s="163"/>
+      <c r="P79" s="163"/>
+      <c r="Q79" s="163"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="161">
+      <c r="A80" s="162">
         <f t="shared" si="18"/>
         <v>26843545600</v>
       </c>
-      <c r="B80" s="162"/>
-      <c r="C80" s="163">
+      <c r="B80" s="163"/>
+      <c r="C80" s="164">
         <v>4096.0</v>
       </c>
-      <c r="D80" s="163">
+      <c r="D80" s="164">
         <v>256.0</v>
       </c>
-      <c r="E80" s="163">
+      <c r="E80" s="164">
         <v>100.0</v>
       </c>
-      <c r="F80" s="163"/>
-      <c r="G80" s="163"/>
-      <c r="H80" s="164">
+      <c r="F80" s="164"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="165">
         <v>371.27</v>
       </c>
-      <c r="I80" s="164">
+      <c r="I80" s="165">
         <v>146.81</v>
       </c>
-      <c r="J80" s="164"/>
-      <c r="K80" s="164">
+      <c r="J80" s="165"/>
+      <c r="K80" s="165">
         <v>3.74</v>
       </c>
-      <c r="L80" s="165"/>
-      <c r="M80" s="162"/>
-      <c r="N80" s="162"/>
-      <c r="O80" s="162"/>
-      <c r="P80" s="162"/>
-      <c r="Q80" s="162"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="163"/>
+      <c r="N80" s="163"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="163"/>
+      <c r="Q80" s="163"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="161">
+      <c r="A81" s="162">
         <f t="shared" si="18"/>
         <v>53687091200</v>
       </c>
-      <c r="B81" s="162"/>
-      <c r="C81" s="163">
+      <c r="B81" s="163"/>
+      <c r="C81" s="164">
         <f t="shared" ref="C81:C82" si="19">C80*2</f>
         <v>8192</v>
       </c>
-      <c r="D81" s="163">
+      <c r="D81" s="164">
         <v>256.0</v>
       </c>
-      <c r="E81" s="163">
+      <c r="E81" s="164">
         <v>100.0</v>
       </c>
-      <c r="F81" s="163"/>
-      <c r="G81" s="163"/>
-      <c r="H81" s="164">
+      <c r="F81" s="164"/>
+      <c r="G81" s="164"/>
+      <c r="H81" s="165">
         <v>760.84</v>
       </c>
-      <c r="I81" s="164">
+      <c r="I81" s="165">
         <v>274.15</v>
       </c>
-      <c r="J81" s="164"/>
-      <c r="K81" s="164">
+      <c r="J81" s="165"/>
+      <c r="K81" s="165">
         <v>6.2</v>
       </c>
-      <c r="L81" s="164">
+      <c r="L81" s="165">
         <v>442.13</v>
       </c>
-      <c r="M81" s="162"/>
-      <c r="N81" s="162"/>
-      <c r="O81" s="162"/>
-      <c r="P81" s="162"/>
-      <c r="Q81" s="162"/>
+      <c r="M81" s="163"/>
+      <c r="N81" s="163"/>
+      <c r="O81" s="163"/>
+      <c r="P81" s="163"/>
+      <c r="Q81" s="163"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="161">
+      <c r="A82" s="162">
         <f t="shared" si="18"/>
         <v>107374182400</v>
       </c>
-      <c r="B82" s="162"/>
-      <c r="C82" s="163">
+      <c r="B82" s="163"/>
+      <c r="C82" s="164">
         <f t="shared" si="19"/>
         <v>16384</v>
       </c>
-      <c r="D82" s="163">
+      <c r="D82" s="164">
         <v>256.0</v>
       </c>
-      <c r="E82" s="163">
+      <c r="E82" s="164">
         <v>100.0</v>
       </c>
-      <c r="F82" s="163"/>
-      <c r="G82" s="163"/>
-      <c r="H82" s="164">
+      <c r="F82" s="164"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="165">
         <v>1527.07</v>
       </c>
-      <c r="I82" s="164">
+      <c r="I82" s="165">
         <v>568.9</v>
       </c>
-      <c r="J82" s="164"/>
-      <c r="K82" s="164">
+      <c r="J82" s="165"/>
+      <c r="K82" s="165">
         <v>107.51</v>
       </c>
-      <c r="L82" s="165"/>
-      <c r="M82" s="162"/>
-      <c r="N82" s="162"/>
-      <c r="O82" s="162"/>
-      <c r="P82" s="162"/>
-      <c r="Q82" s="162"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="163"/>
+      <c r="N82" s="163"/>
+      <c r="O82" s="163"/>
+      <c r="P82" s="163"/>
+      <c r="Q82" s="163"/>
     </row>
   </sheetData>
   <printOptions/>
